--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Box Sync\Center of Excellence on Unmanned Aircraft System Safety\UAS CoE Undergraduate Folder\Webpage_Tools\DroneTable\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24C7E22-4426-4B1E-9109-35D958244A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342113D-E764-4FC4-856D-E2BC2DA843FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1425" windowWidth="30975" windowHeight="17235" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
+    <workbookView xWindow="435" yWindow="390" windowWidth="31620" windowHeight="19695" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
   <sheets>
     <sheet name="Drones" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="388">
   <si>
     <t>Model</t>
   </si>
@@ -1200,9 +1200,6 @@
   </si>
   <si>
     <t>Image</t>
-  </si>
-  <si>
-    <t>https://assets.codepen.io/13809613/autel-dragonfish.jpg</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1303,10 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1348,21 +1348,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:M106" totalsRowShown="0">
   <autoFilter ref="A1:M106" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M106">
-    <sortCondition ref="A1:A106"/>
+    <sortCondition ref="L1:L106"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{D437D100-220A-42E8-8A79-53DD0D82F2C1}" name="Model"/>
     <tableColumn id="2" xr3:uid="{828F55EE-B928-4D7E-857E-7FA0CAA09A53}" name="Make"/>
     <tableColumn id="3" xr3:uid="{99A441EE-A3A2-4A19-9FB8-DFB62900D88E}" name="Made In"/>
     <tableColumn id="4" xr3:uid="{7F515D02-AD1E-486C-AFB4-51342B55B44C}" name="Type"/>
-    <tableColumn id="5" xr3:uid="{18BD740B-C432-4A77-B56B-10C43D75BB3E}" name="Price" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{6D928E53-2BEA-4E31-851F-6419D6FB4371}" name="MTOW (lbs)" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{18BD740B-C432-4A77-B56B-10C43D75BB3E}" name="Price" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{6D928E53-2BEA-4E31-851F-6419D6FB4371}" name="MTOW (lbs)" dataDxfId="1" dataCellStyle="Currency"/>
     <tableColumn id="6" xr3:uid="{77C23ACF-8A6E-4AE2-A99F-D5AC7BF3E3E9}" name="Payload"/>
     <tableColumn id="8" xr3:uid="{82758732-912E-4520-AEC6-3BCA45371BE3}" name="Control"/>
     <tableColumn id="11" xr3:uid="{A5441020-7376-40FB-8827-8A0FE1FD8B04}" name="Blue"/>
     <tableColumn id="12" xr3:uid="{9BB6A088-5C0E-4CEB-BBC6-B717AE453C44}" name="848"/>
     <tableColumn id="13" xr3:uid="{6BD8BF8C-67F5-4B9E-B5F0-1CD261E58DE2}" name="User Notes"/>
-    <tableColumn id="9" xr3:uid="{82B4C024-7D4B-4415-8257-D498EA9C1CAE}" name="Image"/>
+    <tableColumn id="9" xr3:uid="{82B4C024-7D4B-4415-8257-D498EA9C1CAE}" name="Image" dataDxfId="0">
+      <calculatedColumnFormula>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="16" xr3:uid="{C5E7F6E7-086F-471F-8EC4-EFF7248E5650}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1668,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,8 +1686,8 @@
     <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="42.140625" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" customWidth="1"/>
+    <col min="12" max="12" width="58" customWidth="1"/>
     <col min="13" max="13" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1732,42 +1734,43 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="6">
-        <v>999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.7</v>
+        <v>18000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>254</v>
+        <v>73</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Acecore-ZOE-Netherlands.jpg</v>
+      </c>
+      <c r="M2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1776,79 +1779,109 @@
         <v>41</v>
       </c>
       <c r="E3" s="6">
-        <v>17250</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>22000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
+      <c r="K3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/AeroSystemsWest-HeavyLiftMultirotor-US.jpg</v>
+      </c>
       <c r="M3" s="4" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="6">
-        <v>21560</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>342</v>
+      </c>
+      <c r="I4" t="s">
+        <v>386</v>
+      </c>
+      <c r="L4" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/AgEagle-eBeeTAC-US.jpg</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>114</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="E5" s="6">
-        <v>30520</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>13500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.6</v>
+      </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/AgEagle-eBeeX-US.jpg</v>
+      </c>
+      <c r="M5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>358</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1856,113 +1889,152 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6">
-        <v>55500</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>386</v>
+      </c>
+      <c r="K6" t="s">
+        <v>361</v>
+      </c>
+      <c r="L6" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Anduril-Ghost-US.jpg</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>49</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="6">
-        <v>20000</v>
+      <c r="E7" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L7" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Anduril-GhostX-US.jpg</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>123</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="6">
-        <v>26519</v>
+        <v>18500</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
       </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Arcsky-X55-US.jpg</v>
+      </c>
       <c r="M8" s="4" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="7">
-        <v>999</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>251</v>
+        <v>293</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13.5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>386</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/AscentAerosystems-Spirit-US.jpg</v>
       </c>
       <c r="M9" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1970,28 +2042,32 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6">
-        <v>18200</v>
+      <c r="E10" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>386</v>
+      </c>
+      <c r="L10" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/AscentAerosystems-Spirit-US.jpg</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>142</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -2000,10 +2076,10 @@
         <v>41</v>
       </c>
       <c r="E11" s="6">
-        <v>28500</v>
+        <v>3300</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -2011,19 +2087,23 @@
       <c r="H11" t="s">
         <v>73</v>
       </c>
-      <c r="J11" t="s">
-        <v>54</v>
+      <c r="K11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/AureliaAerospace-Tarot650-US.jpg</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -2032,10 +2112,10 @@
         <v>41</v>
       </c>
       <c r="E12" s="6">
-        <v>36000</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>3300</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
@@ -2043,22 +2123,26 @@
       <c r="H12" t="s">
         <v>73</v>
       </c>
-      <c r="I12" t="s">
-        <v>386</v>
-      </c>
       <c r="J12" t="s">
         <v>54</v>
       </c>
+      <c r="K12" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/AureliaAerospace-X4-US.jpg</v>
+      </c>
       <c r="M12" s="4" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -2067,30 +2151,37 @@
         <v>41</v>
       </c>
       <c r="E13" s="6">
-        <v>4500</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>178</v>
+        <v>4900</v>
+      </c>
+      <c r="F13" s="1">
+        <v>25.9</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>73</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
       </c>
       <c r="K13" t="s">
-        <v>180</v>
+        <v>218</v>
+      </c>
+      <c r="L13" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/AureliaAerospace-X6-US.jpg</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -2099,161 +2190,172 @@
         <v>41</v>
       </c>
       <c r="E14" s="6">
-        <v>7000</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>178</v>
+        <v>6399</v>
+      </c>
+      <c r="F14" s="1">
+        <v>37.4</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>218</v>
+      </c>
+      <c r="L14" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/AureliaAerospace-X8-US.jpg</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6">
-        <v>14000</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>178</v>
+        <v>90000</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
-      </c>
-      <c r="I15" t="s">
-        <v>386</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" t="s">
-        <v>180</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>181</v>
+        <v>25</v>
+      </c>
+      <c r="L15" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Autel-DragonfishLite-China.jpg</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6">
-        <v>35085</v>
+        <v>90000</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" t="s">
-        <v>78</v>
+        <v>25</v>
+      </c>
+      <c r="L16" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Autel-DragonfishPro-China.jpg</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>9000</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>158</v>
+        <v>90000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" t="s">
-        <v>205</v>
+        <v>25</v>
+      </c>
+      <c r="L17" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Autel-DragonfishStandard-China.jpg</v>
       </c>
       <c r="M17" t="s">
-        <v>206</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="6">
-        <v>14500</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>174</v>
+        <v>2500</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" t="s">
-        <v>175</v>
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>236</v>
+      </c>
+      <c r="L18" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Autel-EvoIIProv3-China.jpg</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -2262,59 +2364,64 @@
         <v>41</v>
       </c>
       <c r="E19" s="6">
-        <v>1388</v>
+        <v>9000</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" t="s">
-        <v>248</v>
+        <v>25</v>
+      </c>
+      <c r="L19" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Autel-EVOMax4T-China.jpg</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="6">
-        <v>56000</v>
+        <v>549</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" t="s">
-        <v>45</v>
+        <v>179</v>
+      </c>
+      <c r="L20" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Autel-EvoNano-China.jpg</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2322,14 +2429,17 @@
       <c r="D21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>336</v>
+      <c r="F21" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="G21" t="s">
-        <v>337</v>
+        <v>299</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
       </c>
       <c r="I21" t="s">
         <v>386</v>
@@ -2337,16 +2447,20 @@
       <c r="J21" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>338</v>
+      <c r="L21" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/BlueHalo-IntenseEyeV2-US.jpg</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -2354,270 +2468,290 @@
       <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>52</v>
+      <c r="F22" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="G22" t="s">
         <v>299</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>314</v>
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>386</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/BlueHalo-IntenseEyeV3-US.jpg</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="E23" s="6">
+        <v>60000</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>386</v>
-      </c>
-      <c r="J23" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>316</v>
-      </c>
-      <c r="M23" t="s">
-        <v>314</v>
+        <v>36</v>
+      </c>
+      <c r="L23" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/CensysTechnologies-Sentaero5-US.jpg</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="6">
+        <v>99495</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>386</v>
-      </c>
-      <c r="J24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" t="s">
-        <v>318</v>
+        <v>18</v>
+      </c>
+      <c r="L24" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Commaris-Seeker-US.jpg</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>319</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>321</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20700</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
+      <c r="L25" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DeltaQuad-DeltaQuadPro-Netherlands.jpg</v>
+      </c>
       <c r="M25" s="4" t="s">
-        <v>322</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="6">
-        <v>14999</v>
+        <v>20000</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>
       </c>
-      <c r="J26" t="s">
-        <v>54</v>
+      <c r="L26" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-AgrasT30-China.jpg</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>294</v>
+      <c r="E27" s="6">
+        <v>26519</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s">
         <v>25</v>
       </c>
-      <c r="J27" t="s">
-        <v>54</v>
+      <c r="L27" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-AgrasT40-China.jpg</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>305</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="6">
-        <v>20700</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>118</v>
+        <v>41</v>
+      </c>
+      <c r="E28" s="7">
+        <v>999</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>120</v>
+        <v>179</v>
+      </c>
+      <c r="L28" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Air2s-China.jpg</v>
+      </c>
+      <c r="M28" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E29" s="6">
-        <v>90000</v>
+        <v>1388</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" t="s">
-        <v>388</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
+        <v>179</v>
+      </c>
+      <c r="K29" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-AVATA-China.jpg</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E30" s="6">
-        <v>90000</v>
+        <v>16499</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
@@ -2625,188 +2759,197 @@
       <c r="H30" t="s">
         <v>25</v>
       </c>
-      <c r="L30" t="s">
-        <v>388</v>
+      <c r="K30" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Inspire3-China.jpg</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="6">
-        <v>90000</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="E31" s="11">
+        <v>10715</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
         <v>25</v>
       </c>
-      <c r="L31" t="s">
-        <v>388</v>
-      </c>
-      <c r="M31" t="s">
-        <v>26</v>
+      <c r="L31" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-M30Enterprise-China.jpg</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>355</v>
+        <v>41</v>
+      </c>
+      <c r="E32" s="7">
+        <v>12100</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="G32" t="s">
-        <v>356</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>342</v>
-      </c>
-      <c r="I32" t="s">
-        <v>386</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>357</v>
+        <v>25</v>
+      </c>
+      <c r="L32" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-M30Thermal-China.jpg</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="E33" s="6">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="F33" s="1">
-        <v>3.6</v>
+        <v>19.8</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M33" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="L33" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Matrice300RTK-China.jpg</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="6">
-        <v>15000</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>163</v>
+        <v>41</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2049</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" t="s">
-        <v>386</v>
-      </c>
-      <c r="J34" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="K34" t="s">
-        <v>164</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="L34" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Mavic3-China.jpg</v>
+      </c>
+      <c r="M34" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>294</v>
+        <v>41</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1699</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>370</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" t="s">
-        <v>386</v>
+        <v>179</v>
+      </c>
+      <c r="K35" t="s">
+        <v>155</v>
+      </c>
+      <c r="L35" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Mavic3Classic-China.jpg</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>371</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -2815,10 +2958,10 @@
         <v>41</v>
       </c>
       <c r="E36" s="6">
-        <v>2500</v>
+        <v>3630</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="G36" t="s">
         <v>24</v>
@@ -2827,18 +2970,22 @@
         <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>236</v>
+        <v>188</v>
+      </c>
+      <c r="L36" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Mavic3Enterprise-China.jpg</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -2847,27 +2994,34 @@
         <v>41</v>
       </c>
       <c r="E37" s="6">
-        <v>9000</v>
+        <v>2199</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
       </c>
+      <c r="K37" t="s">
+        <v>155</v>
+      </c>
+      <c r="L37" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Mavic3Pro-China.jpg</v>
+      </c>
       <c r="M37" s="4" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -2875,28 +3029,32 @@
       <c r="D38" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="6">
-        <v>549</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>259</v>
+      <c r="E38" s="7">
+        <v>5498</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>179</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>260</v>
+        <v>25</v>
+      </c>
+      <c r="L38" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Mavic3Thermal-China.jpg</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -2905,10 +3063,10 @@
         <v>41</v>
       </c>
       <c r="E39" s="6">
-        <v>330</v>
+        <v>759</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
@@ -2916,16 +3074,23 @@
       <c r="H39" t="s">
         <v>179</v>
       </c>
+      <c r="K39" t="s">
+        <v>155</v>
+      </c>
+      <c r="L39" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Mini3pro-China.jpg</v>
+      </c>
       <c r="M39" s="4" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
@@ -2933,11 +3098,11 @@
       <c r="D40" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="6">
-        <v>230</v>
+      <c r="E40" s="5">
+        <v>199</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>251</v>
+        <v>384</v>
       </c>
       <c r="G40" t="s">
         <v>24</v>
@@ -2945,211 +3110,239 @@
       <c r="H40" t="s">
         <v>179</v>
       </c>
-      <c r="K40" t="s">
-        <v>268</v>
+      <c r="L40" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DJI-Neo-China.jpg</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>274</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="6">
-        <v>351</v>
+        <v>14999</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H41" t="s">
-        <v>179</v>
-      </c>
-      <c r="K41" t="s">
-        <v>268</v>
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Draganfly-Commander2-Canada.jpg</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="6">
-        <v>360</v>
+      <c r="E42" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>179</v>
-      </c>
-      <c r="K42" t="s">
-        <v>268</v>
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Draganfly-Commander3XL-Canada.jpg</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="7">
-        <v>230</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>285</v>
+      <c r="E43" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="H43" t="s">
-        <v>179</v>
-      </c>
-      <c r="K43" t="s">
-        <v>268</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>286</v>
+        <v>25</v>
+      </c>
+      <c r="L43" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/DroneVolt-Hercules20-France.jpg</v>
+      </c>
+      <c r="M43" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
+        <v>366</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="7">
-        <v>230</v>
+      <c r="E44" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="G44" t="s">
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>179</v>
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
-      </c>
-      <c r="M44" t="s">
-        <v>286</v>
+        <v>62</v>
+      </c>
+      <c r="L44" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/EasyAerial-Osprey-.jpg</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E45" s="6">
-        <v>260</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>267</v>
+        <v>163</v>
       </c>
       <c r="G45" t="s">
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>179</v>
+        <v>25</v>
+      </c>
+      <c r="I45" t="s">
+        <v>386</v>
+      </c>
+      <c r="J45" t="s">
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>268</v>
+        <v>164</v>
+      </c>
+      <c r="L45" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Flightwave-Edge130-US.jpg</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s">
-        <v>359</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>294</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G46" t="s">
         <v>24</v>
       </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
       <c r="I46" t="s">
         <v>386</v>
       </c>
-      <c r="K46" t="s">
-        <v>361</v>
+      <c r="L46" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Flightwave-Edge130-US.jpg</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>363</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>359</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -3157,31 +3350,35 @@
       <c r="D47" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>294</v>
+      <c r="E47" s="6">
+        <v>40000</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" t="s">
-        <v>386</v>
+        <v>60</v>
+      </c>
+      <c r="H47" t="s">
+        <v>61</v>
       </c>
       <c r="K47" t="s">
-        <v>361</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>362</v>
+        <v>62</v>
+      </c>
+      <c r="L47" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Fotokite-Sigma-US.jpg</v>
+      </c>
+      <c r="M47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -3189,37 +3386,35 @@
       <c r="D48" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>184</v>
+      <c r="E48" s="6">
+        <v>28500</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" t="s">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s">
         <v>54</v>
       </c>
-      <c r="K48" t="s">
-        <v>185</v>
-      </c>
-      <c r="M48" t="s">
-        <v>186</v>
+      <c r="L48" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Freefly-Alta-X(BlueCube)-US.jpg</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -3228,187 +3423,223 @@
         <v>41</v>
       </c>
       <c r="E49" s="6">
-        <v>22000</v>
+        <v>36000</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" t="s">
-        <v>106</v>
+        <v>73</v>
+      </c>
+      <c r="I49" t="s">
+        <v>386</v>
+      </c>
+      <c r="J49" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Freefly-Alta-X(DIUBlue)-US.jpg</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>309</v>
+      <c r="E50" s="6">
+        <v>18200</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G50" t="s">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" t="s">
-        <v>311</v>
+        <v>73</v>
+      </c>
+      <c r="L50" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Freefly-Alta-X-US.jpg</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="6">
-        <v>360</v>
+        <v>14500</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="G51" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H51" t="s">
-        <v>179</v>
-      </c>
-      <c r="K51" t="s">
-        <v>268</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>269</v>
+        <v>73</v>
+      </c>
+      <c r="J51" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Freefly-Astro-US.jpg</v>
+      </c>
+      <c r="M51" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="6">
-        <v>210</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>251</v>
+      <c r="E52" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="H52" t="s">
-        <v>179</v>
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>386</v>
+      </c>
+      <c r="J52" t="s">
+        <v>54</v>
       </c>
       <c r="K52" t="s">
-        <v>268</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>290</v>
+        <v>316</v>
+      </c>
+      <c r="L52" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
+      </c>
+      <c r="M52" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="6">
-        <v>250</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>178</v>
+      <c r="E53" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H53" t="s">
-        <v>179</v>
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>54</v>
       </c>
       <c r="K53" t="s">
-        <v>268</v>
+        <v>318</v>
+      </c>
+      <c r="L53" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="6">
-        <v>270</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>178</v>
+      <c r="E54" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="H54" t="s">
-        <v>179</v>
-      </c>
-      <c r="K54" t="s">
-        <v>268</v>
+        <v>25</v>
+      </c>
+      <c r="L54" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/HarrisAerial-CarrierH6-US.jpg</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -3416,136 +3647,140 @@
       <c r="D55" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="6">
-        <v>29000</v>
-      </c>
-      <c r="F55" s="1">
-        <v>48.5</v>
+      <c r="E55" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="G55" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="H55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I55" t="s">
-        <v>386</v>
-      </c>
-      <c r="J55" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="L55" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/HarrisAerial-CarrierH8E-US.jpg</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="7">
-        <v>28000</v>
-      </c>
-      <c r="F56" s="1">
-        <v>48.5</v>
+      <c r="E56" s="6">
+        <v>360</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-      <c r="J56" t="s">
-        <v>54</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>90</v>
+        <v>179</v>
+      </c>
+      <c r="K56" t="s">
+        <v>268</v>
+      </c>
+      <c r="L56" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/HolyStone-HS600-China.jpg</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>158</v>
+      <c r="E57" s="6">
+        <v>210</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="G57" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>73</v>
-      </c>
-      <c r="I57" t="s">
-        <v>386</v>
-      </c>
-      <c r="J57" t="s">
-        <v>54</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>160</v>
+        <v>179</v>
+      </c>
+      <c r="K57" t="s">
+        <v>268</v>
+      </c>
+      <c r="L57" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/HolyStone-HS700E-China.jpg</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
         <v>41</v>
       </c>
       <c r="E58" s="6">
-        <v>20000</v>
+        <v>250</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>126</v>
-      </c>
-      <c r="I58" t="s">
-        <v>386</v>
-      </c>
-      <c r="J58" t="s">
-        <v>54</v>
+        <v>179</v>
+      </c>
+      <c r="K58" t="s">
+        <v>268</v>
+      </c>
+      <c r="L58" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/HolyStone-HS720-China.jpg</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -3554,30 +3789,34 @@
         <v>41</v>
       </c>
       <c r="E59" s="6">
-        <v>16499</v>
+        <v>270</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="G59" t="s">
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>268</v>
+      </c>
+      <c r="L59" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/HolyStone-HS720E-China.jpg</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3585,34 +3824,38 @@
       <c r="D60" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>298</v>
+      <c r="F60" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="G60" t="s">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
-      </c>
-      <c r="I60" t="s">
-        <v>386</v>
+        <v>61</v>
       </c>
       <c r="J60" t="s">
         <v>54</v>
       </c>
-      <c r="M60" s="8" t="s">
-        <v>300</v>
+      <c r="K60" t="s">
+        <v>62</v>
+      </c>
+      <c r="L60" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Hoverfly-Sentry-US.jpg</v>
+      </c>
+      <c r="M60" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3620,20 +3863,17 @@
       <c r="D61" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>302</v>
+      <c r="F61" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="G61" t="s">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
-      </c>
-      <c r="I61" t="s">
-        <v>386</v>
+        <v>61</v>
       </c>
       <c r="J61" t="s">
         <v>54</v>
@@ -3641,318 +3881,363 @@
       <c r="K61" t="s">
         <v>62</v>
       </c>
-      <c r="M61" s="8" t="s">
-        <v>303</v>
+      <c r="L61" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Hoverfly-Spectre-US.jpg</v>
+      </c>
+      <c r="M61" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="11">
-        <v>10715</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="E62" s="6">
+        <v>17250</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s">
         <v>25</v>
       </c>
-      <c r="M62" s="8" t="s">
-        <v>196</v>
+      <c r="L62" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Hylio-AG-210-US.jpg</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="7">
-        <v>12100</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>154</v>
-      </c>
+      <c r="E63" s="6">
+        <v>21560</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s">
         <v>25</v>
       </c>
-      <c r="M63" s="8" t="s">
-        <v>196</v>
+      <c r="L63" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Hylio-AG-216-US.jpg</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>41</v>
       </c>
       <c r="E64" s="6">
-        <v>13700</v>
-      </c>
-      <c r="F64" s="1">
-        <v>19.8</v>
-      </c>
+        <v>30520</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s">
         <v>25</v>
       </c>
-      <c r="K64" t="s">
-        <v>188</v>
+      <c r="L64" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Hylio-AG-230-US.jpg</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>189</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="7">
-        <v>2049</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>239</v>
-      </c>
+      <c r="E65" s="6">
+        <v>55500</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s">
-        <v>179</v>
-      </c>
-      <c r="K65" t="s">
-        <v>155</v>
-      </c>
-      <c r="M65" t="s">
-        <v>242</v>
+        <v>25</v>
+      </c>
+      <c r="L65" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Hylio-AG-272-US.jpg</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="6">
-        <v>1699</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>244</v>
+      <c r="E66" s="7">
+        <v>28000</v>
+      </c>
+      <c r="F66" s="1">
+        <v>48.5</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>179</v>
-      </c>
-      <c r="K66" t="s">
-        <v>155</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>245</v>
+        <v>73</v>
+      </c>
+      <c r="J66" t="s">
+        <v>54</v>
+      </c>
+      <c r="L66" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/InspiredFlight-IF1200A-US.jpg</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>231</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
       </c>
       <c r="E67" s="6">
-        <v>3630</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>221</v>
+        <v>29000</v>
+      </c>
+      <c r="F67" s="1">
+        <v>48.5</v>
       </c>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" t="s">
-        <v>188</v>
+        <v>73</v>
+      </c>
+      <c r="I67" t="s">
+        <v>386</v>
+      </c>
+      <c r="J67" t="s">
+        <v>54</v>
+      </c>
+      <c r="L67" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/InspiredFlight-IF1200-US.jpg</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="6">
-        <v>2199</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>239</v>
+      <c r="E68" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="H68" t="s">
-        <v>25</v>
-      </c>
-      <c r="K68" t="s">
-        <v>155</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>240</v>
+        <v>73</v>
+      </c>
+      <c r="I68" t="s">
+        <v>386</v>
+      </c>
+      <c r="J68" t="s">
+        <v>54</v>
+      </c>
+      <c r="L68" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/InspiredFlight-IF700-US.jpg</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
       </c>
-      <c r="E69" s="7">
-        <v>5498</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>221</v>
+      <c r="E69" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="G69" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>222</v>
+        <v>126</v>
+      </c>
+      <c r="I69" t="s">
+        <v>386</v>
+      </c>
+      <c r="J69" t="s">
+        <v>54</v>
+      </c>
+      <c r="L69" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/InspiredFlight-IF800-US.jpg</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>341</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
         <v>41</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>336</v>
+      <c r="E70" s="6">
+        <v>56000</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H70" t="s">
-        <v>342</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>343</v>
+        <v>44</v>
+      </c>
+      <c r="L70" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Leica-BLK2FLY-Switzerland.jpg</v>
+      </c>
+      <c r="M70" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>344</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="D71" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>336</v>
+      <c r="E71" s="6">
+        <v>40000</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G71" t="s">
-        <v>345</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>342</v>
+        <v>68</v>
+      </c>
+      <c r="J71" t="s">
+        <v>54</v>
+      </c>
+      <c r="L71" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Microdrones-md4-1000-Germany.jpg</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>346</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
@@ -3963,14 +4248,14 @@
       <c r="D72" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="6">
-        <v>40000</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>67</v>
+      <c r="E72" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="G72" t="s">
-        <v>24</v>
+        <v>332</v>
       </c>
       <c r="H72" t="s">
         <v>68</v>
@@ -3978,525 +4263,584 @@
       <c r="J72" t="s">
         <v>54</v>
       </c>
-      <c r="M72" s="4" t="s">
-        <v>69</v>
+      <c r="L72" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Microdrones-md4-3000-Germany.jpg</v>
+      </c>
+      <c r="M72" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>41</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>331</v>
+      <c r="E73" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G73" t="s">
-        <v>332</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>68</v>
-      </c>
-      <c r="J73" t="s">
-        <v>54</v>
-      </c>
-      <c r="M73" t="s">
-        <v>333</v>
+        <v>179</v>
+      </c>
+      <c r="K73" t="s">
+        <v>180</v>
+      </c>
+      <c r="L73" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Parrot-ANAFIAi-US.jpg</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
         <v>41</v>
       </c>
       <c r="E74" s="6">
-        <v>759</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>256</v>
+        <v>14000</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G74" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H74" t="s">
         <v>179</v>
       </c>
+      <c r="I74" t="s">
+        <v>386</v>
+      </c>
+      <c r="J74" t="s">
+        <v>54</v>
+      </c>
       <c r="K74" t="s">
-        <v>155</v>
+        <v>180</v>
+      </c>
+      <c r="L74" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Parrot-ANAFIUSAGOV-US.jpg</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>340</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>341</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>294</v>
+      <c r="E75" s="6">
+        <v>7000</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>348</v>
+        <v>178</v>
       </c>
       <c r="G75" t="s">
         <v>60</v>
       </c>
       <c r="H75" t="s">
-        <v>342</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>349</v>
+        <v>179</v>
+      </c>
+      <c r="K75" t="s">
+        <v>180</v>
+      </c>
+      <c r="L75" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Parrot-ANAFIUSA-US.jpg</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>41</v>
       </c>
-      <c r="E76" s="5">
-        <v>199</v>
+      <c r="E76" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="G76" t="s">
-        <v>24</v>
-      </c>
-      <c r="H76" t="s">
-        <v>179</v>
+        <v>337</v>
+      </c>
+      <c r="I76" t="s">
+        <v>386</v>
+      </c>
+      <c r="J76" t="s">
+        <v>54</v>
+      </c>
+      <c r="L76" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/PDW-C100-US.jpg</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="6">
-        <v>29300</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>85</v>
+        <v>41</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>73</v>
-      </c>
-      <c r="M77" t="s">
-        <v>86</v>
+        <v>342</v>
+      </c>
+      <c r="L77" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/PerceptoAir-Max-Israel.jpg</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
+        <v>340</v>
+      </c>
+      <c r="C78" t="s">
+        <v>341</v>
       </c>
       <c r="D78" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F78" s="10" t="s">
-        <v>367</v>
+      <c r="F78" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="G78" t="s">
-        <v>24</v>
+        <v>345</v>
       </c>
       <c r="H78" t="s">
-        <v>25</v>
-      </c>
-      <c r="I78" t="s">
-        <v>386</v>
-      </c>
-      <c r="K78" t="s">
-        <v>62</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>368</v>
+        <v>342</v>
+      </c>
+      <c r="L78" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/PerceptoAir-MaxOGI-Israel.jpg</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>347</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>340</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="6">
-        <v>46800</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>52</v>
+      <c r="E79" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>53</v>
-      </c>
-      <c r="J79" t="s">
-        <v>54</v>
-      </c>
-      <c r="K79" t="s">
-        <v>55</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>56</v>
+        <v>342</v>
+      </c>
+      <c r="L79" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/PerceptoAir-Mobile-Israel.jpg</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E80" s="7">
-        <v>29999</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>52</v>
+        <v>19300</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H80" t="s">
-        <v>25</v>
-      </c>
-      <c r="J80" t="s">
-        <v>54</v>
-      </c>
-      <c r="M80" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="L80" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E81" s="6">
-        <v>99495</v>
+        <v>330</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>18</v>
+        <v>179</v>
+      </c>
+      <c r="L81" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Ruko-F11-China.jpg</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E82" s="6">
-        <v>60000</v>
+        <v>380</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
-      </c>
-      <c r="K82" t="s">
-        <v>36</v>
+        <v>179</v>
+      </c>
+      <c r="L82" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Ruko-U11Pro-China.jpg</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
         <v>41</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>294</v>
+      <c r="E83" s="6">
+        <v>230</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="G83" t="s">
         <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>61</v>
-      </c>
-      <c r="J83" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="K83" t="s">
-        <v>62</v>
-      </c>
-      <c r="M83" t="s">
-        <v>326</v>
+        <v>268</v>
+      </c>
+      <c r="L83" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/SJRC-F114KPro-China.jpg</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
       </c>
       <c r="E84" s="6">
-        <v>40000</v>
+        <v>351</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="G84" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="K84" t="s">
-        <v>62</v>
-      </c>
-      <c r="M84" t="s">
-        <v>63</v>
+        <v>268</v>
+      </c>
+      <c r="L84" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/SJRC-F11s4KPro-China.jpg</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
         <v>41</v>
       </c>
       <c r="E85" s="6">
-        <v>9695</v>
+        <v>360</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="G85" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>25</v>
+        <v>179</v>
+      </c>
+      <c r="K85" t="s">
+        <v>268</v>
+      </c>
+      <c r="L85" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/SJRC-F22s4KPro-China.jpg</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>351</v>
+        <v>271</v>
       </c>
       <c r="C86" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>85</v>
+        <v>41</v>
+      </c>
+      <c r="E86" s="7">
+        <v>230</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="G86" t="s">
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>73</v>
+        <v>179</v>
+      </c>
+      <c r="K86" t="s">
+        <v>268</v>
+      </c>
+      <c r="L86" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/SJRC-F5SPro+-China.jpg</v>
       </c>
       <c r="M86" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
         <v>41</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>328</v>
+      <c r="E87" s="7">
+        <v>230</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="G87" t="s">
         <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>61</v>
-      </c>
-      <c r="J87" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="K87" t="s">
-        <v>62</v>
-      </c>
-      <c r="M87" t="s">
-        <v>329</v>
+        <v>268</v>
+      </c>
+      <c r="L87" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/SJRC-F5SPro-China.jpg</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>293</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F88" s="1">
-        <v>13.5</v>
+        <v>41</v>
+      </c>
+      <c r="E88" s="6">
+        <v>260</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="G88" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>73</v>
-      </c>
-      <c r="I88" t="s">
-        <v>386</v>
-      </c>
-      <c r="J88" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="K88" t="s">
-        <v>213</v>
-      </c>
-      <c r="M88" t="s">
-        <v>295</v>
+        <v>268</v>
+      </c>
+      <c r="L88" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/SJRC-F74KPro-China.jpg</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="B89" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4504,40 +4848,47 @@
       <c r="D89" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>364</v>
+      <c r="E89" s="6">
+        <v>999</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1.7</v>
       </c>
       <c r="G89" t="s">
-        <v>89</v>
-      </c>
-      <c r="I89" t="s">
-        <v>386</v>
+        <v>24</v>
+      </c>
+      <c r="H89" t="s">
+        <v>44</v>
+      </c>
+      <c r="K89" t="s">
+        <v>253</v>
+      </c>
+      <c r="L89" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Skydio-2+-US.jpg</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>376</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" s="6">
-        <v>18750</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>134</v>
+        <v>41</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="G90" t="s">
         <v>60</v>
@@ -4545,16 +4896,23 @@
       <c r="H90" t="s">
         <v>25</v>
       </c>
+      <c r="I90" t="s">
+        <v>386</v>
+      </c>
+      <c r="L90" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Skydio-X10D-US.jpg</v>
+      </c>
       <c r="M90" s="4" t="s">
-        <v>135</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4563,30 +4921,37 @@
         <v>41</v>
       </c>
       <c r="E91" s="6">
-        <v>3300</v>
+        <v>18000</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="G91" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H91" t="s">
-        <v>73</v>
-      </c>
-      <c r="K91" t="s">
-        <v>229</v>
+        <v>25</v>
+      </c>
+      <c r="I91" t="s">
+        <v>386</v>
+      </c>
+      <c r="J91" t="s">
+        <v>54</v>
+      </c>
+      <c r="L91" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Skydio-X10-US.jpg</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4598,10 +4963,10 @@
         <v>294</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G92" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
         <v>25</v>
@@ -4609,74 +4974,95 @@
       <c r="I92" t="s">
         <v>386</v>
       </c>
+      <c r="K92" t="s">
+        <v>374</v>
+      </c>
+      <c r="L92" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Skydio-X2D-US.jpg</v>
+      </c>
       <c r="M92" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="7">
-        <v>19300</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="E93" s="6">
+        <v>14999</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1.7</v>
       </c>
       <c r="G93" t="s">
         <v>60</v>
       </c>
       <c r="H93" t="s">
-        <v>73</v>
-      </c>
-      <c r="M93" s="8" t="s">
-        <v>131</v>
+        <v>25</v>
+      </c>
+      <c r="I93" t="s">
+        <v>386</v>
+      </c>
+      <c r="J93" t="s">
+        <v>54</v>
+      </c>
+      <c r="L93" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Skydio-X2E-US.jpg</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="D94" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" s="6">
-        <v>380</v>
+        <v>15</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="G94" t="s">
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>179</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>264</v>
+        <v>73</v>
+      </c>
+      <c r="L94" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Sky-drones-Skylane-UK.jpg</v>
+      </c>
+      <c r="M94" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4685,27 +5071,37 @@
         <v>41</v>
       </c>
       <c r="E95" s="6">
-        <v>26050</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>100</v>
+        <v>46800</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H95" t="s">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="J95" t="s">
+        <v>54</v>
+      </c>
+      <c r="K95" t="s">
+        <v>55</v>
+      </c>
+      <c r="L95" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Skyfront-Perimeter8-US.jpg</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4714,54 +5110,52 @@
         <v>41</v>
       </c>
       <c r="E96" s="6">
-        <v>7700</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>212</v>
+        <v>9000</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G96" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>61</v>
-      </c>
-      <c r="I96" t="s">
-        <v>386</v>
-      </c>
-      <c r="J96" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="K96" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="L96" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Sony-ARS-S1-US.jpg</v>
       </c>
       <c r="M96" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="6">
-        <v>22000</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>110</v>
+        <v>41</v>
+      </c>
+      <c r="E97" s="7">
+        <v>14000</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H97" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I97" t="s">
         <v>386</v>
@@ -4770,18 +5164,22 @@
         <v>54</v>
       </c>
       <c r="K97" t="s">
-        <v>111</v>
+        <v>185</v>
+      </c>
+      <c r="L97" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/TEAL-GoldenEagle-US.jpg</v>
       </c>
       <c r="M97" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4789,14 +5187,14 @@
       <c r="D98" t="s">
         <v>41</v>
       </c>
-      <c r="E98" s="6">
-        <v>18000</v>
+      <c r="E98" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
       <c r="G98" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s">
         <v>25</v>
@@ -4804,31 +5202,32 @@
       <c r="I98" t="s">
         <v>386</v>
       </c>
-      <c r="J98" t="s">
-        <v>54</v>
+      <c r="L98" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Teal-Teal2-US.jpg</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="D99" t="s">
         <v>41</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>294</v>
+      <c r="E99" s="6">
+        <v>9695</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>377</v>
+        <v>201</v>
       </c>
       <c r="G99" t="s">
         <v>60</v>
@@ -4836,19 +5235,20 @@
       <c r="H99" t="s">
         <v>25</v>
       </c>
-      <c r="I99" t="s">
-        <v>386</v>
+      <c r="L99" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Teledyne-SIRAS-Taiwan.jpg</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>378</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>372</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4856,46 +5256,53 @@
       <c r="D100" t="s">
         <v>41</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>294</v>
+      <c r="E100" s="6">
+        <v>7700</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>373</v>
+        <v>212</v>
       </c>
       <c r="G100" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H100" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I100" t="s">
         <v>386</v>
       </c>
+      <c r="J100" t="s">
+        <v>54</v>
+      </c>
       <c r="K100" t="s">
-        <v>374</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>375</v>
+        <v>213</v>
+      </c>
+      <c r="L100" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/VantageRobotics-Vesper-US.jpg</v>
+      </c>
+      <c r="M100" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="E101" s="6">
-        <v>14999</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1.7</v>
+        <v>18750</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G101" t="s">
         <v>60</v>
@@ -4903,22 +5310,20 @@
       <c r="H101" t="s">
         <v>25</v>
       </c>
-      <c r="I101" t="s">
-        <v>386</v>
-      </c>
-      <c r="J101" t="s">
-        <v>54</v>
+      <c r="L101" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4927,33 +5332,31 @@
         <v>41</v>
       </c>
       <c r="E102" s="6">
-        <v>3300</v>
+        <v>26050</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="G102" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H102" t="s">
-        <v>73</v>
-      </c>
-      <c r="J102" t="s">
-        <v>54</v>
-      </c>
-      <c r="K102" t="s">
-        <v>218</v>
+        <v>25</v>
+      </c>
+      <c r="L102" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/VisionAerial-Vector-US.jpg</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4961,14 +5364,14 @@
       <c r="D103" t="s">
         <v>41</v>
       </c>
-      <c r="E103" s="6">
-        <v>18500</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>104</v>
+      <c r="E103" s="7">
+        <v>29999</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G103" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="H103" t="s">
         <v>25</v>
@@ -4976,110 +5379,120 @@
       <c r="J103" t="s">
         <v>54</v>
       </c>
-      <c r="K103" t="s">
-        <v>139</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>140</v>
+      <c r="L103" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/WattsInnovation-PRISMSky-US.jpg</v>
+      </c>
+      <c r="M103" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E104" s="6">
-        <v>4900</v>
-      </c>
-      <c r="F104" s="1">
-        <v>25.9</v>
+        <v>22000</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G104" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H104" t="s">
-        <v>73</v>
+        <v>61</v>
+      </c>
+      <c r="I104" t="s">
+        <v>386</v>
       </c>
       <c r="J104" t="s">
         <v>54</v>
       </c>
       <c r="K104" t="s">
-        <v>218</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>224</v>
+        <v>111</v>
+      </c>
+      <c r="L104" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
+      </c>
+      <c r="M104" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E105" s="6">
-        <v>6399</v>
-      </c>
-      <c r="F105" s="1">
-        <v>37.4</v>
+        <v>35085</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H105" t="s">
         <v>73</v>
       </c>
-      <c r="J105" t="s">
-        <v>54</v>
-      </c>
-      <c r="K105" t="s">
-        <v>218</v>
-      </c>
-      <c r="M105" s="4" t="s">
-        <v>219</v>
+      <c r="L105" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/ZephyrSystems-ARK-350-US.jpg</v>
+      </c>
+      <c r="M105" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E106" s="6">
-        <v>18000</v>
+        <v>29300</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="G106" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="H106" t="s">
         <v>73</v>
       </c>
+      <c r="L106" t="str">
+        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/images/ZephyrSystems-OKO-250-US.jpg</v>
+      </c>
       <c r="M106" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5125,106 +5538,106 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M33" r:id="rId1" xr:uid="{B0654C94-D789-4E36-AFC9-EB5ECDA2C30E}"/>
-    <hyperlink ref="M88" r:id="rId2" xr:uid="{B8E29BEF-5DC3-415A-9A42-321C52A9698E}"/>
-    <hyperlink ref="M29" r:id="rId3" xr:uid="{3EB35BBA-2E6E-43BC-9F2B-BA46D8129FCE}"/>
-    <hyperlink ref="M64" r:id="rId4" xr:uid="{113E3222-47AA-4EC1-B25F-6603ADCCF7DC}"/>
-    <hyperlink ref="M20" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
-    <hyperlink ref="M55" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
-    <hyperlink ref="M13" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
-    <hyperlink ref="M70" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
-    <hyperlink ref="M2" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
-    <hyperlink ref="M17" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
-    <hyperlink ref="M93" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
-    <hyperlink ref="M90" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
-    <hyperlink ref="M80" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
-    <hyperlink ref="M16" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
-    <hyperlink ref="M77" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
-    <hyperlink ref="M97" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
-    <hyperlink ref="M72" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
-    <hyperlink ref="M73" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
-    <hyperlink ref="M106" r:id="rId19" xr:uid="{DC762510-5411-4346-ADC1-60C1710AEFF4}"/>
-    <hyperlink ref="M86" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
-    <hyperlink ref="M96" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
-    <hyperlink ref="M83" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
-    <hyperlink ref="M87" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
-    <hyperlink ref="M84" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
-    <hyperlink ref="M48" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
-    <hyperlink ref="M18" r:id="rId26" xr:uid="{64F6E8C6-878E-41CF-9C1C-AEFA73C8F7FC}"/>
-    <hyperlink ref="M10" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
-    <hyperlink ref="M11" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
-    <hyperlink ref="M12" r:id="rId29" xr:uid="{165AB571-AD17-47C5-A52E-3ECFE175E45D}"/>
-    <hyperlink ref="M82" r:id="rId30" xr:uid="{7930AE8A-8903-499F-BF8A-0A53F8878139}"/>
-    <hyperlink ref="M81" r:id="rId31" xr:uid="{C27966FD-A67B-4E75-8B4C-4104B1780811}"/>
-    <hyperlink ref="M38" r:id="rId32" xr:uid="{4E79DE0E-747D-48A0-A3DF-A317F525AC99}"/>
-    <hyperlink ref="M39" r:id="rId33" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
-    <hyperlink ref="M94" r:id="rId34" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
-    <hyperlink ref="M60" r:id="rId35" xr:uid="{ACA47773-CA7B-4A93-B655-DCCB7CFFB97E}"/>
-    <hyperlink ref="M49" r:id="rId36" xr:uid="{484AB161-02F7-4842-900B-06E05CBA3079}"/>
-    <hyperlink ref="M103" r:id="rId37" xr:uid="{CB0C1422-2871-46D4-805F-64E91A0FCF19}"/>
-    <hyperlink ref="M34" r:id="rId38" xr:uid="{333F58F8-A830-48A8-AF31-563FA3C3331C}"/>
-    <hyperlink ref="M91" r:id="rId39" xr:uid="{20BEA2F4-F9E7-465C-8582-C32BB114A958}"/>
-    <hyperlink ref="M79" r:id="rId40" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
-    <hyperlink ref="M61" r:id="rId41" location="uas" xr:uid="{2C129CB9-17CF-4162-855D-4744CE573C87}"/>
-    <hyperlink ref="M21" r:id="rId42" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
-    <hyperlink ref="M98" r:id="rId43" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
-    <hyperlink ref="M37" r:id="rId44" xr:uid="{EC583CD3-7C3A-4D09-B7ED-0EC8AAAA3343}"/>
-    <hyperlink ref="M6" r:id="rId45" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
-    <hyperlink ref="M5" r:id="rId46" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
-    <hyperlink ref="M56" r:id="rId47" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
-    <hyperlink ref="M8" r:id="rId48" xr:uid="{A0523012-6C05-445A-974A-B3A49ABDACBD}"/>
-    <hyperlink ref="M95" r:id="rId49" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
-    <hyperlink ref="M4" r:id="rId50" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
-    <hyperlink ref="M28" r:id="rId51" xr:uid="{422B5330-A905-4AB0-B139-84D956CD2FD4}"/>
-    <hyperlink ref="M7" r:id="rId52" xr:uid="{B6B6B82A-AE51-4B42-9719-E5EA3598D511}"/>
-    <hyperlink ref="M58" r:id="rId53" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
-    <hyperlink ref="M3" r:id="rId54" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
-    <hyperlink ref="M59" r:id="rId55" xr:uid="{B2EC1F0D-EC36-406C-AAAE-962F29C1C690}"/>
-    <hyperlink ref="M26" r:id="rId56" xr:uid="{5851B709-EE11-4040-A6C7-792A08E645BB}"/>
-    <hyperlink ref="M101" r:id="rId57" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
-    <hyperlink ref="M15" r:id="rId58" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
-    <hyperlink ref="M85" r:id="rId59" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
-    <hyperlink ref="M14" r:id="rId60" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
-    <hyperlink ref="M105" r:id="rId61" xr:uid="{47D34CCC-47E1-4B8F-9277-23B177A2C527}"/>
-    <hyperlink ref="M69" r:id="rId62" xr:uid="{94228163-F868-4206-9105-EA09E5E25EBE}"/>
-    <hyperlink ref="M104" r:id="rId63" xr:uid="{DBFCF21E-1457-4EF8-B2EA-7F6C3FA78E26}"/>
-    <hyperlink ref="M67" r:id="rId64" xr:uid="{8FB7EF7C-30C3-4852-A105-40043558285D}"/>
-    <hyperlink ref="M102" r:id="rId65" xr:uid="{42DC1FA1-408C-4BCC-AA55-F48220C06104}"/>
-    <hyperlink ref="M36" r:id="rId66" xr:uid="{B97CC6F1-C2F1-4CA5-8E37-9D983B165767}"/>
-    <hyperlink ref="M68" r:id="rId67" xr:uid="{404F221D-4717-48DD-91EE-073EB8108F0D}"/>
-    <hyperlink ref="M66" r:id="rId68" xr:uid="{A825FDFA-08DE-4E45-B2DE-9F7470045A4A}"/>
-    <hyperlink ref="M19" r:id="rId69" xr:uid="{87B2FCDE-C75E-49B7-9AA2-A26A9080A388}"/>
-    <hyperlink ref="M74" r:id="rId70" xr:uid="{02B24B87-6439-4455-9EB9-975DF50A9832}"/>
-    <hyperlink ref="M51" r:id="rId71" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
-    <hyperlink ref="M42" r:id="rId72" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
-    <hyperlink ref="M41" r:id="rId73" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
-    <hyperlink ref="M54" r:id="rId74" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
-    <hyperlink ref="M45" r:id="rId75" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
-    <hyperlink ref="M53" r:id="rId76" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
-    <hyperlink ref="M40" r:id="rId77" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
-    <hyperlink ref="M52" r:id="rId78" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
-    <hyperlink ref="M27" r:id="rId79" xr:uid="{295CA37D-1AD1-4E9E-8924-8E62F6AC71AC}"/>
-    <hyperlink ref="M22" r:id="rId80" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
-    <hyperlink ref="M24" r:id="rId81" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
-    <hyperlink ref="M25" r:id="rId82" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
-    <hyperlink ref="M71" r:id="rId83" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
-    <hyperlink ref="M32" r:id="rId84" xr:uid="{B8EEF89A-4F04-454F-A259-4DFF0690D481}"/>
-    <hyperlink ref="M46" r:id="rId85" xr:uid="{CE7BCF13-6582-4B09-9229-8A802DDED0E6}"/>
-    <hyperlink ref="M47" r:id="rId86" xr:uid="{26F63D41-5725-4371-9C40-4A585DEA85B9}"/>
-    <hyperlink ref="M89" r:id="rId87" xr:uid="{36AB703D-E6D6-4459-9749-AF7D1AEE6B66}"/>
-    <hyperlink ref="M35" r:id="rId88" xr:uid="{E52379EB-1E5E-4657-99E8-930A49D011CB}"/>
-    <hyperlink ref="M99" r:id="rId89" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
-    <hyperlink ref="M30" r:id="rId90" xr:uid="{EB24426B-29A4-4CF8-B587-4B40E8A5DAB6}"/>
-    <hyperlink ref="M57" r:id="rId91" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
-    <hyperlink ref="M76" r:id="rId92" xr:uid="{A01C861A-5B15-4690-8AD2-2B7772918BDE}"/>
-    <hyperlink ref="M92" r:id="rId93" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
-    <hyperlink ref="M100" r:id="rId94" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
-    <hyperlink ref="M50" r:id="rId95" xr:uid="{E5279318-3BFF-4592-9619-A1D3C16C3193}"/>
-    <hyperlink ref="M78" r:id="rId96" xr:uid="{4FF7E709-8E9D-4104-804F-DA7C4F3B79F5}"/>
-    <hyperlink ref="M75" r:id="rId97" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
-    <hyperlink ref="M43" r:id="rId98" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
-    <hyperlink ref="M63" r:id="rId99" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
-    <hyperlink ref="M62" r:id="rId100" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{B0654C94-D789-4E36-AFC9-EB5ECDA2C30E}"/>
+    <hyperlink ref="M9" r:id="rId2" xr:uid="{B8E29BEF-5DC3-415A-9A42-321C52A9698E}"/>
+    <hyperlink ref="M15" r:id="rId3" xr:uid="{3EB35BBA-2E6E-43BC-9F2B-BA46D8129FCE}"/>
+    <hyperlink ref="M33" r:id="rId4" xr:uid="{113E3222-47AA-4EC1-B25F-6603ADCCF7DC}"/>
+    <hyperlink ref="M70" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
+    <hyperlink ref="M67" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
+    <hyperlink ref="M73" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
+    <hyperlink ref="M77" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
+    <hyperlink ref="M89" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
+    <hyperlink ref="M96" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
+    <hyperlink ref="M80" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
+    <hyperlink ref="M101" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
+    <hyperlink ref="M103" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
+    <hyperlink ref="M105" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
+    <hyperlink ref="M106" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
+    <hyperlink ref="M104" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
+    <hyperlink ref="M71" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
+    <hyperlink ref="M72" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
+    <hyperlink ref="M2" r:id="rId19" xr:uid="{DC762510-5411-4346-ADC1-60C1710AEFF4}"/>
+    <hyperlink ref="M94" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
+    <hyperlink ref="M100" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
+    <hyperlink ref="M60" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
+    <hyperlink ref="M61" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
+    <hyperlink ref="M47" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
+    <hyperlink ref="M97" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
+    <hyperlink ref="M51" r:id="rId26" xr:uid="{64F6E8C6-878E-41CF-9C1C-AEFA73C8F7FC}"/>
+    <hyperlink ref="M50" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
+    <hyperlink ref="M48" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
+    <hyperlink ref="M49" r:id="rId29" xr:uid="{165AB571-AD17-47C5-A52E-3ECFE175E45D}"/>
+    <hyperlink ref="M23" r:id="rId30" xr:uid="{7930AE8A-8903-499F-BF8A-0A53F8878139}"/>
+    <hyperlink ref="M24" r:id="rId31" xr:uid="{C27966FD-A67B-4E75-8B4C-4104B1780811}"/>
+    <hyperlink ref="M20" r:id="rId32" xr:uid="{4E79DE0E-747D-48A0-A3DF-A317F525AC99}"/>
+    <hyperlink ref="M81" r:id="rId33" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
+    <hyperlink ref="M82" r:id="rId34" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
+    <hyperlink ref="M21" r:id="rId35" xr:uid="{ACA47773-CA7B-4A93-B655-DCCB7CFFB97E}"/>
+    <hyperlink ref="M3" r:id="rId36" xr:uid="{484AB161-02F7-4842-900B-06E05CBA3079}"/>
+    <hyperlink ref="M8" r:id="rId37" xr:uid="{CB0C1422-2871-46D4-805F-64E91A0FCF19}"/>
+    <hyperlink ref="M45" r:id="rId38" xr:uid="{333F58F8-A830-48A8-AF31-563FA3C3331C}"/>
+    <hyperlink ref="M11" r:id="rId39" xr:uid="{20BEA2F4-F9E7-465C-8582-C32BB114A958}"/>
+    <hyperlink ref="M95" r:id="rId40" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
+    <hyperlink ref="M22" r:id="rId41" location="uas" xr:uid="{2C129CB9-17CF-4162-855D-4744CE573C87}"/>
+    <hyperlink ref="M76" r:id="rId42" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
+    <hyperlink ref="M91" r:id="rId43" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
+    <hyperlink ref="M19" r:id="rId44" xr:uid="{EC583CD3-7C3A-4D09-B7ED-0EC8AAAA3343}"/>
+    <hyperlink ref="M65" r:id="rId45" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
+    <hyperlink ref="M64" r:id="rId46" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
+    <hyperlink ref="M66" r:id="rId47" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
+    <hyperlink ref="M27" r:id="rId48" xr:uid="{A0523012-6C05-445A-974A-B3A49ABDACBD}"/>
+    <hyperlink ref="M102" r:id="rId49" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
+    <hyperlink ref="M63" r:id="rId50" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
+    <hyperlink ref="M25" r:id="rId51" xr:uid="{422B5330-A905-4AB0-B139-84D956CD2FD4}"/>
+    <hyperlink ref="M26" r:id="rId52" xr:uid="{B6B6B82A-AE51-4B42-9719-E5EA3598D511}"/>
+    <hyperlink ref="M69" r:id="rId53" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
+    <hyperlink ref="M62" r:id="rId54" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
+    <hyperlink ref="M30" r:id="rId55" xr:uid="{B2EC1F0D-EC36-406C-AAAE-962F29C1C690}"/>
+    <hyperlink ref="M41" r:id="rId56" xr:uid="{5851B709-EE11-4040-A6C7-792A08E645BB}"/>
+    <hyperlink ref="M93" r:id="rId57" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
+    <hyperlink ref="M74" r:id="rId58" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
+    <hyperlink ref="M99" r:id="rId59" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
+    <hyperlink ref="M75" r:id="rId60" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
+    <hyperlink ref="M14" r:id="rId61" xr:uid="{47D34CCC-47E1-4B8F-9277-23B177A2C527}"/>
+    <hyperlink ref="M38" r:id="rId62" xr:uid="{94228163-F868-4206-9105-EA09E5E25EBE}"/>
+    <hyperlink ref="M13" r:id="rId63" xr:uid="{DBFCF21E-1457-4EF8-B2EA-7F6C3FA78E26}"/>
+    <hyperlink ref="M36" r:id="rId64" xr:uid="{8FB7EF7C-30C3-4852-A105-40043558285D}"/>
+    <hyperlink ref="M12" r:id="rId65" xr:uid="{42DC1FA1-408C-4BCC-AA55-F48220C06104}"/>
+    <hyperlink ref="M18" r:id="rId66" xr:uid="{B97CC6F1-C2F1-4CA5-8E37-9D983B165767}"/>
+    <hyperlink ref="M37" r:id="rId67" xr:uid="{404F221D-4717-48DD-91EE-073EB8108F0D}"/>
+    <hyperlink ref="M35" r:id="rId68" xr:uid="{A825FDFA-08DE-4E45-B2DE-9F7470045A4A}"/>
+    <hyperlink ref="M29" r:id="rId69" xr:uid="{87B2FCDE-C75E-49B7-9AA2-A26A9080A388}"/>
+    <hyperlink ref="M39" r:id="rId70" xr:uid="{02B24B87-6439-4455-9EB9-975DF50A9832}"/>
+    <hyperlink ref="M56" r:id="rId71" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
+    <hyperlink ref="M85" r:id="rId72" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
+    <hyperlink ref="M84" r:id="rId73" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
+    <hyperlink ref="M59" r:id="rId74" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
+    <hyperlink ref="M88" r:id="rId75" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
+    <hyperlink ref="M58" r:id="rId76" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
+    <hyperlink ref="M83" r:id="rId77" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
+    <hyperlink ref="M57" r:id="rId78" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
+    <hyperlink ref="M42" r:id="rId79" xr:uid="{295CA37D-1AD1-4E9E-8924-8E62F6AC71AC}"/>
+    <hyperlink ref="M54" r:id="rId80" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
+    <hyperlink ref="M53" r:id="rId81" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
+    <hyperlink ref="M55" r:id="rId82" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
+    <hyperlink ref="M78" r:id="rId83" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
+    <hyperlink ref="M4" r:id="rId84" xr:uid="{B8EEF89A-4F04-454F-A259-4DFF0690D481}"/>
+    <hyperlink ref="M6" r:id="rId85" xr:uid="{CE7BCF13-6582-4B09-9229-8A802DDED0E6}"/>
+    <hyperlink ref="M7" r:id="rId86" xr:uid="{26F63D41-5725-4371-9C40-4A585DEA85B9}"/>
+    <hyperlink ref="M10" r:id="rId87" xr:uid="{36AB703D-E6D6-4459-9749-AF7D1AEE6B66}"/>
+    <hyperlink ref="M46" r:id="rId88" xr:uid="{E52379EB-1E5E-4657-99E8-930A49D011CB}"/>
+    <hyperlink ref="M90" r:id="rId89" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
+    <hyperlink ref="M16" r:id="rId90" xr:uid="{EB24426B-29A4-4CF8-B587-4B40E8A5DAB6}"/>
+    <hyperlink ref="M68" r:id="rId91" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
+    <hyperlink ref="M40" r:id="rId92" xr:uid="{A01C861A-5B15-4690-8AD2-2B7772918BDE}"/>
+    <hyperlink ref="M98" r:id="rId93" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
+    <hyperlink ref="M92" r:id="rId94" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
+    <hyperlink ref="M43" r:id="rId95" xr:uid="{E5279318-3BFF-4592-9619-A1D3C16C3193}"/>
+    <hyperlink ref="M44" r:id="rId96" xr:uid="{4FF7E709-8E9D-4104-804F-DA7C4F3B79F5}"/>
+    <hyperlink ref="M79" r:id="rId97" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
+    <hyperlink ref="M87" r:id="rId98" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
+    <hyperlink ref="M32" r:id="rId99" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
+    <hyperlink ref="M31" r:id="rId100" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId101"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Box Sync\Center of Excellence on Unmanned Aircraft System Safety\UAS CoE Undergraduate Folder\Webpage_Tools\DroneTable\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E342113D-E764-4FC4-856D-E2BC2DA843FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A912A703-49E5-43BA-A7C5-0C2621906C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="390" windowWidth="31620" windowHeight="19695" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
@@ -1670,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A912A703-49E5-43BA-A7C5-0C2621906C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FF7A80-C30D-4188-AB96-F4870CE36087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="390" windowWidth="31620" windowHeight="19695" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
@@ -1363,7 +1363,7 @@
     <tableColumn id="12" xr3:uid="{9BB6A088-5C0E-4CEB-BBC6-B717AE453C44}" name="848"/>
     <tableColumn id="13" xr3:uid="{6BD8BF8C-67F5-4B9E-B5F0-1CD261E58DE2}" name="User Notes"/>
     <tableColumn id="9" xr3:uid="{82B4C024-7D4B-4415-8257-D498EA9C1CAE}" name="Image" dataDxfId="0">
-      <calculatedColumnFormula>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</calculatedColumnFormula>
+      <calculatedColumnFormula>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C5E7F6E7-086F-471F-8EC4-EFF7248E5650}" name="Link"/>
   </tableColumns>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,8 +1758,8 @@
         <v>73</v>
       </c>
       <c r="L2" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Acecore-ZOE-Netherlands.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Acecore-ZOE-Netherlands.jpg</v>
       </c>
       <c r="M2" t="s">
         <v>146</v>
@@ -1794,8 +1794,8 @@
         <v>106</v>
       </c>
       <c r="L3" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/AeroSystemsWest-HeavyLiftMultirotor-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AeroSystemsWest-HeavyLiftMultirotor-US.jpg</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>107</v>
@@ -1830,8 +1830,8 @@
         <v>386</v>
       </c>
       <c r="L4" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/AgEagle-eBeeTAC-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AgEagle-eBeeTAC-US.jpg</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>357</v>
@@ -1869,8 +1869,8 @@
         <v>111</v>
       </c>
       <c r="L5" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/AgEagle-eBeeX-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AgEagle-eBeeX-US.jpg</v>
       </c>
       <c r="M5" t="s">
         <v>194</v>
@@ -1905,8 +1905,8 @@
         <v>361</v>
       </c>
       <c r="L6" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Anduril-Ghost-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Anduril-Ghost-US.jpg</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>362</v>
@@ -1941,8 +1941,8 @@
         <v>361</v>
       </c>
       <c r="L7" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Anduril-GhostX-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Anduril-GhostX-US.jpg</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>362</v>
@@ -1980,8 +1980,8 @@
         <v>139</v>
       </c>
       <c r="L8" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Arcsky-X55-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Arcsky-X55-US.jpg</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>140</v>
@@ -2022,8 +2022,8 @@
         <v>213</v>
       </c>
       <c r="L9" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/AscentAerosystems-Spirit-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AscentAerosystems-Spirit-US.jpg</v>
       </c>
       <c r="M9" t="s">
         <v>295</v>
@@ -2055,8 +2055,8 @@
         <v>386</v>
       </c>
       <c r="L10" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/AscentAerosystems-Spirit-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AscentAerosystems-Spirit-US.jpg</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>295</v>
@@ -2091,8 +2091,8 @@
         <v>229</v>
       </c>
       <c r="L11" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/AureliaAerospace-Tarot650-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-Tarot650-US.jpg</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>230</v>
@@ -2130,8 +2130,8 @@
         <v>218</v>
       </c>
       <c r="L12" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/AureliaAerospace-X4-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-X4-US.jpg</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>234</v>
@@ -2169,8 +2169,8 @@
         <v>218</v>
       </c>
       <c r="L13" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/AureliaAerospace-X6-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-X6-US.jpg</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>224</v>
@@ -2208,8 +2208,8 @@
         <v>218</v>
       </c>
       <c r="L14" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/AureliaAerospace-X8-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-X8-US.jpg</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>219</v>
@@ -2241,8 +2241,8 @@
         <v>25</v>
       </c>
       <c r="L15" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Autel-DragonfishLite-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-DragonfishLite-China.jpg</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
@@ -2274,8 +2274,8 @@
         <v>25</v>
       </c>
       <c r="L16" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Autel-DragonfishPro-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-DragonfishPro-China.jpg</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>26</v>
@@ -2307,8 +2307,8 @@
         <v>25</v>
       </c>
       <c r="L17" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Autel-DragonfishStandard-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-DragonfishStandard-China.jpg</v>
       </c>
       <c r="M17" t="s">
         <v>26</v>
@@ -2343,8 +2343,8 @@
         <v>236</v>
       </c>
       <c r="L18" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Autel-EvoIIProv3-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-EvoIIProv3-China.jpg</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>237</v>
@@ -2376,8 +2376,8 @@
         <v>25</v>
       </c>
       <c r="L19" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Autel-EVOMax4T-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-EVOMax4T-China.jpg</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>209</v>
@@ -2409,8 +2409,8 @@
         <v>179</v>
       </c>
       <c r="L20" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Autel-EvoNano-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-EvoNano-China.jpg</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>260</v>
@@ -2448,8 +2448,8 @@
         <v>54</v>
       </c>
       <c r="L21" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/BlueHalo-IntenseEyeV2-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/BlueHalo-IntenseEyeV2-US.jpg</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>300</v>
@@ -2490,8 +2490,8 @@
         <v>62</v>
       </c>
       <c r="L22" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/BlueHalo-IntenseEyeV3-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/BlueHalo-IntenseEyeV3-US.jpg</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>303</v>
@@ -2526,8 +2526,8 @@
         <v>36</v>
       </c>
       <c r="L23" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/CensysTechnologies-Sentaero5-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/CensysTechnologies-Sentaero5-US.jpg</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>37</v>
@@ -2559,8 +2559,8 @@
         <v>18</v>
       </c>
       <c r="L24" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Commaris-Seeker-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Commaris-Seeker-US.jpg</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>19</v>
@@ -2592,8 +2592,8 @@
         <v>25</v>
       </c>
       <c r="L25" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DeltaQuad-DeltaQuadPro-Netherlands.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DeltaQuad-DeltaQuadPro-Netherlands.jpg</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>120</v>
@@ -2625,8 +2625,8 @@
         <v>25</v>
       </c>
       <c r="L26" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-AgrasT30-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-AgrasT30-China.jpg</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>123</v>
@@ -2658,8 +2658,8 @@
         <v>25</v>
       </c>
       <c r="L27" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-AgrasT40-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-AgrasT40-China.jpg</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>97</v>
@@ -2691,8 +2691,8 @@
         <v>179</v>
       </c>
       <c r="L28" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Air2s-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Air2s-China.jpg</v>
       </c>
       <c r="M28" t="s">
         <v>242</v>
@@ -2727,8 +2727,8 @@
         <v>248</v>
       </c>
       <c r="L29" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-AVATA-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-AVATA-China.jpg</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>249</v>
@@ -2763,8 +2763,8 @@
         <v>155</v>
       </c>
       <c r="L30" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Inspire3-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Inspire3-China.jpg</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>156</v>
@@ -2796,8 +2796,8 @@
         <v>25</v>
       </c>
       <c r="L31" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-M30Enterprise-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-M30Enterprise-China.jpg</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>196</v>
@@ -2829,8 +2829,8 @@
         <v>25</v>
       </c>
       <c r="L32" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-M30Thermal-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-M30Thermal-China.jpg</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>196</v>
@@ -2865,8 +2865,8 @@
         <v>188</v>
       </c>
       <c r="L33" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Matrice300RTK-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Matrice300RTK-China.jpg</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>189</v>
@@ -2901,8 +2901,8 @@
         <v>155</v>
       </c>
       <c r="L34" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Mavic3-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3-China.jpg</v>
       </c>
       <c r="M34" t="s">
         <v>242</v>
@@ -2937,8 +2937,8 @@
         <v>155</v>
       </c>
       <c r="L35" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Mavic3Classic-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3Classic-China.jpg</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>245</v>
@@ -2973,8 +2973,8 @@
         <v>188</v>
       </c>
       <c r="L36" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Mavic3Enterprise-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3Enterprise-China.jpg</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>222</v>
@@ -3009,8 +3009,8 @@
         <v>155</v>
       </c>
       <c r="L37" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Mavic3Pro-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3Pro-China.jpg</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>240</v>
@@ -3042,8 +3042,8 @@
         <v>25</v>
       </c>
       <c r="L38" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Mavic3Thermal-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3Thermal-China.jpg</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>222</v>
@@ -3078,8 +3078,8 @@
         <v>155</v>
       </c>
       <c r="L39" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Mini3pro-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mini3pro-China.jpg</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>257</v>
@@ -3111,8 +3111,8 @@
         <v>179</v>
       </c>
       <c r="L40" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DJI-Neo-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Neo-China.jpg</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>385</v>
@@ -3147,8 +3147,8 @@
         <v>54</v>
       </c>
       <c r="L41" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Draganfly-Commander2-Canada.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Draganfly-Commander2-Canada.jpg</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>170</v>
@@ -3183,8 +3183,8 @@
         <v>54</v>
       </c>
       <c r="L42" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Draganfly-Commander3XL-Canada.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Draganfly-Commander3XL-Canada.jpg</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>305</v>
@@ -3216,8 +3216,8 @@
         <v>25</v>
       </c>
       <c r="L43" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/DroneVolt-Hercules20-France.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DroneVolt-Hercules20-France.jpg</v>
       </c>
       <c r="M43" t="s">
         <v>311</v>
@@ -3252,8 +3252,8 @@
         <v>62</v>
       </c>
       <c r="L44" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/EasyAerial-Osprey-.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/EasyAerial-Osprey-.jpg</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>368</v>
@@ -3294,8 +3294,8 @@
         <v>164</v>
       </c>
       <c r="L45" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Flightwave-Edge130-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>165</v>
@@ -3330,8 +3330,8 @@
         <v>386</v>
       </c>
       <c r="L46" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Flightwave-Edge130-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>371</v>
@@ -3366,8 +3366,8 @@
         <v>62</v>
       </c>
       <c r="L47" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Fotokite-Sigma-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
       </c>
       <c r="M47" t="s">
         <v>63</v>
@@ -3402,8 +3402,8 @@
         <v>54</v>
       </c>
       <c r="L48" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Freefly-Alta-X(BlueCube)-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Alta-X(BlueCube)-US.jpg</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>92</v>
@@ -3441,8 +3441,8 @@
         <v>54</v>
       </c>
       <c r="L49" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Freefly-Alta-X(DIUBlue)-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Alta-X(DIUBlue)-US.jpg</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>74</v>
@@ -3474,8 +3474,8 @@
         <v>73</v>
       </c>
       <c r="L50" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Freefly-Alta-X-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>142</v>
@@ -3510,8 +3510,8 @@
         <v>54</v>
       </c>
       <c r="L51" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Freefly-Astro-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Astro-US.jpg</v>
       </c>
       <c r="M51" t="s">
         <v>175</v>
@@ -3552,8 +3552,8 @@
         <v>316</v>
       </c>
       <c r="L52" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
       </c>
       <c r="M52" t="s">
         <v>314</v>
@@ -3594,8 +3594,8 @@
         <v>318</v>
       </c>
       <c r="L53" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>319</v>
@@ -3627,8 +3627,8 @@
         <v>25</v>
       </c>
       <c r="L54" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/HarrisAerial-CarrierH6-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>314</v>
@@ -3660,8 +3660,8 @@
         <v>25</v>
       </c>
       <c r="L55" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/HarrisAerial-CarrierH8E-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>322</v>
@@ -3696,8 +3696,8 @@
         <v>268</v>
       </c>
       <c r="L56" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/HolyStone-HS600-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>269</v>
@@ -3732,8 +3732,8 @@
         <v>268</v>
       </c>
       <c r="L57" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/HolyStone-HS700E-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>290</v>
@@ -3768,8 +3768,8 @@
         <v>268</v>
       </c>
       <c r="L58" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/HolyStone-HS720-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>283</v>
@@ -3804,8 +3804,8 @@
         <v>268</v>
       </c>
       <c r="L59" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/HolyStone-HS720E-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>279</v>
@@ -3843,8 +3843,8 @@
         <v>62</v>
       </c>
       <c r="L60" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Hoverfly-Sentry-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
       </c>
       <c r="M60" t="s">
         <v>326</v>
@@ -3882,8 +3882,8 @@
         <v>62</v>
       </c>
       <c r="L61" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Hoverfly-Spectre-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
       </c>
       <c r="M61" t="s">
         <v>329</v>
@@ -3913,8 +3913,8 @@
         <v>25</v>
       </c>
       <c r="L62" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Hylio-AG-210-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hylio-AG-210-US.jpg</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>152</v>
@@ -3944,8 +3944,8 @@
         <v>25</v>
       </c>
       <c r="L63" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Hylio-AG-216-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>114</v>
@@ -3975,8 +3975,8 @@
         <v>25</v>
       </c>
       <c r="L64" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Hylio-AG-230-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>80</v>
@@ -4006,8 +4006,8 @@
         <v>25</v>
       </c>
       <c r="L65" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Hylio-AG-272-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>49</v>
@@ -4042,8 +4042,8 @@
         <v>54</v>
       </c>
       <c r="L66" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/InspiredFlight-IF1200A-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>90</v>
@@ -4081,8 +4081,8 @@
         <v>54</v>
       </c>
       <c r="L67" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/InspiredFlight-IF1200-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>90</v>
@@ -4120,8 +4120,8 @@
         <v>54</v>
       </c>
       <c r="L68" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/InspiredFlight-IF700-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>160</v>
@@ -4159,8 +4159,8 @@
         <v>54</v>
       </c>
       <c r="L69" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/InspiredFlight-IF800-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>127</v>
@@ -4192,8 +4192,8 @@
         <v>44</v>
       </c>
       <c r="L70" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Leica-BLK2FLY-Switzerland.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
       </c>
       <c r="M70" t="s">
         <v>45</v>
@@ -4228,8 +4228,8 @@
         <v>54</v>
       </c>
       <c r="L71" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Microdrones-md4-1000-Germany.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>69</v>
@@ -4264,8 +4264,8 @@
         <v>54</v>
       </c>
       <c r="L72" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Microdrones-md4-3000-Germany.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
       </c>
       <c r="M72" t="s">
         <v>333</v>
@@ -4300,8 +4300,8 @@
         <v>180</v>
       </c>
       <c r="L73" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Parrot-ANAFIAi-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>226</v>
@@ -4342,8 +4342,8 @@
         <v>180</v>
       </c>
       <c r="L74" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Parrot-ANAFIUSAGOV-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>181</v>
@@ -4378,8 +4378,8 @@
         <v>180</v>
       </c>
       <c r="L75" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Parrot-ANAFIUSA-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>181</v>
@@ -4414,8 +4414,8 @@
         <v>54</v>
       </c>
       <c r="L76" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/PDW-C100-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PDW-C100-US.jpg</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>338</v>
@@ -4447,8 +4447,8 @@
         <v>342</v>
       </c>
       <c r="L77" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/PerceptoAir-Max-Israel.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>343</v>
@@ -4480,8 +4480,8 @@
         <v>342</v>
       </c>
       <c r="L78" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/PerceptoAir-MaxOGI-Israel.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>346</v>
@@ -4513,8 +4513,8 @@
         <v>342</v>
       </c>
       <c r="L79" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/PerceptoAir-Mobile-Israel.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>349</v>
@@ -4546,8 +4546,8 @@
         <v>73</v>
       </c>
       <c r="L80" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>131</v>
@@ -4579,8 +4579,8 @@
         <v>179</v>
       </c>
       <c r="L81" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Ruko-F11-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Ruko-F11-China.jpg</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>277</v>
@@ -4612,8 +4612,8 @@
         <v>179</v>
       </c>
       <c r="L82" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Ruko-U11Pro-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>264</v>
@@ -4648,8 +4648,8 @@
         <v>268</v>
       </c>
       <c r="L83" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/SJRC-F114KPro-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>274</v>
@@ -4684,8 +4684,8 @@
         <v>268</v>
       </c>
       <c r="L84" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/SJRC-F11s4KPro-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>274</v>
@@ -4720,8 +4720,8 @@
         <v>268</v>
       </c>
       <c r="L85" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/SJRC-F22s4KPro-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>272</v>
@@ -4756,8 +4756,8 @@
         <v>268</v>
       </c>
       <c r="L86" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/SJRC-F5SPro+-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
       </c>
       <c r="M86" t="s">
         <v>286</v>
@@ -4792,8 +4792,8 @@
         <v>268</v>
       </c>
       <c r="L87" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/SJRC-F5SPro-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>286</v>
@@ -4828,8 +4828,8 @@
         <v>268</v>
       </c>
       <c r="L88" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/SJRC-F74KPro-China.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>281</v>
@@ -4864,8 +4864,8 @@
         <v>253</v>
       </c>
       <c r="L89" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Skydio-2+-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-2+-US.jpg</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>254</v>
@@ -4900,8 +4900,8 @@
         <v>386</v>
       </c>
       <c r="L90" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Skydio-X10D-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-X10D-US.jpg</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>378</v>
@@ -4939,8 +4939,8 @@
         <v>54</v>
       </c>
       <c r="L91" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Skydio-X10-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-X10-US.jpg</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>150</v>
@@ -4978,8 +4978,8 @@
         <v>374</v>
       </c>
       <c r="L92" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Skydio-X2D-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-X2D-US.jpg</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>375</v>
@@ -5017,8 +5017,8 @@
         <v>54</v>
       </c>
       <c r="L93" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Skydio-X2E-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-X2E-US.jpg</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>172</v>
@@ -5050,8 +5050,8 @@
         <v>73</v>
       </c>
       <c r="L94" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Sky-drones-Skylane-UK.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
       </c>
       <c r="M94" t="s">
         <v>353</v>
@@ -5089,8 +5089,8 @@
         <v>55</v>
       </c>
       <c r="L95" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Skyfront-Perimeter8-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>56</v>
@@ -5125,8 +5125,8 @@
         <v>205</v>
       </c>
       <c r="L96" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Sony-ARS-S1-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
       </c>
       <c r="M96" t="s">
         <v>206</v>
@@ -5167,8 +5167,8 @@
         <v>185</v>
       </c>
       <c r="L97" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/TEAL-GoldenEagle-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
       </c>
       <c r="M97" t="s">
         <v>186</v>
@@ -5203,8 +5203,8 @@
         <v>386</v>
       </c>
       <c r="L98" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Teal-Teal2-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teal-Teal2-US.jpg</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>382</v>
@@ -5236,8 +5236,8 @@
         <v>25</v>
       </c>
       <c r="L99" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Teledyne-SIRAS-Taiwan.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>202</v>
@@ -5278,8 +5278,8 @@
         <v>213</v>
       </c>
       <c r="L100" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/VantageRobotics-Vesper-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
       </c>
       <c r="M100" t="s">
         <v>214</v>
@@ -5311,8 +5311,8 @@
         <v>25</v>
       </c>
       <c r="L101" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>135</v>
@@ -5344,8 +5344,8 @@
         <v>25</v>
       </c>
       <c r="L102" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/VisionAerial-Vector-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>101</v>
@@ -5380,8 +5380,8 @@
         <v>54</v>
       </c>
       <c r="L103" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/WattsInnovation-PRISMSky-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
       </c>
       <c r="M103" t="s">
         <v>83</v>
@@ -5422,8 +5422,8 @@
         <v>111</v>
       </c>
       <c r="L104" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
       </c>
       <c r="M104" t="s">
         <v>112</v>
@@ -5455,8 +5455,8 @@
         <v>73</v>
       </c>
       <c r="L105" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/ZephyrSystems-ARK-350-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
       </c>
       <c r="M105" t="s">
         <v>78</v>
@@ -5488,8 +5488,8 @@
         <v>73</v>
       </c>
       <c r="L106" t="str">
-        <f>"/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/images/ZephyrSystems-OKO-250-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ZephyrSystems-OKO-250-US.jpg</v>
       </c>
       <c r="M106" t="s">
         <v>86</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FF7A80-C30D-4188-AB96-F4870CE36087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298656F9-31CE-4AC5-A417-2FCB736F98C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="390" windowWidth="31620" windowHeight="19695" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="389">
   <si>
     <t>Model</t>
   </si>
@@ -1200,6 +1200,9 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Not bad, but limited functionality</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,10 +1827,13 @@
         <v>356</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>386</v>
+      </c>
+      <c r="K4" t="s">
+        <v>111</v>
       </c>
       <c r="L4" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
@@ -2407,6 +2413,9 @@
       </c>
       <c r="H20" t="s">
         <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>388</v>
       </c>
       <c r="L20" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298656F9-31CE-4AC5-A417-2FCB736F98C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981BB623-AD6C-4998-827E-395EF470E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="390" windowWidth="31620" windowHeight="19695" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="389">
   <si>
     <t>Model</t>
   </si>
@@ -1130,9 +1130,6 @@
     <t>Ghost X</t>
   </si>
   <si>
-    <t>13.5</t>
-  </si>
-  <si>
     <t>Osprey</t>
   </si>
   <si>
@@ -1203,6 +1200,9 @@
   </si>
   <si>
     <t>Not bad, but limited functionality</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -1348,12 +1348,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:M106" totalsRowShown="0">
-  <autoFilter ref="A1:M106" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M106">
-    <sortCondition ref="L1:L106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N105" totalsRowShown="0">
+  <autoFilter ref="A1:N105" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N105">
+    <sortCondition ref="M1:M105"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D437D100-220A-42E8-8A79-53DD0D82F2C1}" name="Model"/>
     <tableColumn id="2" xr3:uid="{828F55EE-B928-4D7E-857E-7FA0CAA09A53}" name="Make"/>
     <tableColumn id="3" xr3:uid="{99A441EE-A3A2-4A19-9FB8-DFB62900D88E}" name="Made In"/>
@@ -1364,6 +1364,7 @@
     <tableColumn id="8" xr3:uid="{82758732-912E-4520-AEC6-3BCA45371BE3}" name="Control"/>
     <tableColumn id="11" xr3:uid="{A5441020-7376-40FB-8827-8A0FE1FD8B04}" name="Blue"/>
     <tableColumn id="12" xr3:uid="{9BB6A088-5C0E-4CEB-BBC6-B717AE453C44}" name="848"/>
+    <tableColumn id="10" xr3:uid="{A81D4614-5C19-4D4C-BB64-7D0D0C49726D}" name="Rating"/>
     <tableColumn id="13" xr3:uid="{6BD8BF8C-67F5-4B9E-B5F0-1CD261E58DE2}" name="User Notes"/>
     <tableColumn id="9" xr3:uid="{82B4C024-7D4B-4415-8257-D498EA9C1CAE}" name="Image" dataDxfId="0">
       <calculatedColumnFormula>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</calculatedColumnFormula>
@@ -1671,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,13 +1689,13 @@
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="37.85546875" customWidth="1"/>
-    <col min="12" max="12" width="58" customWidth="1"/>
-    <col min="13" max="13" width="76.42578125" customWidth="1"/>
+    <col min="10" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="37.85546875" customWidth="1"/>
+    <col min="13" max="13" width="58" customWidth="1"/>
+    <col min="14" max="14" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1726,16 +1727,19 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>387</v>
-      </c>
       <c r="M1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -1760,15 +1764,15 @@
       <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Acecore-ZOE-Netherlands.jpg</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1793,18 +1797,18 @@
       <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>106</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AeroSystemsWest-HeavyLiftMultirotor-US.jpg</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>354</v>
       </c>
@@ -1830,20 +1834,20 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K4" t="s">
+        <v>385</v>
+      </c>
+      <c r="L4" t="s">
         <v>111</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AgEagle-eBeeTAC-US.jpg</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -1871,18 +1875,18 @@
       <c r="J5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>111</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AgEagle-eBeeX-US.jpg</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>358</v>
       </c>
@@ -1905,20 +1909,20 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>386</v>
-      </c>
-      <c r="K6" t="s">
+        <v>385</v>
+      </c>
+      <c r="L6" t="s">
         <v>361</v>
       </c>
-      <c r="L6" t="str">
+      <c r="M6" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Anduril-Ghost-US.jpg</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>363</v>
       </c>
@@ -1941,20 +1945,20 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L7" t="s">
         <v>361</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Anduril-GhostX-US.jpg</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -1982,18 +1986,18 @@
       <c r="J8" t="s">
         <v>54</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>139</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Arcsky-X55-US.jpg</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -2019,28 +2023,28 @@
         <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J9" t="s">
         <v>54</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>213</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AscentAerosystems-Spirit-US.jpg</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -2048,29 +2052,32 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>294</v>
+      <c r="E10" s="6">
+        <v>3300</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" t="s">
-        <v>386</v>
-      </c>
-      <c r="L10" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AscentAerosystems-Spirit-US.jpg</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>229</v>
+      </c>
+      <c r="M10" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-Tarot650-US.jpg</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
         <v>217</v>
@@ -2084,8 +2091,8 @@
       <c r="E11" s="6">
         <v>3300</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>228</v>
+      <c r="F11" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -2093,20 +2100,23 @@
       <c r="H11" t="s">
         <v>73</v>
       </c>
-      <c r="K11" t="s">
-        <v>229</v>
-      </c>
-      <c r="L11" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-Tarot650-US.jpg</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-X4-US.jpg</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>217</v>
@@ -2118,10 +2128,10 @@
         <v>41</v>
       </c>
       <c r="E12" s="6">
-        <v>3300</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>233</v>
+        <v>4900</v>
+      </c>
+      <c r="F12" s="1">
+        <v>25.9</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
@@ -2132,20 +2142,20 @@
       <c r="J12" t="s">
         <v>54</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>218</v>
       </c>
-      <c r="L12" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-X4-US.jpg</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-X6-US.jpg</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
         <v>217</v>
@@ -2157,13 +2167,13 @@
         <v>41</v>
       </c>
       <c r="E13" s="6">
-        <v>4900</v>
+        <v>6399</v>
       </c>
       <c r="F13" s="1">
-        <v>25.9</v>
+        <v>37.4</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
         <v>73</v>
@@ -2171,59 +2181,53 @@
       <c r="J13" t="s">
         <v>54</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>218</v>
       </c>
-      <c r="L13" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-X6-US.jpg</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-X8-US.jpg</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E14" s="6">
-        <v>6399</v>
-      </c>
-      <c r="F14" s="1">
-        <v>37.4</v>
+        <v>90000</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" t="s">
-        <v>218</v>
-      </c>
-      <c r="L14" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-X8-US.jpg</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="M14" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-DragonfishLite-China.jpg</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -2238,7 +2242,7 @@
         <v>90000</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -2246,17 +2250,17 @@
       <c r="H15" t="s">
         <v>25</v>
       </c>
-      <c r="L15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-DragonfishLite-China.jpg</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="M15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-DragonfishPro-China.jpg</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2271,25 +2275,25 @@
         <v>90000</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
       </c>
-      <c r="L16" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-DragonfishPro-China.jpg</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-DragonfishStandard-China.jpg</v>
+      </c>
+      <c r="N16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -2298,31 +2302,34 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E17" s="6">
-        <v>90000</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>2500</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
       </c>
-      <c r="L17" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-DragonfishStandard-China.jpg</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-EvoIIProv3-China.jpg</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -2334,31 +2341,28 @@
         <v>41</v>
       </c>
       <c r="E18" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>9000</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
       </c>
-      <c r="K18" t="s">
-        <v>236</v>
-      </c>
-      <c r="L18" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-EvoIIProv3-China.jpg</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-EVOMax4T-China.jpg</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -2370,64 +2374,70 @@
         <v>41</v>
       </c>
       <c r="E19" s="6">
-        <v>9000</v>
+        <v>549</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-EVOMax4T-China.jpg</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>387</v>
+      </c>
+      <c r="M19" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-EvoNano-China.jpg</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="6">
-        <v>549</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>259</v>
+      <c r="E20" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="H20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K20" t="s">
-        <v>388</v>
-      </c>
-      <c r="L20" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-EvoNano-China.jpg</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>385</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/BlueHalo-IntenseEyeV2-US.jpg</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
         <v>297</v>
@@ -2442,7 +2452,7 @@
         <v>294</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G21" t="s">
         <v>299</v>
@@ -2451,67 +2461,64 @@
         <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J21" t="s">
         <v>54</v>
       </c>
-      <c r="L21" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/BlueHalo-IntenseEyeV2-US.jpg</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/BlueHalo-IntenseEyeV3-US.jpg</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>302</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="6">
+        <v>60000</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" t="s">
-        <v>386</v>
-      </c>
-      <c r="J22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/BlueHalo-IntenseEyeV3-US.jpg</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/CensysTechnologies-Sentaero5-US.jpg</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -2520,97 +2527,94 @@
         <v>15</v>
       </c>
       <c r="E23" s="6">
-        <v>60000</v>
+        <v>99495</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
       </c>
-      <c r="K23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/CensysTechnologies-Sentaero5-US.jpg</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Commaris-Seeker-US.jpg</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="6">
-        <v>99495</v>
+        <v>20700</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Commaris-Seeker-US.jpg</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="M24" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DeltaQuad-DeltaQuadPro-Netherlands.jpg</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E25" s="6">
-        <v>20700</v>
+        <v>20000</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
-      <c r="L25" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DeltaQuad-DeltaQuadPro-Netherlands.jpg</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-AgrasT30-China.jpg</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
         <v>95</v>
@@ -2622,10 +2626,10 @@
         <v>41</v>
       </c>
       <c r="E26" s="6">
-        <v>20000</v>
+        <v>26519</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="G26" t="s">
         <v>48</v>
@@ -2633,17 +2637,17 @@
       <c r="H26" t="s">
         <v>25</v>
       </c>
-      <c r="L26" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-AgrasT30-China.jpg</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-AgrasT40-China.jpg</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
@@ -2654,29 +2658,29 @@
       <c r="D27" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="6">
-        <v>26519</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>96</v>
+      <c r="E27" s="7">
+        <v>999</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-AgrasT40-China.jpg</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="M27" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Air2s-China.jpg</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
@@ -2687,11 +2691,11 @@
       <c r="D28" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="7">
-        <v>999</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>251</v>
+      <c r="E28" s="6">
+        <v>1388</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
@@ -2699,17 +2703,20 @@
       <c r="H28" t="s">
         <v>179</v>
       </c>
-      <c r="L28" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Air2s-China.jpg</v>
-      </c>
-      <c r="M28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-AVATA-China.jpg</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
         <v>95</v>
@@ -2721,31 +2728,31 @@
         <v>41</v>
       </c>
       <c r="E29" s="6">
-        <v>1388</v>
+        <v>16499</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>179</v>
-      </c>
-      <c r="K29" t="s">
-        <v>248</v>
-      </c>
-      <c r="L29" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-AVATA-China.jpg</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Inspire3-China.jpg</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
         <v>95</v>
@@ -2756,10 +2763,10 @@
       <c r="D30" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="6">
-        <v>16499</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="11">
+        <v>10715</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G30" t="s">
@@ -2768,20 +2775,17 @@
       <c r="H30" t="s">
         <v>25</v>
       </c>
-      <c r="K30" t="s">
-        <v>155</v>
-      </c>
-      <c r="L30" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Inspire3-China.jpg</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M30" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-M30Enterprise-China.jpg</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
         <v>95</v>
@@ -2792,29 +2796,29 @@
       <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="11">
-        <v>10715</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="E31" s="7">
+        <v>12100</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
         <v>25</v>
       </c>
-      <c r="L31" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-M30Enterprise-China.jpg</v>
-      </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-M30Thermal-China.jpg</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
@@ -2825,29 +2829,32 @@
       <c r="D32" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="7">
-        <v>12100</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>154</v>
+      <c r="E32" s="6">
+        <v>13700</v>
+      </c>
+      <c r="F32" s="1">
+        <v>19.8</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="H32" t="s">
         <v>25</v>
       </c>
-      <c r="L32" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-M30Thermal-China.jpg</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>188</v>
+      </c>
+      <c r="M32" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Matrice300RTK-China.jpg</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
@@ -2858,32 +2865,32 @@
       <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="6">
-        <v>13700</v>
-      </c>
-      <c r="F33" s="1">
-        <v>19.8</v>
+      <c r="E33" s="7">
+        <v>2049</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" t="s">
-        <v>188</v>
-      </c>
-      <c r="L33" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Matrice300RTK-China.jpg</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="L33" t="s">
+        <v>155</v>
+      </c>
+      <c r="M33" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3-China.jpg</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
@@ -2894,11 +2901,11 @@
       <c r="D34" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="7">
-        <v>2049</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>239</v>
+      <c r="E34" s="6">
+        <v>1699</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
@@ -2906,20 +2913,20 @@
       <c r="H34" t="s">
         <v>179</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>155</v>
       </c>
-      <c r="L34" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3-China.jpg</v>
-      </c>
-      <c r="M34" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M34" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3Classic-China.jpg</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s">
         <v>95</v>
@@ -2931,31 +2938,31 @@
         <v>41</v>
       </c>
       <c r="E35" s="6">
-        <v>1699</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>244</v>
+        <v>3630</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="G35" t="s">
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>179</v>
-      </c>
-      <c r="K35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L35" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3Classic-China.jpg</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>188</v>
+      </c>
+      <c r="M35" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3Enterprise-China.jpg</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
@@ -2967,10 +2974,10 @@
         <v>41</v>
       </c>
       <c r="E36" s="6">
-        <v>3630</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>221</v>
+        <v>2199</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="G36" t="s">
         <v>24</v>
@@ -2978,20 +2985,20 @@
       <c r="H36" t="s">
         <v>25</v>
       </c>
-      <c r="K36" t="s">
-        <v>188</v>
-      </c>
-      <c r="L36" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3Enterprise-China.jpg</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>155</v>
+      </c>
+      <c r="M36" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3Pro-China.jpg</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B37" t="s">
         <v>95</v>
@@ -3002,32 +3009,29 @@
       <c r="D37" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="6">
-        <v>2199</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>239</v>
+      <c r="E37" s="7">
+        <v>5498</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
       </c>
-      <c r="K37" t="s">
-        <v>155</v>
-      </c>
-      <c r="L37" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3Pro-China.jpg</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M37" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mavic3Thermal-China.jpg</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s">
         <v>95</v>
@@ -3038,29 +3042,32 @@
       <c r="D38" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="7">
-        <v>5498</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>221</v>
+      <c r="E38" s="6">
+        <v>759</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3Thermal-China.jpg</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="L38" t="s">
+        <v>155</v>
+      </c>
+      <c r="M38" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Mini3pro-China.jpg</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s">
         <v>95</v>
@@ -3071,11 +3078,11 @@
       <c r="D39" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="6">
-        <v>759</v>
+      <c r="E39" s="5">
+        <v>199</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
@@ -3083,53 +3090,53 @@
       <c r="H39" t="s">
         <v>179</v>
       </c>
-      <c r="K39" t="s">
-        <v>155</v>
-      </c>
-      <c r="L39" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mini3pro-China.jpg</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M39" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Neo-China.jpg</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>383</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="5">
-        <v>199</v>
+      <c r="E40" s="6">
+        <v>14999</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>384</v>
+        <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H40" t="s">
-        <v>179</v>
-      </c>
-      <c r="L40" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Neo-China.jpg</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Draganfly-Commander2-Canada.jpg</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s">
         <v>167</v>
@@ -3140,14 +3147,14 @@
       <c r="D41" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="6">
-        <v>14999</v>
+      <c r="E41" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
         <v>25</v>
@@ -3155,23 +3162,23 @@
       <c r="J41" t="s">
         <v>54</v>
       </c>
-      <c r="L41" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Draganfly-Commander2-Canada.jpg</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M41" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Draganfly-Commander3XL-Canada.jpg</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -3179,74 +3186,77 @@
       <c r="E42" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>52</v>
+      <c r="F42" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="H42" t="s">
         <v>25</v>
       </c>
-      <c r="J42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L42" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Draganfly-Commander3XL-Canada.jpg</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M42" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DroneVolt-Hercules20-France.jpg</v>
+      </c>
+      <c r="N42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
-      </c>
-      <c r="C43" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>309</v>
+      <c r="F43" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="G43" t="s">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
       </c>
-      <c r="L43" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DroneVolt-Hercules20-France.jpg</v>
-      </c>
-      <c r="M43" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/EasyAerial-Osprey-.jpg</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>365</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>162</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>367</v>
+        <v>15</v>
+      </c>
+      <c r="E44" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G44" t="s">
         <v>24</v>
@@ -3255,22 +3265,25 @@
         <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>386</v>
-      </c>
-      <c r="K44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L44" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/EasyAerial-Osprey-.jpg</v>
-      </c>
-      <c r="M44" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="J44" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" t="s">
+        <v>164</v>
+      </c>
+      <c r="M44" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>161</v>
       </c>
       <c r="B45" t="s">
         <v>162</v>
@@ -3281,11 +3294,11 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="6">
-        <v>15000</v>
+      <c r="E45" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>163</v>
+        <v>369</v>
       </c>
       <c r="G45" t="s">
         <v>24</v>
@@ -3294,64 +3307,58 @@
         <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
-      </c>
-      <c r="J45" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" t="s">
-        <v>164</v>
-      </c>
-      <c r="L45" t="str">
+        <v>385</v>
+      </c>
+      <c r="M45" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>294</v>
+        <v>41</v>
+      </c>
+      <c r="E46" s="6">
+        <v>40000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>370</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" t="s">
-        <v>386</v>
-      </c>
-      <c r="L46" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="L46" t="s">
+        <v>62</v>
+      </c>
+      <c r="M46" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
+      </c>
+      <c r="N46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -3360,31 +3367,31 @@
         <v>41</v>
       </c>
       <c r="E47" s="6">
-        <v>40000</v>
+        <v>28500</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" t="s">
-        <v>62</v>
-      </c>
-      <c r="L47" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
-      </c>
-      <c r="M47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Alta-X(BlueCube)-US.jpg</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
@@ -3396,7 +3403,7 @@
         <v>41</v>
       </c>
       <c r="E48" s="6">
-        <v>28500</v>
+        <v>36000</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>72</v>
@@ -3407,20 +3414,23 @@
       <c r="H48" t="s">
         <v>73</v>
       </c>
+      <c r="I48" t="s">
+        <v>385</v>
+      </c>
       <c r="J48" t="s">
         <v>54</v>
       </c>
-      <c r="L48" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X(BlueCube)-US.jpg</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M48" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Alta-X(DIUBlue)-US.jpg</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -3432,34 +3442,28 @@
         <v>41</v>
       </c>
       <c r="E49" s="6">
-        <v>36000</v>
+        <v>18200</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="H49" t="s">
         <v>73</v>
       </c>
-      <c r="I49" t="s">
-        <v>386</v>
-      </c>
-      <c r="J49" t="s">
-        <v>54</v>
-      </c>
-      <c r="L49" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X(DIUBlue)-US.jpg</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M49" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
@@ -3471,31 +3475,34 @@
         <v>41</v>
       </c>
       <c r="E50" s="6">
-        <v>18200</v>
+        <v>14500</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="G50" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="H50" t="s">
         <v>73</v>
       </c>
-      <c r="L50" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Astro-US.jpg</v>
+      </c>
+      <c r="N50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -3503,32 +3510,38 @@
       <c r="D51" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="6">
-        <v>14500</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>174</v>
+      <c r="E51" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>25</v>
+      </c>
+      <c r="I51" t="s">
+        <v>385</v>
       </c>
       <c r="J51" t="s">
         <v>54</v>
       </c>
-      <c r="L51" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Astro-US.jpg</v>
-      </c>
-      <c r="M51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>316</v>
+      </c>
+      <c r="M51" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
+      </c>
+      <c r="N51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
         <v>313</v>
@@ -3546,31 +3559,31 @@
         <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
         <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J52" t="s">
         <v>54</v>
       </c>
-      <c r="K52" t="s">
-        <v>316</v>
-      </c>
-      <c r="L52" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
-      </c>
-      <c r="M52" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>318</v>
+      </c>
+      <c r="M52" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B53" t="s">
         <v>313</v>
@@ -3588,31 +3601,22 @@
         <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="H53" t="s">
         <v>25</v>
       </c>
-      <c r="I53" t="s">
-        <v>386</v>
-      </c>
-      <c r="J53" t="s">
-        <v>54</v>
-      </c>
-      <c r="K53" t="s">
-        <v>318</v>
-      </c>
-      <c r="L53" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M53" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
         <v>313</v>
@@ -3627,58 +3631,61 @@
         <v>294</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="G54" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="H54" t="s">
         <v>25</v>
       </c>
-      <c r="L54" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M54" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>321</v>
+      <c r="E55" s="6">
+        <v>360</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
-      </c>
-      <c r="L55" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="L55" t="s">
+        <v>268</v>
+      </c>
+      <c r="M55" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
         <v>266</v>
@@ -3690,10 +3697,10 @@
         <v>41</v>
       </c>
       <c r="E56" s="6">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G56" t="s">
         <v>24</v>
@@ -3701,20 +3708,20 @@
       <c r="H56" t="s">
         <v>179</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>268</v>
       </c>
-      <c r="L56" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M56" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s">
         <v>266</v>
@@ -3726,10 +3733,10 @@
         <v>41</v>
       </c>
       <c r="E57" s="6">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="G57" t="s">
         <v>24</v>
@@ -3737,20 +3744,20 @@
       <c r="H57" t="s">
         <v>179</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>268</v>
       </c>
-      <c r="L57" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M57" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
         <v>266</v>
@@ -3762,7 +3769,7 @@
         <v>41</v>
       </c>
       <c r="E58" s="6">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>178</v>
@@ -3773,56 +3780,59 @@
       <c r="H58" t="s">
         <v>179</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>268</v>
       </c>
-      <c r="L58" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M58" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="6">
-        <v>270</v>
+      <c r="E59" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>178</v>
+        <v>325</v>
       </c>
       <c r="G59" t="s">
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>179</v>
-      </c>
-      <c r="K59" t="s">
-        <v>268</v>
-      </c>
-      <c r="L59" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="J59" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" t="s">
+        <v>62</v>
+      </c>
+      <c r="M59" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
+      </c>
+      <c r="N59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B60" t="s">
         <v>324</v>
@@ -3837,7 +3847,7 @@
         <v>294</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G60" t="s">
         <v>24</v>
@@ -3848,23 +3858,23 @@
       <c r="J60" t="s">
         <v>54</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>62</v>
       </c>
-      <c r="L60" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
-      </c>
-      <c r="M60" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M60" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
+      </c>
+      <c r="N60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3872,35 +3882,27 @@
       <c r="D61" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="E61" s="6">
+        <v>17250</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
-      </c>
-      <c r="J61" t="s">
-        <v>54</v>
-      </c>
-      <c r="K61" t="s">
-        <v>62</v>
-      </c>
-      <c r="L61" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
-      </c>
-      <c r="M61" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="M61" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hylio-AG-210-US.jpg</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
         <v>47</v>
@@ -3912,7 +3914,7 @@
         <v>41</v>
       </c>
       <c r="E62" s="6">
-        <v>17250</v>
+        <v>21560</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" t="s">
@@ -3921,17 +3923,17 @@
       <c r="H62" t="s">
         <v>25</v>
       </c>
-      <c r="L62" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-210-US.jpg</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M62" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
         <v>47</v>
@@ -3943,7 +3945,7 @@
         <v>41</v>
       </c>
       <c r="E63" s="6">
-        <v>21560</v>
+        <v>30520</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" t="s">
@@ -3952,17 +3954,17 @@
       <c r="H63" t="s">
         <v>25</v>
       </c>
-      <c r="L63" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M63" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
         <v>47</v>
@@ -3974,7 +3976,7 @@
         <v>41</v>
       </c>
       <c r="E64" s="6">
-        <v>30520</v>
+        <v>55500</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" t="s">
@@ -3983,20 +3985,20 @@
       <c r="H64" t="s">
         <v>25</v>
       </c>
-      <c r="L64" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M64" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -4004,27 +4006,32 @@
       <c r="D65" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="6">
-        <v>55500</v>
-      </c>
-      <c r="F65" s="1"/>
+      <c r="E65" s="7">
+        <v>28000</v>
+      </c>
+      <c r="F65" s="1">
+        <v>48.5</v>
+      </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="J65" t="s">
+        <v>54</v>
+      </c>
+      <c r="M65" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
         <v>88</v>
@@ -4035,32 +4042,35 @@
       <c r="D66" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="7">
-        <v>28000</v>
+      <c r="E66" s="6">
+        <v>29000</v>
       </c>
       <c r="F66" s="1">
         <v>48.5</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s">
         <v>73</v>
       </c>
+      <c r="I66" t="s">
+        <v>385</v>
+      </c>
       <c r="J66" t="s">
         <v>54</v>
       </c>
-      <c r="L66" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
-      </c>
-      <c r="M66" s="8" t="s">
+      <c r="M66" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
+      </c>
+      <c r="N66" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
         <v>88</v>
@@ -4071,35 +4081,35 @@
       <c r="D67" t="s">
         <v>41</v>
       </c>
-      <c r="E67" s="6">
-        <v>29000</v>
-      </c>
-      <c r="F67" s="1">
-        <v>48.5</v>
+      <c r="E67" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="H67" t="s">
         <v>73</v>
       </c>
       <c r="I67" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J67" t="s">
         <v>54</v>
       </c>
-      <c r="L67" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M67" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
@@ -4110,107 +4120,104 @@
       <c r="D68" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>158</v>
+      <c r="E68" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="I68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J68" t="s">
         <v>54</v>
       </c>
-      <c r="L68" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M68" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
       </c>
       <c r="E69" s="6">
-        <v>20000</v>
+        <v>56000</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
-        <v>126</v>
-      </c>
-      <c r="I69" t="s">
-        <v>386</v>
-      </c>
-      <c r="J69" t="s">
+        <v>44</v>
+      </c>
+      <c r="M69" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
+      </c>
+      <c r="N69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="6">
+        <v>40000</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" t="s">
+        <v>68</v>
+      </c>
+      <c r="J70" t="s">
         <v>54</v>
       </c>
-      <c r="L69" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="6">
-        <v>56000</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" t="s">
-        <v>43</v>
-      </c>
-      <c r="H70" t="s">
-        <v>44</v>
-      </c>
-      <c r="L70" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
-      </c>
-      <c r="M70" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M70" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>330</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
@@ -4221,14 +4228,14 @@
       <c r="D71" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="6">
-        <v>40000</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>67</v>
+      <c r="E71" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="G71" t="s">
-        <v>24</v>
+        <v>332</v>
       </c>
       <c r="H71" t="s">
         <v>68</v>
@@ -4236,53 +4243,53 @@
       <c r="J71" t="s">
         <v>54</v>
       </c>
-      <c r="L71" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M71" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
+      </c>
+      <c r="N71" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>331</v>
+      <c r="E72" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G72" t="s">
-        <v>332</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>68</v>
-      </c>
-      <c r="J72" t="s">
-        <v>54</v>
-      </c>
-      <c r="L72" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
-      </c>
-      <c r="M72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="L72" t="s">
+        <v>180</v>
+      </c>
+      <c r="M72" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="B73" t="s">
         <v>177</v>
@@ -4294,31 +4301,37 @@
         <v>41</v>
       </c>
       <c r="E73" s="6">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>178</v>
       </c>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H73" t="s">
         <v>179</v>
       </c>
-      <c r="K73" t="s">
+      <c r="I73" t="s">
+        <v>385</v>
+      </c>
+      <c r="J73" t="s">
+        <v>54</v>
+      </c>
+      <c r="L73" t="s">
         <v>180</v>
       </c>
-      <c r="L73" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M73" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="B74" t="s">
         <v>177</v>
@@ -4330,7 +4343,7 @@
         <v>41</v>
       </c>
       <c r="E74" s="6">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>178</v>
@@ -4341,29 +4354,23 @@
       <c r="H74" t="s">
         <v>179</v>
       </c>
-      <c r="I74" t="s">
-        <v>386</v>
-      </c>
-      <c r="J74" t="s">
-        <v>54</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>180</v>
       </c>
-      <c r="L74" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
-      </c>
-      <c r="M74" s="4" t="s">
+      <c r="M74" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
+      </c>
+      <c r="N74" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>335</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -4371,38 +4378,38 @@
       <c r="D75" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="6">
-        <v>7000</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>178</v>
+      <c r="E75" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="G75" t="s">
-        <v>60</v>
-      </c>
-      <c r="H75" t="s">
-        <v>179</v>
-      </c>
-      <c r="K75" t="s">
-        <v>180</v>
-      </c>
-      <c r="L75" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="I75" t="s">
+        <v>385</v>
+      </c>
+      <c r="J75" t="s">
+        <v>54</v>
+      </c>
+      <c r="M75" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PDW-C100-US.jpg</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="D76" t="s">
         <v>41</v>
@@ -4410,29 +4417,26 @@
       <c r="E76" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>336</v>
       </c>
       <c r="G76" t="s">
-        <v>337</v>
-      </c>
-      <c r="I76" t="s">
-        <v>386</v>
-      </c>
-      <c r="J76" t="s">
-        <v>54</v>
-      </c>
-      <c r="L76" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PDW-C100-US.jpg</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H76" t="s">
+        <v>342</v>
+      </c>
+      <c r="M76" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B77" t="s">
         <v>340</v>
@@ -4450,22 +4454,22 @@
         <v>336</v>
       </c>
       <c r="G77" t="s">
-        <v>60</v>
+        <v>345</v>
       </c>
       <c r="H77" t="s">
         <v>342</v>
       </c>
-      <c r="L77" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M77" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B78" t="s">
         <v>340</v>
@@ -4476,95 +4480,95 @@
       <c r="D78" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="G78" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="L78" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M78" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
+      </c>
+      <c r="N78" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>347</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>348</v>
+        <v>15</v>
+      </c>
+      <c r="E79" s="7">
+        <v>19300</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="G79" t="s">
         <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>342</v>
-      </c>
-      <c r="L79" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="M79" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="7">
-        <v>19300</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>130</v>
+        <v>41</v>
+      </c>
+      <c r="E80" s="6">
+        <v>330</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="G80" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>73</v>
-      </c>
-      <c r="L80" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="M80" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Ruko-F11-China.jpg</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B81" t="s">
         <v>262</v>
@@ -4576,10 +4580,10 @@
         <v>41</v>
       </c>
       <c r="E81" s="6">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G81" t="s">
         <v>24</v>
@@ -4587,20 +4591,20 @@
       <c r="H81" t="s">
         <v>179</v>
       </c>
-      <c r="L81" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Ruko-F11-China.jpg</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M81" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
@@ -4609,10 +4613,10 @@
         <v>41</v>
       </c>
       <c r="E82" s="6">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G82" t="s">
         <v>24</v>
@@ -4620,17 +4624,20 @@
       <c r="H82" t="s">
         <v>179</v>
       </c>
-      <c r="L82" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>268</v>
+      </c>
+      <c r="M82" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B83" t="s">
         <v>271</v>
@@ -4642,7 +4649,7 @@
         <v>41</v>
       </c>
       <c r="E83" s="6">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>251</v>
@@ -4653,20 +4660,20 @@
       <c r="H83" t="s">
         <v>179</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>268</v>
       </c>
-      <c r="L83" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
-      </c>
-      <c r="M83" s="4" t="s">
+      <c r="M83" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
+      </c>
+      <c r="N83" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B84" t="s">
         <v>271</v>
@@ -4678,7 +4685,7 @@
         <v>41</v>
       </c>
       <c r="E84" s="6">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>251</v>
@@ -4689,20 +4696,20 @@
       <c r="H84" t="s">
         <v>179</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>268</v>
       </c>
-      <c r="L84" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M84" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
         <v>271</v>
@@ -4713,11 +4720,11 @@
       <c r="D85" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="6">
-        <v>360</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>251</v>
+      <c r="E85" s="7">
+        <v>230</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="G85" t="s">
         <v>24</v>
@@ -4725,20 +4732,20 @@
       <c r="H85" t="s">
         <v>179</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>268</v>
       </c>
-      <c r="L85" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M85" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
+      </c>
+      <c r="N85" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B86" t="s">
         <v>271</v>
@@ -4761,20 +4768,20 @@
       <c r="H86" t="s">
         <v>179</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>268</v>
       </c>
-      <c r="L86" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="M86" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
+      </c>
+      <c r="N86" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B87" t="s">
         <v>271</v>
@@ -4785,11 +4792,11 @@
       <c r="D87" t="s">
         <v>41</v>
       </c>
-      <c r="E87" s="7">
-        <v>230</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>285</v>
+      <c r="E87" s="6">
+        <v>260</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="G87" t="s">
         <v>24</v>
@@ -4797,56 +4804,56 @@
       <c r="H87" t="s">
         <v>179</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>268</v>
       </c>
-      <c r="L87" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M87" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
         <v>41</v>
       </c>
       <c r="E88" s="6">
-        <v>260</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>267</v>
+        <v>999</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1.7</v>
       </c>
       <c r="G88" t="s">
         <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>179</v>
-      </c>
-      <c r="K88" t="s">
-        <v>268</v>
-      </c>
-      <c r="L88" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="L88" t="s">
+        <v>253</v>
+      </c>
+      <c r="M88" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-2+-US.jpg</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>252</v>
+        <v>375</v>
       </c>
       <c r="B89" t="s">
         <v>148</v>
@@ -4857,32 +4864,32 @@
       <c r="D89" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="6">
-        <v>999</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1.7</v>
+      <c r="E89" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H89" t="s">
-        <v>44</v>
-      </c>
-      <c r="K89" t="s">
-        <v>253</v>
-      </c>
-      <c r="L89" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-2+-US.jpg</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s">
+        <v>385</v>
+      </c>
+      <c r="M89" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-X10D-US.jpg</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>376</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s">
         <v>148</v>
@@ -4893,11 +4900,11 @@
       <c r="D90" t="s">
         <v>41</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>294</v>
+      <c r="E90" s="6">
+        <v>18000</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>377</v>
+        <v>149</v>
       </c>
       <c r="G90" t="s">
         <v>60</v>
@@ -4906,19 +4913,22 @@
         <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>386</v>
-      </c>
-      <c r="L90" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X10D-US.jpg</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="J90" t="s">
+        <v>54</v>
+      </c>
+      <c r="M90" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-X10-US.jpg</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>147</v>
+        <v>371</v>
       </c>
       <c r="B91" t="s">
         <v>148</v>
@@ -4929,35 +4939,35 @@
       <c r="D91" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="6">
-        <v>18000</v>
+      <c r="E91" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>149</v>
+        <v>372</v>
       </c>
       <c r="G91" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H91" t="s">
         <v>25</v>
       </c>
       <c r="I91" t="s">
-        <v>386</v>
-      </c>
-      <c r="J91" t="s">
-        <v>54</v>
-      </c>
-      <c r="L91" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X10-US.jpg</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="L91" t="s">
+        <v>373</v>
+      </c>
+      <c r="M91" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-X2D-US.jpg</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
         <v>148</v>
@@ -4968,110 +4978,110 @@
       <c r="D92" t="s">
         <v>41</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>373</v>
+      <c r="E92" s="6">
+        <v>14999</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1.7</v>
       </c>
       <c r="G92" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H92" t="s">
         <v>25</v>
       </c>
       <c r="I92" t="s">
-        <v>386</v>
-      </c>
-      <c r="K92" t="s">
-        <v>374</v>
-      </c>
-      <c r="L92" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X2D-US.jpg</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="J92" t="s">
+        <v>54</v>
+      </c>
+      <c r="M92" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skydio-X2E-US.jpg</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
       <c r="C93" t="s">
+        <v>352</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93" t="s">
+        <v>73</v>
+      </c>
+      <c r="M93" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
+      </c>
+      <c r="N93" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" t="s">
         <v>14</v>
       </c>
-      <c r="D93" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="6">
-        <v>14999</v>
-      </c>
-      <c r="F93" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="G93" t="s">
-        <v>60</v>
-      </c>
-      <c r="H93" t="s">
-        <v>25</v>
-      </c>
-      <c r="I93" t="s">
-        <v>386</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="6">
+        <v>46800</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s">
+        <v>53</v>
+      </c>
+      <c r="J94" t="s">
         <v>54</v>
       </c>
-      <c r="L93" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X2E-US.jpg</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>350</v>
-      </c>
-      <c r="B94" t="s">
-        <v>351</v>
-      </c>
-      <c r="C94" t="s">
-        <v>352</v>
-      </c>
-      <c r="D94" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" t="s">
-        <v>73</v>
-      </c>
-      <c r="L94" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
-      </c>
-      <c r="M94" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L94" t="s">
+        <v>55</v>
+      </c>
+      <c r="M94" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -5080,37 +5090,34 @@
         <v>41</v>
       </c>
       <c r="E95" s="6">
-        <v>46800</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>52</v>
+        <v>9000</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>53</v>
-      </c>
-      <c r="J95" t="s">
-        <v>54</v>
-      </c>
-      <c r="K95" t="s">
-        <v>55</v>
-      </c>
-      <c r="L95" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="L95" t="s">
+        <v>205</v>
+      </c>
+      <c r="M95" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
+      </c>
+      <c r="N95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -5118,35 +5125,41 @@
       <c r="D96" t="s">
         <v>41</v>
       </c>
-      <c r="E96" s="6">
-        <v>9000</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>158</v>
+      <c r="E96" s="7">
+        <v>14000</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="G96" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H96" t="s">
-        <v>179</v>
-      </c>
-      <c r="K96" t="s">
-        <v>205</v>
-      </c>
-      <c r="L96" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
-      </c>
-      <c r="M96" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="I96" t="s">
+        <v>385</v>
+      </c>
+      <c r="J96" t="s">
+        <v>54</v>
+      </c>
+      <c r="L96" t="s">
+        <v>185</v>
+      </c>
+      <c r="M96" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
+      </c>
+      <c r="N96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>379</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -5154,149 +5167,140 @@
       <c r="D97" t="s">
         <v>41</v>
       </c>
-      <c r="E97" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>184</v>
+      <c r="E97" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="G97" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H97" t="s">
         <v>25</v>
       </c>
       <c r="I97" t="s">
-        <v>386</v>
-      </c>
-      <c r="J97" t="s">
-        <v>54</v>
-      </c>
-      <c r="K97" t="s">
-        <v>185</v>
-      </c>
-      <c r="L97" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
-      </c>
-      <c r="M97" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="M97" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teal-Teal2-US.jpg</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="D98" t="s">
         <v>41</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>294</v>
+      <c r="E98" s="6">
+        <v>9695</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>381</v>
+        <v>201</v>
       </c>
       <c r="G98" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H98" t="s">
         <v>25</v>
       </c>
-      <c r="I98" t="s">
-        <v>386</v>
-      </c>
-      <c r="L98" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teal-Teal2-US.jpg</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M98" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
         <v>41</v>
       </c>
       <c r="E99" s="6">
-        <v>9695</v>
+        <v>7700</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G99" t="s">
         <v>60</v>
       </c>
       <c r="H99" t="s">
-        <v>25</v>
-      </c>
-      <c r="L99" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I99" t="s">
+        <v>385</v>
+      </c>
+      <c r="J99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L99" t="s">
+        <v>213</v>
+      </c>
+      <c r="M99" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
+      </c>
+      <c r="N99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="E100" s="6">
-        <v>7700</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>212</v>
+        <v>18750</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G100" t="s">
         <v>60</v>
       </c>
       <c r="H100" t="s">
-        <v>61</v>
-      </c>
-      <c r="I100" t="s">
-        <v>386</v>
-      </c>
-      <c r="J100" t="s">
-        <v>54</v>
-      </c>
-      <c r="K100" t="s">
-        <v>213</v>
-      </c>
-      <c r="L100" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
-      </c>
-      <c r="M100" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="M100" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -5305,34 +5309,34 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="E101" s="6">
-        <v>18750</v>
+        <v>26050</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="G101" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H101" t="s">
         <v>25</v>
       </c>
-      <c r="L101" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
-      </c>
-      <c r="M101" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M101" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -5340,107 +5344,107 @@
       <c r="D102" t="s">
         <v>41</v>
       </c>
-      <c r="E102" s="6">
-        <v>26050</v>
+      <c r="E102" s="7">
+        <v>29999</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H102" t="s">
         <v>25</v>
       </c>
-      <c r="L102" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>54</v>
+      </c>
+      <c r="M102" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
+      </c>
+      <c r="N102" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>41</v>
-      </c>
-      <c r="E103" s="7">
-        <v>29999</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="E103" s="6">
+        <v>22000</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="G103" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H103" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="I103" t="s">
+        <v>385</v>
       </c>
       <c r="J103" t="s">
         <v>54</v>
       </c>
-      <c r="L103" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
-      </c>
-      <c r="M103" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L103" t="s">
+        <v>111</v>
+      </c>
+      <c r="M103" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
+      </c>
+      <c r="N103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="6">
-        <v>22000</v>
+        <v>35085</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H104" t="s">
-        <v>61</v>
-      </c>
-      <c r="I104" t="s">
-        <v>386</v>
-      </c>
-      <c r="J104" t="s">
-        <v>54</v>
-      </c>
-      <c r="K104" t="s">
-        <v>111</v>
-      </c>
-      <c r="L104" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
-      </c>
-      <c r="M104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="M104" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
+      </c>
+      <c r="N104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s">
         <v>76</v>
@@ -5452,79 +5456,50 @@
         <v>15</v>
       </c>
       <c r="E105" s="6">
-        <v>35085</v>
+        <v>29300</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G105" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H105" t="s">
         <v>73</v>
       </c>
-      <c r="L105" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
-      </c>
-      <c r="M105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>84</v>
-      </c>
-      <c r="B106" t="s">
-        <v>76</v>
-      </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="6">
-        <v>29300</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G106" t="s">
-        <v>43</v>
-      </c>
-      <c r="H106" t="s">
-        <v>73</v>
-      </c>
-      <c r="L106" t="str">
+      <c r="M105" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/ZephyrSystems-OKO-250-US.jpg</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N105" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E106" s="5"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E107" s="5"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E108" s="5"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E109" s="5"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E110" s="5"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E111" s="5"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E112" s="5"/>
       <c r="F112" s="2"/>
     </row>
@@ -5540,118 +5515,113 @@
       <c r="E115" s="5"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E116" s="5"/>
-      <c r="F116" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" xr:uid="{B0654C94-D789-4E36-AFC9-EB5ECDA2C30E}"/>
-    <hyperlink ref="M9" r:id="rId2" xr:uid="{B8E29BEF-5DC3-415A-9A42-321C52A9698E}"/>
-    <hyperlink ref="M15" r:id="rId3" xr:uid="{3EB35BBA-2E6E-43BC-9F2B-BA46D8129FCE}"/>
-    <hyperlink ref="M33" r:id="rId4" xr:uid="{113E3222-47AA-4EC1-B25F-6603ADCCF7DC}"/>
-    <hyperlink ref="M70" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
-    <hyperlink ref="M67" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
-    <hyperlink ref="M73" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
-    <hyperlink ref="M77" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
-    <hyperlink ref="M89" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
-    <hyperlink ref="M96" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
-    <hyperlink ref="M80" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
-    <hyperlink ref="M101" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
-    <hyperlink ref="M103" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
-    <hyperlink ref="M105" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
-    <hyperlink ref="M106" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
-    <hyperlink ref="M104" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
-    <hyperlink ref="M71" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
-    <hyperlink ref="M72" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
-    <hyperlink ref="M2" r:id="rId19" xr:uid="{DC762510-5411-4346-ADC1-60C1710AEFF4}"/>
-    <hyperlink ref="M94" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
-    <hyperlink ref="M100" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
-    <hyperlink ref="M60" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
-    <hyperlink ref="M61" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
-    <hyperlink ref="M47" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
-    <hyperlink ref="M97" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
-    <hyperlink ref="M51" r:id="rId26" xr:uid="{64F6E8C6-878E-41CF-9C1C-AEFA73C8F7FC}"/>
-    <hyperlink ref="M50" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
-    <hyperlink ref="M48" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
-    <hyperlink ref="M49" r:id="rId29" xr:uid="{165AB571-AD17-47C5-A52E-3ECFE175E45D}"/>
-    <hyperlink ref="M23" r:id="rId30" xr:uid="{7930AE8A-8903-499F-BF8A-0A53F8878139}"/>
-    <hyperlink ref="M24" r:id="rId31" xr:uid="{C27966FD-A67B-4E75-8B4C-4104B1780811}"/>
-    <hyperlink ref="M20" r:id="rId32" xr:uid="{4E79DE0E-747D-48A0-A3DF-A317F525AC99}"/>
-    <hyperlink ref="M81" r:id="rId33" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
-    <hyperlink ref="M82" r:id="rId34" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
-    <hyperlink ref="M21" r:id="rId35" xr:uid="{ACA47773-CA7B-4A93-B655-DCCB7CFFB97E}"/>
-    <hyperlink ref="M3" r:id="rId36" xr:uid="{484AB161-02F7-4842-900B-06E05CBA3079}"/>
-    <hyperlink ref="M8" r:id="rId37" xr:uid="{CB0C1422-2871-46D4-805F-64E91A0FCF19}"/>
-    <hyperlink ref="M45" r:id="rId38" xr:uid="{333F58F8-A830-48A8-AF31-563FA3C3331C}"/>
-    <hyperlink ref="M11" r:id="rId39" xr:uid="{20BEA2F4-F9E7-465C-8582-C32BB114A958}"/>
-    <hyperlink ref="M95" r:id="rId40" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
-    <hyperlink ref="M22" r:id="rId41" location="uas" xr:uid="{2C129CB9-17CF-4162-855D-4744CE573C87}"/>
-    <hyperlink ref="M76" r:id="rId42" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
-    <hyperlink ref="M91" r:id="rId43" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
-    <hyperlink ref="M19" r:id="rId44" xr:uid="{EC583CD3-7C3A-4D09-B7ED-0EC8AAAA3343}"/>
-    <hyperlink ref="M65" r:id="rId45" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
-    <hyperlink ref="M64" r:id="rId46" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
-    <hyperlink ref="M66" r:id="rId47" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
-    <hyperlink ref="M27" r:id="rId48" xr:uid="{A0523012-6C05-445A-974A-B3A49ABDACBD}"/>
-    <hyperlink ref="M102" r:id="rId49" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
-    <hyperlink ref="M63" r:id="rId50" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
-    <hyperlink ref="M25" r:id="rId51" xr:uid="{422B5330-A905-4AB0-B139-84D956CD2FD4}"/>
-    <hyperlink ref="M26" r:id="rId52" xr:uid="{B6B6B82A-AE51-4B42-9719-E5EA3598D511}"/>
-    <hyperlink ref="M69" r:id="rId53" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
-    <hyperlink ref="M62" r:id="rId54" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
-    <hyperlink ref="M30" r:id="rId55" xr:uid="{B2EC1F0D-EC36-406C-AAAE-962F29C1C690}"/>
-    <hyperlink ref="M41" r:id="rId56" xr:uid="{5851B709-EE11-4040-A6C7-792A08E645BB}"/>
-    <hyperlink ref="M93" r:id="rId57" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
-    <hyperlink ref="M74" r:id="rId58" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
-    <hyperlink ref="M99" r:id="rId59" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
-    <hyperlink ref="M75" r:id="rId60" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
-    <hyperlink ref="M14" r:id="rId61" xr:uid="{47D34CCC-47E1-4B8F-9277-23B177A2C527}"/>
-    <hyperlink ref="M38" r:id="rId62" xr:uid="{94228163-F868-4206-9105-EA09E5E25EBE}"/>
-    <hyperlink ref="M13" r:id="rId63" xr:uid="{DBFCF21E-1457-4EF8-B2EA-7F6C3FA78E26}"/>
-    <hyperlink ref="M36" r:id="rId64" xr:uid="{8FB7EF7C-30C3-4852-A105-40043558285D}"/>
-    <hyperlink ref="M12" r:id="rId65" xr:uid="{42DC1FA1-408C-4BCC-AA55-F48220C06104}"/>
-    <hyperlink ref="M18" r:id="rId66" xr:uid="{B97CC6F1-C2F1-4CA5-8E37-9D983B165767}"/>
-    <hyperlink ref="M37" r:id="rId67" xr:uid="{404F221D-4717-48DD-91EE-073EB8108F0D}"/>
-    <hyperlink ref="M35" r:id="rId68" xr:uid="{A825FDFA-08DE-4E45-B2DE-9F7470045A4A}"/>
-    <hyperlink ref="M29" r:id="rId69" xr:uid="{87B2FCDE-C75E-49B7-9AA2-A26A9080A388}"/>
-    <hyperlink ref="M39" r:id="rId70" xr:uid="{02B24B87-6439-4455-9EB9-975DF50A9832}"/>
-    <hyperlink ref="M56" r:id="rId71" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
-    <hyperlink ref="M85" r:id="rId72" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
-    <hyperlink ref="M84" r:id="rId73" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
-    <hyperlink ref="M59" r:id="rId74" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
-    <hyperlink ref="M88" r:id="rId75" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
-    <hyperlink ref="M58" r:id="rId76" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
-    <hyperlink ref="M83" r:id="rId77" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
-    <hyperlink ref="M57" r:id="rId78" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
-    <hyperlink ref="M42" r:id="rId79" xr:uid="{295CA37D-1AD1-4E9E-8924-8E62F6AC71AC}"/>
-    <hyperlink ref="M54" r:id="rId80" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
-    <hyperlink ref="M53" r:id="rId81" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
-    <hyperlink ref="M55" r:id="rId82" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
-    <hyperlink ref="M78" r:id="rId83" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
-    <hyperlink ref="M4" r:id="rId84" xr:uid="{B8EEF89A-4F04-454F-A259-4DFF0690D481}"/>
-    <hyperlink ref="M6" r:id="rId85" xr:uid="{CE7BCF13-6582-4B09-9229-8A802DDED0E6}"/>
-    <hyperlink ref="M7" r:id="rId86" xr:uid="{26F63D41-5725-4371-9C40-4A585DEA85B9}"/>
-    <hyperlink ref="M10" r:id="rId87" xr:uid="{36AB703D-E6D6-4459-9749-AF7D1AEE6B66}"/>
-    <hyperlink ref="M46" r:id="rId88" xr:uid="{E52379EB-1E5E-4657-99E8-930A49D011CB}"/>
-    <hyperlink ref="M90" r:id="rId89" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
-    <hyperlink ref="M16" r:id="rId90" xr:uid="{EB24426B-29A4-4CF8-B587-4B40E8A5DAB6}"/>
-    <hyperlink ref="M68" r:id="rId91" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
-    <hyperlink ref="M40" r:id="rId92" xr:uid="{A01C861A-5B15-4690-8AD2-2B7772918BDE}"/>
-    <hyperlink ref="M98" r:id="rId93" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
-    <hyperlink ref="M92" r:id="rId94" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
-    <hyperlink ref="M43" r:id="rId95" xr:uid="{E5279318-3BFF-4592-9619-A1D3C16C3193}"/>
-    <hyperlink ref="M44" r:id="rId96" xr:uid="{4FF7E709-8E9D-4104-804F-DA7C4F3B79F5}"/>
-    <hyperlink ref="M79" r:id="rId97" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
-    <hyperlink ref="M87" r:id="rId98" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
-    <hyperlink ref="M32" r:id="rId99" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
-    <hyperlink ref="M31" r:id="rId100" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{B0654C94-D789-4E36-AFC9-EB5ECDA2C30E}"/>
+    <hyperlink ref="N9" r:id="rId2" xr:uid="{B8E29BEF-5DC3-415A-9A42-321C52A9698E}"/>
+    <hyperlink ref="N14" r:id="rId3" xr:uid="{3EB35BBA-2E6E-43BC-9F2B-BA46D8129FCE}"/>
+    <hyperlink ref="N32" r:id="rId4" xr:uid="{113E3222-47AA-4EC1-B25F-6603ADCCF7DC}"/>
+    <hyperlink ref="N69" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
+    <hyperlink ref="N66" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
+    <hyperlink ref="N72" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
+    <hyperlink ref="N76" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
+    <hyperlink ref="N88" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
+    <hyperlink ref="N95" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
+    <hyperlink ref="N79" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
+    <hyperlink ref="N100" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
+    <hyperlink ref="N102" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
+    <hyperlink ref="N104" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
+    <hyperlink ref="N105" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
+    <hyperlink ref="N103" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
+    <hyperlink ref="N70" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
+    <hyperlink ref="N71" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
+    <hyperlink ref="N2" r:id="rId19" xr:uid="{DC762510-5411-4346-ADC1-60C1710AEFF4}"/>
+    <hyperlink ref="N93" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
+    <hyperlink ref="N99" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
+    <hyperlink ref="N59" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
+    <hyperlink ref="N60" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
+    <hyperlink ref="N46" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
+    <hyperlink ref="N96" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
+    <hyperlink ref="N50" r:id="rId26" xr:uid="{64F6E8C6-878E-41CF-9C1C-AEFA73C8F7FC}"/>
+    <hyperlink ref="N49" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
+    <hyperlink ref="N47" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
+    <hyperlink ref="N48" r:id="rId29" xr:uid="{165AB571-AD17-47C5-A52E-3ECFE175E45D}"/>
+    <hyperlink ref="N22" r:id="rId30" xr:uid="{7930AE8A-8903-499F-BF8A-0A53F8878139}"/>
+    <hyperlink ref="N23" r:id="rId31" xr:uid="{C27966FD-A67B-4E75-8B4C-4104B1780811}"/>
+    <hyperlink ref="N19" r:id="rId32" xr:uid="{4E79DE0E-747D-48A0-A3DF-A317F525AC99}"/>
+    <hyperlink ref="N80" r:id="rId33" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
+    <hyperlink ref="N81" r:id="rId34" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
+    <hyperlink ref="N20" r:id="rId35" xr:uid="{ACA47773-CA7B-4A93-B655-DCCB7CFFB97E}"/>
+    <hyperlink ref="N3" r:id="rId36" xr:uid="{484AB161-02F7-4842-900B-06E05CBA3079}"/>
+    <hyperlink ref="N8" r:id="rId37" xr:uid="{CB0C1422-2871-46D4-805F-64E91A0FCF19}"/>
+    <hyperlink ref="N44" r:id="rId38" xr:uid="{333F58F8-A830-48A8-AF31-563FA3C3331C}"/>
+    <hyperlink ref="N10" r:id="rId39" xr:uid="{20BEA2F4-F9E7-465C-8582-C32BB114A958}"/>
+    <hyperlink ref="N94" r:id="rId40" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
+    <hyperlink ref="N21" r:id="rId41" location="uas" xr:uid="{2C129CB9-17CF-4162-855D-4744CE573C87}"/>
+    <hyperlink ref="N75" r:id="rId42" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
+    <hyperlink ref="N90" r:id="rId43" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
+    <hyperlink ref="N18" r:id="rId44" xr:uid="{EC583CD3-7C3A-4D09-B7ED-0EC8AAAA3343}"/>
+    <hyperlink ref="N64" r:id="rId45" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
+    <hyperlink ref="N63" r:id="rId46" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
+    <hyperlink ref="N65" r:id="rId47" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
+    <hyperlink ref="N26" r:id="rId48" xr:uid="{A0523012-6C05-445A-974A-B3A49ABDACBD}"/>
+    <hyperlink ref="N101" r:id="rId49" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
+    <hyperlink ref="N62" r:id="rId50" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
+    <hyperlink ref="N24" r:id="rId51" xr:uid="{422B5330-A905-4AB0-B139-84D956CD2FD4}"/>
+    <hyperlink ref="N25" r:id="rId52" xr:uid="{B6B6B82A-AE51-4B42-9719-E5EA3598D511}"/>
+    <hyperlink ref="N68" r:id="rId53" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
+    <hyperlink ref="N61" r:id="rId54" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
+    <hyperlink ref="N29" r:id="rId55" xr:uid="{B2EC1F0D-EC36-406C-AAAE-962F29C1C690}"/>
+    <hyperlink ref="N40" r:id="rId56" xr:uid="{5851B709-EE11-4040-A6C7-792A08E645BB}"/>
+    <hyperlink ref="N92" r:id="rId57" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
+    <hyperlink ref="N73" r:id="rId58" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
+    <hyperlink ref="N98" r:id="rId59" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
+    <hyperlink ref="N74" r:id="rId60" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
+    <hyperlink ref="N13" r:id="rId61" xr:uid="{47D34CCC-47E1-4B8F-9277-23B177A2C527}"/>
+    <hyperlink ref="N37" r:id="rId62" xr:uid="{94228163-F868-4206-9105-EA09E5E25EBE}"/>
+    <hyperlink ref="N12" r:id="rId63" xr:uid="{DBFCF21E-1457-4EF8-B2EA-7F6C3FA78E26}"/>
+    <hyperlink ref="N35" r:id="rId64" xr:uid="{8FB7EF7C-30C3-4852-A105-40043558285D}"/>
+    <hyperlink ref="N11" r:id="rId65" xr:uid="{42DC1FA1-408C-4BCC-AA55-F48220C06104}"/>
+    <hyperlink ref="N17" r:id="rId66" xr:uid="{B97CC6F1-C2F1-4CA5-8E37-9D983B165767}"/>
+    <hyperlink ref="N36" r:id="rId67" xr:uid="{404F221D-4717-48DD-91EE-073EB8108F0D}"/>
+    <hyperlink ref="N34" r:id="rId68" xr:uid="{A825FDFA-08DE-4E45-B2DE-9F7470045A4A}"/>
+    <hyperlink ref="N28" r:id="rId69" xr:uid="{87B2FCDE-C75E-49B7-9AA2-A26A9080A388}"/>
+    <hyperlink ref="N38" r:id="rId70" xr:uid="{02B24B87-6439-4455-9EB9-975DF50A9832}"/>
+    <hyperlink ref="N55" r:id="rId71" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
+    <hyperlink ref="N84" r:id="rId72" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
+    <hyperlink ref="N83" r:id="rId73" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
+    <hyperlink ref="N58" r:id="rId74" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
+    <hyperlink ref="N87" r:id="rId75" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
+    <hyperlink ref="N57" r:id="rId76" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
+    <hyperlink ref="N82" r:id="rId77" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
+    <hyperlink ref="N56" r:id="rId78" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
+    <hyperlink ref="N41" r:id="rId79" xr:uid="{295CA37D-1AD1-4E9E-8924-8E62F6AC71AC}"/>
+    <hyperlink ref="N53" r:id="rId80" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
+    <hyperlink ref="N52" r:id="rId81" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
+    <hyperlink ref="N54" r:id="rId82" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
+    <hyperlink ref="N77" r:id="rId83" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
+    <hyperlink ref="N4" r:id="rId84" xr:uid="{B8EEF89A-4F04-454F-A259-4DFF0690D481}"/>
+    <hyperlink ref="N6" r:id="rId85" xr:uid="{CE7BCF13-6582-4B09-9229-8A802DDED0E6}"/>
+    <hyperlink ref="N7" r:id="rId86" xr:uid="{26F63D41-5725-4371-9C40-4A585DEA85B9}"/>
+    <hyperlink ref="N45" r:id="rId87" xr:uid="{E52379EB-1E5E-4657-99E8-930A49D011CB}"/>
+    <hyperlink ref="N89" r:id="rId88" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
+    <hyperlink ref="N15" r:id="rId89" xr:uid="{EB24426B-29A4-4CF8-B587-4B40E8A5DAB6}"/>
+    <hyperlink ref="N67" r:id="rId90" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
+    <hyperlink ref="N39" r:id="rId91" xr:uid="{A01C861A-5B15-4690-8AD2-2B7772918BDE}"/>
+    <hyperlink ref="N97" r:id="rId92" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
+    <hyperlink ref="N91" r:id="rId93" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
+    <hyperlink ref="N42" r:id="rId94" xr:uid="{E5279318-3BFF-4592-9619-A1D3C16C3193}"/>
+    <hyperlink ref="N43" r:id="rId95" xr:uid="{4FF7E709-8E9D-4104-804F-DA7C4F3B79F5}"/>
+    <hyperlink ref="N78" r:id="rId96" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
+    <hyperlink ref="N86" r:id="rId97" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
+    <hyperlink ref="N31" r:id="rId98" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
+    <hyperlink ref="N30" r:id="rId99" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId101"/>
+  <pageSetup orientation="portrait" r:id="rId100"/>
   <tableParts count="1">
-    <tablePart r:id="rId102"/>
+    <tablePart r:id="rId101"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981BB623-AD6C-4998-827E-395EF470E983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8715230A-E87E-4BDF-B55F-14F519F7EC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="390" windowWidth="31620" windowHeight="19695" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
+    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
   <sheets>
     <sheet name="Drones" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="387">
   <si>
     <t>Model</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Rotor</t>
-  </si>
-  <si>
     <t>5.7</t>
   </si>
   <si>
@@ -1142,15 +1139,6 @@
     <t>https://www.easyaerial.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">Edge 130 </t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>https://www.flightwave.aero/edge-130-enterprise/</t>
-  </si>
-  <si>
     <t>X2D</t>
   </si>
   <si>
@@ -1203,6 +1191,12 @@
   </si>
   <si>
     <t>Rating</t>
+  </si>
+  <si>
+    <t>Multi-Rotor</t>
+  </si>
+  <si>
+    <t>Single-Rotor</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1342,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N105" totalsRowShown="0">
-  <autoFilter ref="A1:N105" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N105">
-    <sortCondition ref="M1:M105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N104" totalsRowShown="0">
+  <autoFilter ref="A1:N104" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N104">
+    <sortCondition ref="M1:M104"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D437D100-220A-42E8-8A79-53DD0D82F2C1}" name="Model"/>
@@ -1672,10 +1666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,8 +1678,8 @@
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
@@ -1727,13 +1722,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -1741,124 +1736,124 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E2" s="6">
         <v>18000</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Acecore-ZOE-Netherlands.jpg</v>
+      </c>
+      <c r="N2" t="s">
         <v>145</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Acecore-ZOE-Netherlands.jpg</v>
-      </c>
-      <c r="N2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E3" s="6">
         <v>22000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
         <v>104</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AeroSystemsWest-HeavyLiftMultirotor-US.jpg</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="M3" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AeroSystemsWest-HeavyLiftMultirotor-US.jpg</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" t="s">
         <v>355</v>
-      </c>
-      <c r="G4" t="s">
-        <v>356</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AgEagle-eBeeTAC-US.jpg</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
         <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="6">
         <v>13500</v>
@@ -1867,265 +1862,265 @@
         <v>3.6</v>
       </c>
       <c r="G5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M5" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AgEagle-eBeeX-US.jpg</v>
       </c>
       <c r="N5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
         <v>358</v>
-      </c>
-      <c r="B6" t="s">
-        <v>359</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>386</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L6" t="s">
+        <v>360</v>
+      </c>
+      <c r="M6" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Anduril-Ghost-US.jpg</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="M6" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Anduril-Ghost-US.jpg</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>386</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M7" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Anduril-GhostX-US.jpg</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="M7" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Anduril-GhostX-US.jpg</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
         <v>136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E8" s="6">
         <v>18500</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Arcsky-X55-US.jpg</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="M8" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Arcsky-X55-US.jpg</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" t="s">
         <v>291</v>
-      </c>
-      <c r="B9" t="s">
-        <v>292</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="F9" s="1">
         <v>13.5</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M9" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AscentAerosystems-Spirit-US.jpg</v>
       </c>
       <c r="N9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E10" s="6">
         <v>3300</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
+        <v>228</v>
+      </c>
+      <c r="M10" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-Tarot650-US.jpg</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="M10" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-Tarot650-US.jpg</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E11" s="6">
         <v>3300</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M11" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AureliaAerospace-X4-US.jpg</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E12" s="6">
         <v>4900</v>
@@ -2137,34 +2132,34 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M12" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AureliaAerospace-X6-US.jpg</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
         <v>216</v>
-      </c>
-      <c r="B13" t="s">
-        <v>217</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E13" s="6">
         <v>6399</v>
@@ -2173,23 +2168,23 @@
         <v>37.4</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
+        <v>217</v>
+      </c>
+      <c r="M13" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/AureliaAerospace-X8-US.jpg</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="M13" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-X8-US.jpg</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2293,7 +2288,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -2302,13 +2297,13 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E17" s="6">
         <v>2500</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -2317,19 +2312,19 @@
         <v>25</v>
       </c>
       <c r="L17" t="s">
+        <v>235</v>
+      </c>
+      <c r="M17" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Autel-EvoIIProv3-China.jpg</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="M17" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-EvoIIProv3-China.jpg</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -2338,16 +2333,16 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E18" s="6">
         <v>9000</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
@@ -2357,12 +2352,12 @@
         <v>/dronetable/images/Autel-EVOMax4T-China.jpg</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -2371,110 +2366,110 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E19" s="6">
         <v>549</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M19" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Autel-EvoNano-China.jpg</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" t="s">
         <v>296</v>
-      </c>
-      <c r="B20" t="s">
-        <v>297</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>381</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/BlueHalo-IntenseEyeV2-US.jpg</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="H20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" t="s">
-        <v>385</v>
-      </c>
-      <c r="J20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/BlueHalo-IntenseEyeV2-US.jpg</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F21" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G21" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>381</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/BlueHalo-IntenseEyeV3-US.jpg</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="G21" t="s">
-        <v>299</v>
-      </c>
-      <c r="H21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" t="s">
-        <v>385</v>
-      </c>
-      <c r="J21" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/BlueHalo-IntenseEyeV3-US.jpg</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2548,13 +2543,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
         <v>115</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>117</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -2563,10 +2558,10 @@
         <v>20700</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
         <v>118</v>
-      </c>
-      <c r="G24" t="s">
-        <v>119</v>
       </c>
       <c r="H24" t="s">
         <v>25</v>
@@ -2576,30 +2571,30 @@
         <v>/dronetable/images/DeltaQuad-DeltaQuadPro-Netherlands.jpg</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E25" s="6">
         <v>20000</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
@@ -2609,30 +2604,30 @@
         <v>/dronetable/images/DJI-AgrasT30-China.jpg</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E26" s="6">
         <v>26519</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
         <v>25</v>
@@ -2642,96 +2637,96 @@
         <v>/dronetable/images/DJI-AgrasT40-China.jpg</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E27" s="7">
         <v>999</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M27" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Air2s-China.jpg</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E28" s="6">
         <v>1388</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-AVATA-China.jpg</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="M28" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-AVATA-China.jpg</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E29" s="6">
         <v>16499</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
@@ -2740,34 +2735,34 @@
         <v>25</v>
       </c>
       <c r="L29" t="s">
+        <v>154</v>
+      </c>
+      <c r="M29" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Inspire3-China.jpg</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="M29" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Inspire3-China.jpg</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E30" s="11">
         <v>10715</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
@@ -2780,30 +2775,30 @@
         <v>/dronetable/images/DJI-M30Enterprise-China.jpg</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E31" s="7">
         <v>12100</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H31" t="s">
         <v>25</v>
@@ -2813,21 +2808,21 @@
         <v>/dronetable/images/DJI-M30Thermal-China.jpg</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E32" s="6">
         <v>13700</v>
@@ -2836,112 +2831,112 @@
         <v>19.8</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H32" t="s">
         <v>25</v>
       </c>
       <c r="L32" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/DJI-Matrice300RTK-China.jpg</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="M32" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Matrice300RTK-China.jpg</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E33" s="7">
         <v>2049</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M33" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mavic3-China.jpg</v>
       </c>
       <c r="N33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E34" s="6">
         <v>1699</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M34" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mavic3Classic-China.jpg</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E35" s="6">
         <v>3630</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G35" t="s">
         <v>24</v>
@@ -2950,34 +2945,34 @@
         <v>25</v>
       </c>
       <c r="L35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M35" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mavic3Enterprise-China.jpg</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E36" s="6">
         <v>2199</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G36" t="s">
         <v>24</v>
@@ -2986,37 +2981,37 @@
         <v>25</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M36" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mavic3Pro-China.jpg</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E37" s="7">
         <v>5498</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
@@ -3026,132 +3021,132 @@
         <v>/dronetable/images/DJI-Mavic3Thermal-China.jpg</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E38" s="6">
         <v>759</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G38" t="s">
         <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M38" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mini3pro-China.jpg</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E39" s="5">
         <v>199</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M39" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Neo-China.jpg</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
         <v>166</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>167</v>
       </c>
-      <c r="C40" t="s">
-        <v>168</v>
-      </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E40" s="6">
         <v>14999</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H40" t="s">
         <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M40" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Draganfly-Commander2-Canada.jpg</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
         <v>167</v>
       </c>
-      <c r="C41" t="s">
-        <v>168</v>
-      </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
         <v>24</v>
@@ -3160,37 +3155,37 @@
         <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M41" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Draganfly-Commander3XL-Canada.jpg</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" t="s">
         <v>306</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>307</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>385</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" t="s">
         <v>309</v>
-      </c>
-      <c r="G42" t="s">
-        <v>310</v>
       </c>
       <c r="H42" t="s">
         <v>25</v>
@@ -3200,24 +3195,24 @@
         <v>/dronetable/images/DroneVolt-Hercules20-France.jpg</v>
       </c>
       <c r="N42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>363</v>
+      </c>
+      <c r="B43" t="s">
         <v>364</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
+        <v>385</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>366</v>
       </c>
       <c r="G43" t="s">
         <v>24</v>
@@ -3226,25 +3221,25 @@
         <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M43" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/EasyAerial-Osprey-.jpg</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
         <v>161</v>
-      </c>
-      <c r="B44" t="s">
-        <v>162</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -3256,7 +3251,7 @@
         <v>15000</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
         <v>24</v>
@@ -3265,2156 +3260,2153 @@
         <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L44" t="s">
+        <v>163</v>
+      </c>
+      <c r="M44" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="M44" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>368</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>294</v>
+        <v>385</v>
+      </c>
+      <c r="E45" s="6">
+        <v>40000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>369</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" t="s">
-        <v>385</v>
+        <v>60</v>
+      </c>
+      <c r="L45" t="s">
+        <v>61</v>
       </c>
       <c r="M45" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>370</v>
+        <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
+      </c>
+      <c r="N45" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E46" s="6">
-        <v>40000</v>
+        <v>28500</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-      <c r="L46" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>53</v>
       </c>
       <c r="M46" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
-      </c>
-      <c r="N46" t="s">
-        <v>63</v>
+        <v>/dronetable/images/Freefly-Alta-X(BlueCube)-US.jpg</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E47" s="6">
-        <v>28500</v>
+        <v>36000</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
         <v>24</v>
       </c>
       <c r="H47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" t="s">
+        <v>381</v>
+      </c>
+      <c r="J47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M47" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Alta-X(DIUBlue)-US.jpg</v>
+      </c>
+      <c r="N47" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="J47" t="s">
-        <v>54</v>
-      </c>
-      <c r="M47" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X(BlueCube)-US.jpg</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
         <v>70</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E48" s="6">
-        <v>36000</v>
+        <v>18200</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" t="s">
         <v>72</v>
       </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I48" t="s">
-        <v>385</v>
-      </c>
-      <c r="J48" t="s">
-        <v>54</v>
-      </c>
       <c r="M48" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X(DIUBlue)-US.jpg</v>
+        <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E49" s="6">
-        <v>18200</v>
+        <v>14500</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" t="s">
         <v>72</v>
       </c>
-      <c r="G49" t="s">
-        <v>138</v>
-      </c>
-      <c r="H49" t="s">
-        <v>73</v>
+      <c r="J49" t="s">
+        <v>53</v>
       </c>
       <c r="M49" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>142</v>
+        <v>/dronetable/images/Freefly-Astro-US.jpg</v>
+      </c>
+      <c r="N49" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="6">
-        <v>14500</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>174</v>
+        <v>385</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>381</v>
       </c>
       <c r="J50" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="L50" t="s">
+        <v>315</v>
       </c>
       <c r="M50" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Astro-US.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
       </c>
       <c r="N50" t="s">
-        <v>175</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
         <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M51" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
-      </c>
-      <c r="N51" t="s">
-        <v>314</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="H52" t="s">
         <v>25</v>
       </c>
-      <c r="I52" t="s">
-        <v>385</v>
-      </c>
-      <c r="J52" t="s">
-        <v>54</v>
-      </c>
-      <c r="L52" t="s">
-        <v>318</v>
-      </c>
       <c r="M52" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>319</v>
+      </c>
+      <c r="B53" t="s">
         <v>312</v>
-      </c>
-      <c r="B53" t="s">
-        <v>313</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="G53" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="H53" t="s">
         <v>25</v>
       </c>
       <c r="M53" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>321</v>
+        <v>385</v>
+      </c>
+      <c r="E54" s="6">
+        <v>360</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s">
-        <v>25</v>
+        <v>178</v>
+      </c>
+      <c r="L54" t="s">
+        <v>267</v>
       </c>
       <c r="M54" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
+        <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" t="s">
         <v>265</v>
-      </c>
-      <c r="B55" t="s">
-        <v>266</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E55" s="6">
-        <v>360</v>
+        <v>210</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G55" t="s">
         <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M55" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
+        <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E56" s="6">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="G56" t="s">
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M56" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
+        <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E57" s="6">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G57" t="s">
         <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M57" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
+        <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="6">
-        <v>270</v>
+        <v>385</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>178</v>
+        <v>324</v>
       </c>
       <c r="G58" t="s">
         <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>179</v>
+        <v>60</v>
+      </c>
+      <c r="J58" t="s">
+        <v>53</v>
       </c>
       <c r="L58" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="M58" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>279</v>
+        <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
+      </c>
+      <c r="N58" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" t="s">
         <v>323</v>
-      </c>
-      <c r="B59" t="s">
-        <v>324</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G59" t="s">
         <v>24</v>
       </c>
       <c r="H59" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" t="s">
         <v>61</v>
       </c>
-      <c r="J59" t="s">
-        <v>54</v>
-      </c>
-      <c r="L59" t="s">
-        <v>62</v>
-      </c>
       <c r="M59" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
+        <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
       </c>
       <c r="N59" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>328</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="E60" s="6">
+        <v>17250</v>
+      </c>
+      <c r="F60" s="1"/>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
-      </c>
-      <c r="J60" t="s">
-        <v>54</v>
-      </c>
-      <c r="L60" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="M60" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
-      </c>
-      <c r="N60" t="s">
-        <v>329</v>
+        <v>/dronetable/images/Hylio-AG-210-US.jpg</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E61" s="6">
-        <v>17250</v>
+        <v>21560</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
         <v>25</v>
       </c>
       <c r="M61" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-210-US.jpg</v>
+        <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E62" s="6">
-        <v>21560</v>
+        <v>30520</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
         <v>25</v>
       </c>
       <c r="M62" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
+        <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E63" s="6">
-        <v>30520</v>
+        <v>55500</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
         <v>25</v>
       </c>
       <c r="M63" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
+        <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" s="6">
-        <v>55500</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>385</v>
+      </c>
+      <c r="E64" s="7">
+        <v>28000</v>
+      </c>
+      <c r="F64" s="1">
+        <v>48.5</v>
+      </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="J64" t="s">
+        <v>53</v>
       </c>
       <c r="M64" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>49</v>
+        <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="7">
-        <v>28000</v>
+        <v>385</v>
+      </c>
+      <c r="E65" s="6">
+        <v>29000</v>
       </c>
       <c r="F65" s="1">
         <v>48.5</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="I65" t="s">
+        <v>381</v>
       </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M65" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>90</v>
+        <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" t="s">
         <v>87</v>
-      </c>
-      <c r="B66" t="s">
-        <v>88</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="6">
-        <v>29000</v>
-      </c>
-      <c r="F66" s="1">
-        <v>48.5</v>
+        <v>385</v>
+      </c>
+      <c r="E66" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="H66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I66" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M66" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>90</v>
+        <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>158</v>
+        <v>385</v>
+      </c>
+      <c r="E67" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="G67" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="I67" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M67" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>160</v>
+        <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
+        <v>385</v>
+      </c>
+      <c r="E68" s="6">
+        <v>56000</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H68" t="s">
-        <v>126</v>
-      </c>
-      <c r="I68" t="s">
-        <v>385</v>
-      </c>
-      <c r="J68" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M68" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>127</v>
+        <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
+      </c>
+      <c r="N68" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E69" s="6">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>44</v>
+        <v>67</v>
+      </c>
+      <c r="J69" t="s">
+        <v>53</v>
       </c>
       <c r="M69" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
-      </c>
-      <c r="N69" t="s">
-        <v>45</v>
+        <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" t="s">
         <v>64</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>65</v>
       </c>
-      <c r="C70" t="s">
-        <v>66</v>
-      </c>
       <c r="D70" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="6">
-        <v>40000</v>
-      </c>
-      <c r="F70" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H70" t="s">
         <v>67</v>
       </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
-      <c r="H70" t="s">
-        <v>68</v>
-      </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M70" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>69</v>
+        <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
+      </c>
+      <c r="N70" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>331</v>
+        <v>385</v>
+      </c>
+      <c r="E71" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="G71" t="s">
-        <v>332</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J71" t="s">
-        <v>54</v>
+        <v>178</v>
+      </c>
+      <c r="L71" t="s">
+        <v>179</v>
       </c>
       <c r="M71" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
-      </c>
-      <c r="N71" t="s">
-        <v>333</v>
+        <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E72" s="6">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G72" t="s">
+        <v>59</v>
+      </c>
+      <c r="H72" t="s">
         <v>178</v>
       </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
+        <v>381</v>
+      </c>
+      <c r="J72" t="s">
+        <v>53</v>
+      </c>
+      <c r="L72" t="s">
         <v>179</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
+      </c>
+      <c r="N72" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="M72" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" t="s">
         <v>176</v>
-      </c>
-      <c r="B73" t="s">
-        <v>177</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E73" s="6">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" t="s">
+        <v>59</v>
+      </c>
+      <c r="H73" t="s">
         <v>178</v>
       </c>
-      <c r="G73" t="s">
-        <v>60</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="L73" t="s">
         <v>179</v>
       </c>
-      <c r="I73" t="s">
-        <v>385</v>
-      </c>
-      <c r="J73" t="s">
-        <v>54</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="M73" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
+      </c>
+      <c r="N73" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="M73" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="6">
-        <v>7000</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>178</v>
+        <v>385</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="G74" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" t="s">
-        <v>179</v>
-      </c>
-      <c r="L74" t="s">
-        <v>180</v>
+        <v>336</v>
+      </c>
+      <c r="I74" t="s">
+        <v>381</v>
+      </c>
+      <c r="J74" t="s">
+        <v>53</v>
       </c>
       <c r="M74" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
+        <v>/dronetable/images/PDW-C100-US.jpg</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" t="s">
+        <v>385</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="G75" t="s">
-        <v>337</v>
-      </c>
-      <c r="I75" t="s">
-        <v>385</v>
-      </c>
-      <c r="J75" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="H75" t="s">
+        <v>341</v>
       </c>
       <c r="M75" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PDW-C100-US.jpg</v>
+        <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" t="s">
         <v>339</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>340</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>385</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G76" t="s">
+        <v>344</v>
+      </c>
+      <c r="H76" t="s">
         <v>341</v>
       </c>
-      <c r="D76" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G76" t="s">
-        <v>60</v>
-      </c>
-      <c r="H76" t="s">
-        <v>342</v>
-      </c>
       <c r="M76" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
+        <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B77" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77" t="s">
         <v>340</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>385</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G77" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" t="s">
         <v>341</v>
       </c>
-      <c r="D77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G77" t="s">
-        <v>345</v>
-      </c>
-      <c r="H77" t="s">
-        <v>342</v>
-      </c>
       <c r="M77" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>346</v>
+        <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>347</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
-        <v>340</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>341</v>
+        <v>65</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>348</v>
+        <v>15</v>
+      </c>
+      <c r="E78" s="7">
+        <v>19300</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="G78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H78" t="s">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="M78" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
+        <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>349</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" s="7">
-        <v>19300</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>130</v>
+        <v>385</v>
+      </c>
+      <c r="E79" s="6">
+        <v>330</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="G79" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="M79" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>131</v>
+        <v>/dronetable/images/Ruko-F11-China.jpg</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E80" s="6">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G80" t="s">
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M80" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Ruko-F11-China.jpg</v>
+        <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E81" s="6">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="G81" t="s">
         <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="L81" t="s">
+        <v>267</v>
       </c>
       <c r="M81" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
+        <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E82" s="6">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G82" t="s">
         <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M82" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
+        <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C83" t="s">
         <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E83" s="6">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G83" t="s">
         <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M83" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
+        <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>287</v>
+      </c>
+      <c r="B84" t="s">
         <v>270</v>
-      </c>
-      <c r="B84" t="s">
-        <v>271</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="6">
-        <v>360</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>251</v>
+        <v>385</v>
+      </c>
+      <c r="E84" s="7">
+        <v>230</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="G84" t="s">
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M84" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
-      </c>
-      <c r="N84" s="4" t="s">
-        <v>272</v>
+        <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
+      </c>
+      <c r="N84" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E85" s="7">
         <v>230</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G85" t="s">
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M85" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
-      </c>
-      <c r="N85" t="s">
-        <v>286</v>
+        <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B86" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" s="7">
-        <v>230</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>285</v>
+        <v>385</v>
+      </c>
+      <c r="E86" s="6">
+        <v>260</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="G86" t="s">
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M86" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
-      </c>
-      <c r="N86" s="8" t="s">
-        <v>286</v>
+        <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E87" s="6">
-        <v>260</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>267</v>
+        <v>999</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1.7</v>
       </c>
       <c r="G87" t="s">
         <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="L87" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="M87" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
+        <v>/dronetable/images/Skydio-2+-US.jpg</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" s="6">
-        <v>999</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1.7</v>
+        <v>385</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="G88" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H88" t="s">
-        <v>44</v>
-      </c>
-      <c r="L88" t="s">
-        <v>253</v>
+        <v>25</v>
+      </c>
+      <c r="I88" t="s">
+        <v>381</v>
       </c>
       <c r="M88" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-2+-US.jpg</v>
+        <v>/dronetable/images/Skydio-X10D-US.jpg</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>375</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>294</v>
+        <v>385</v>
+      </c>
+      <c r="E89" s="6">
+        <v>18000</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>376</v>
+        <v>148</v>
       </c>
       <c r="G89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H89" t="s">
         <v>25</v>
       </c>
       <c r="I89" t="s">
-        <v>385</v>
+        <v>381</v>
+      </c>
+      <c r="J89" t="s">
+        <v>53</v>
       </c>
       <c r="M89" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X10D-US.jpg</v>
+        <v>/dronetable/images/Skydio-X10-US.jpg</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>377</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>367</v>
+      </c>
+      <c r="B90" t="s">
         <v>147</v>
-      </c>
-      <c r="B90" t="s">
-        <v>148</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" s="6">
-        <v>18000</v>
+        <v>385</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>149</v>
+        <v>368</v>
       </c>
       <c r="G90" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H90" t="s">
         <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>385</v>
-      </c>
-      <c r="J90" t="s">
-        <v>54</v>
+        <v>381</v>
+      </c>
+      <c r="L90" t="s">
+        <v>369</v>
       </c>
       <c r="M90" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X10-US.jpg</v>
+        <v>/dronetable/images/Skydio-X2D-US.jpg</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>150</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>371</v>
+        <v>170</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
+      </c>
+      <c r="E91" s="6">
+        <v>14999</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1.7</v>
       </c>
       <c r="G91" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H91" t="s">
         <v>25</v>
       </c>
       <c r="I91" t="s">
-        <v>385</v>
-      </c>
-      <c r="L91" t="s">
-        <v>373</v>
+        <v>381</v>
+      </c>
+      <c r="J91" t="s">
+        <v>53</v>
       </c>
       <c r="M91" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X2D-US.jpg</v>
+        <v>/dronetable/images/Skydio-X2E-US.jpg</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>374</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="D92" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" s="6">
-        <v>14999</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1.7</v>
+        <v>15</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="G92" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I92" t="s">
-        <v>385</v>
-      </c>
-      <c r="J92" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M92" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X2E-US.jpg</v>
-      </c>
-      <c r="N92" s="4" t="s">
-        <v>172</v>
+        <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
+      </c>
+      <c r="N92" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>350</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>351</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>294</v>
+        <v>385</v>
+      </c>
+      <c r="E93" s="6">
+        <v>46800</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H93" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="J93" t="s">
+        <v>53</v>
+      </c>
+      <c r="L93" t="s">
+        <v>54</v>
       </c>
       <c r="M93" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
-      </c>
-      <c r="N93" t="s">
-        <v>353</v>
+        <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E94" s="6">
-        <v>46800</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>52</v>
+        <v>9000</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>53</v>
-      </c>
-      <c r="J94" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="L94" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="M94" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>56</v>
+        <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
+      </c>
+      <c r="N94" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>41</v>
-      </c>
-      <c r="E95" s="6">
-        <v>9000</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>158</v>
+        <v>385</v>
+      </c>
+      <c r="E95" s="7">
+        <v>14000</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="G95" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H95" t="s">
-        <v>179</v>
+        <v>25</v>
+      </c>
+      <c r="I95" t="s">
+        <v>381</v>
+      </c>
+      <c r="J95" t="s">
+        <v>53</v>
       </c>
       <c r="L95" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="M95" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
+        <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
       </c>
       <c r="N95" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>375</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>41</v>
-      </c>
-      <c r="E96" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>184</v>
+        <v>385</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="G96" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s">
         <v>25</v>
       </c>
       <c r="I96" t="s">
-        <v>385</v>
-      </c>
-      <c r="J96" t="s">
-        <v>54</v>
-      </c>
-      <c r="L96" t="s">
-        <v>185</v>
+        <v>381</v>
       </c>
       <c r="M96" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
-      </c>
-      <c r="N96" t="s">
-        <v>186</v>
+        <v>/dronetable/images/Teal-Teal2-US.jpg</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
-        <v>379</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>294</v>
+        <v>385</v>
+      </c>
+      <c r="E97" s="6">
+        <v>9695</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="G97" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H97" t="s">
         <v>25</v>
       </c>
-      <c r="I97" t="s">
-        <v>385</v>
-      </c>
       <c r="M97" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teal-Teal2-US.jpg</v>
+        <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>381</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E98" s="6">
-        <v>9695</v>
+        <v>7700</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G98" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98" t="s">
         <v>60</v>
       </c>
-      <c r="H98" t="s">
-        <v>25</v>
+      <c r="I98" t="s">
+        <v>381</v>
+      </c>
+      <c r="J98" t="s">
+        <v>53</v>
+      </c>
+      <c r="L98" t="s">
+        <v>212</v>
       </c>
       <c r="M98" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>202</v>
+        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
+      </c>
+      <c r="N98" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="E99" s="6">
-        <v>7700</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>212</v>
+        <v>18750</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="G99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H99" t="s">
-        <v>61</v>
-      </c>
-      <c r="I99" t="s">
-        <v>385</v>
-      </c>
-      <c r="J99" t="s">
-        <v>54</v>
-      </c>
-      <c r="L99" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="M99" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
-      </c>
-      <c r="N99" t="s">
-        <v>214</v>
+        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>385</v>
       </c>
       <c r="E100" s="6">
-        <v>18750</v>
+        <v>26050</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G100" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H100" t="s">
         <v>25</v>
       </c>
       <c r="M100" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
+        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" s="6">
-        <v>26050</v>
+        <v>385</v>
+      </c>
+      <c r="E101" s="7">
+        <v>29999</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H101" t="s">
         <v>25</v>
       </c>
+      <c r="J101" t="s">
+        <v>53</v>
+      </c>
       <c r="M101" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
-      </c>
-      <c r="N101" s="4" t="s">
-        <v>101</v>
+        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
+      </c>
+      <c r="N101" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>41</v>
-      </c>
-      <c r="E102" s="7">
-        <v>29999</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="E102" s="6">
+        <v>22000</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="G102" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H102" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="I102" t="s">
+        <v>381</v>
       </c>
       <c r="J102" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="L102" t="s">
+        <v>110</v>
       </c>
       <c r="M102" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
+        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
       </c>
       <c r="N102" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="6">
-        <v>22000</v>
+        <v>35085</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H103" t="s">
-        <v>61</v>
-      </c>
-      <c r="I103" t="s">
-        <v>385</v>
-      </c>
-      <c r="J103" t="s">
-        <v>54</v>
-      </c>
-      <c r="L103" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="M103" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
+        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
       </c>
       <c r="N103" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
         <v>75</v>
-      </c>
-      <c r="B104" t="s">
-        <v>76</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -5423,57 +5415,28 @@
         <v>15</v>
       </c>
       <c r="E104" s="6">
-        <v>35085</v>
+        <v>29300</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G104" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M104" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
+        <v>/dronetable/images/ZephyrSystems-OKO-250-US.jpg</v>
       </c>
       <c r="N104" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>84</v>
-      </c>
-      <c r="B105" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="6">
-        <v>29300</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H105" t="s">
-        <v>73</v>
-      </c>
-      <c r="M105" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/ZephyrSystems-OKO-250-US.jpg</v>
-      </c>
-      <c r="N105" t="s">
-        <v>86</v>
-      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E106" s="5"/>
@@ -5510,10 +5473,6 @@
     <row r="114" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E114" s="5"/>
       <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="5"/>
-      <c r="F115" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5522,62 +5481,62 @@
     <hyperlink ref="N9" r:id="rId2" xr:uid="{B8E29BEF-5DC3-415A-9A42-321C52A9698E}"/>
     <hyperlink ref="N14" r:id="rId3" xr:uid="{3EB35BBA-2E6E-43BC-9F2B-BA46D8129FCE}"/>
     <hyperlink ref="N32" r:id="rId4" xr:uid="{113E3222-47AA-4EC1-B25F-6603ADCCF7DC}"/>
-    <hyperlink ref="N69" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
-    <hyperlink ref="N66" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
-    <hyperlink ref="N72" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
-    <hyperlink ref="N76" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
-    <hyperlink ref="N88" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
-    <hyperlink ref="N95" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
-    <hyperlink ref="N79" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
-    <hyperlink ref="N100" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
-    <hyperlink ref="N102" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
-    <hyperlink ref="N104" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
-    <hyperlink ref="N105" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
-    <hyperlink ref="N103" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
-    <hyperlink ref="N70" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
-    <hyperlink ref="N71" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
+    <hyperlink ref="N68" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
+    <hyperlink ref="N65" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
+    <hyperlink ref="N71" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
+    <hyperlink ref="N75" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
+    <hyperlink ref="N87" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
+    <hyperlink ref="N94" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
+    <hyperlink ref="N78" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
+    <hyperlink ref="N99" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
+    <hyperlink ref="N101" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
+    <hyperlink ref="N103" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
+    <hyperlink ref="N104" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
+    <hyperlink ref="N102" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
+    <hyperlink ref="N69" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
+    <hyperlink ref="N70" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
     <hyperlink ref="N2" r:id="rId19" xr:uid="{DC762510-5411-4346-ADC1-60C1710AEFF4}"/>
-    <hyperlink ref="N93" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
-    <hyperlink ref="N99" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
-    <hyperlink ref="N59" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
-    <hyperlink ref="N60" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
-    <hyperlink ref="N46" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
-    <hyperlink ref="N96" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
-    <hyperlink ref="N50" r:id="rId26" xr:uid="{64F6E8C6-878E-41CF-9C1C-AEFA73C8F7FC}"/>
-    <hyperlink ref="N49" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
-    <hyperlink ref="N47" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
-    <hyperlink ref="N48" r:id="rId29" xr:uid="{165AB571-AD17-47C5-A52E-3ECFE175E45D}"/>
+    <hyperlink ref="N92" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
+    <hyperlink ref="N98" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
+    <hyperlink ref="N58" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
+    <hyperlink ref="N59" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
+    <hyperlink ref="N45" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
+    <hyperlink ref="N95" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
+    <hyperlink ref="N49" r:id="rId26" xr:uid="{64F6E8C6-878E-41CF-9C1C-AEFA73C8F7FC}"/>
+    <hyperlink ref="N48" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
+    <hyperlink ref="N46" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
+    <hyperlink ref="N47" r:id="rId29" xr:uid="{165AB571-AD17-47C5-A52E-3ECFE175E45D}"/>
     <hyperlink ref="N22" r:id="rId30" xr:uid="{7930AE8A-8903-499F-BF8A-0A53F8878139}"/>
     <hyperlink ref="N23" r:id="rId31" xr:uid="{C27966FD-A67B-4E75-8B4C-4104B1780811}"/>
     <hyperlink ref="N19" r:id="rId32" xr:uid="{4E79DE0E-747D-48A0-A3DF-A317F525AC99}"/>
-    <hyperlink ref="N80" r:id="rId33" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
-    <hyperlink ref="N81" r:id="rId34" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
+    <hyperlink ref="N79" r:id="rId33" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
+    <hyperlink ref="N80" r:id="rId34" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
     <hyperlink ref="N20" r:id="rId35" xr:uid="{ACA47773-CA7B-4A93-B655-DCCB7CFFB97E}"/>
     <hyperlink ref="N3" r:id="rId36" xr:uid="{484AB161-02F7-4842-900B-06E05CBA3079}"/>
     <hyperlink ref="N8" r:id="rId37" xr:uid="{CB0C1422-2871-46D4-805F-64E91A0FCF19}"/>
     <hyperlink ref="N44" r:id="rId38" xr:uid="{333F58F8-A830-48A8-AF31-563FA3C3331C}"/>
     <hyperlink ref="N10" r:id="rId39" xr:uid="{20BEA2F4-F9E7-465C-8582-C32BB114A958}"/>
-    <hyperlink ref="N94" r:id="rId40" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
+    <hyperlink ref="N93" r:id="rId40" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
     <hyperlink ref="N21" r:id="rId41" location="uas" xr:uid="{2C129CB9-17CF-4162-855D-4744CE573C87}"/>
-    <hyperlink ref="N75" r:id="rId42" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
-    <hyperlink ref="N90" r:id="rId43" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
+    <hyperlink ref="N74" r:id="rId42" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
+    <hyperlink ref="N89" r:id="rId43" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
     <hyperlink ref="N18" r:id="rId44" xr:uid="{EC583CD3-7C3A-4D09-B7ED-0EC8AAAA3343}"/>
-    <hyperlink ref="N64" r:id="rId45" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
-    <hyperlink ref="N63" r:id="rId46" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
-    <hyperlink ref="N65" r:id="rId47" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
+    <hyperlink ref="N63" r:id="rId45" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
+    <hyperlink ref="N62" r:id="rId46" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
+    <hyperlink ref="N64" r:id="rId47" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
     <hyperlink ref="N26" r:id="rId48" xr:uid="{A0523012-6C05-445A-974A-B3A49ABDACBD}"/>
-    <hyperlink ref="N101" r:id="rId49" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
-    <hyperlink ref="N62" r:id="rId50" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
+    <hyperlink ref="N100" r:id="rId49" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
+    <hyperlink ref="N61" r:id="rId50" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
     <hyperlink ref="N24" r:id="rId51" xr:uid="{422B5330-A905-4AB0-B139-84D956CD2FD4}"/>
     <hyperlink ref="N25" r:id="rId52" xr:uid="{B6B6B82A-AE51-4B42-9719-E5EA3598D511}"/>
-    <hyperlink ref="N68" r:id="rId53" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
-    <hyperlink ref="N61" r:id="rId54" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
+    <hyperlink ref="N67" r:id="rId53" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
+    <hyperlink ref="N60" r:id="rId54" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
     <hyperlink ref="N29" r:id="rId55" xr:uid="{B2EC1F0D-EC36-406C-AAAE-962F29C1C690}"/>
     <hyperlink ref="N40" r:id="rId56" xr:uid="{5851B709-EE11-4040-A6C7-792A08E645BB}"/>
-    <hyperlink ref="N92" r:id="rId57" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
-    <hyperlink ref="N73" r:id="rId58" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
-    <hyperlink ref="N98" r:id="rId59" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
-    <hyperlink ref="N74" r:id="rId60" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
+    <hyperlink ref="N91" r:id="rId57" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
+    <hyperlink ref="N72" r:id="rId58" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
+    <hyperlink ref="N97" r:id="rId59" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
+    <hyperlink ref="N73" r:id="rId60" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
     <hyperlink ref="N13" r:id="rId61" xr:uid="{47D34CCC-47E1-4B8F-9277-23B177A2C527}"/>
     <hyperlink ref="N37" r:id="rId62" xr:uid="{94228163-F868-4206-9105-EA09E5E25EBE}"/>
     <hyperlink ref="N12" r:id="rId63" xr:uid="{DBFCF21E-1457-4EF8-B2EA-7F6C3FA78E26}"/>
@@ -5588,40 +5547,39 @@
     <hyperlink ref="N34" r:id="rId68" xr:uid="{A825FDFA-08DE-4E45-B2DE-9F7470045A4A}"/>
     <hyperlink ref="N28" r:id="rId69" xr:uid="{87B2FCDE-C75E-49B7-9AA2-A26A9080A388}"/>
     <hyperlink ref="N38" r:id="rId70" xr:uid="{02B24B87-6439-4455-9EB9-975DF50A9832}"/>
-    <hyperlink ref="N55" r:id="rId71" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
-    <hyperlink ref="N84" r:id="rId72" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
-    <hyperlink ref="N83" r:id="rId73" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
-    <hyperlink ref="N58" r:id="rId74" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
-    <hyperlink ref="N87" r:id="rId75" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
-    <hyperlink ref="N57" r:id="rId76" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
-    <hyperlink ref="N82" r:id="rId77" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
-    <hyperlink ref="N56" r:id="rId78" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
+    <hyperlink ref="N54" r:id="rId71" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
+    <hyperlink ref="N83" r:id="rId72" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
+    <hyperlink ref="N82" r:id="rId73" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
+    <hyperlink ref="N57" r:id="rId74" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
+    <hyperlink ref="N86" r:id="rId75" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
+    <hyperlink ref="N56" r:id="rId76" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
+    <hyperlink ref="N81" r:id="rId77" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
+    <hyperlink ref="N55" r:id="rId78" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
     <hyperlink ref="N41" r:id="rId79" xr:uid="{295CA37D-1AD1-4E9E-8924-8E62F6AC71AC}"/>
-    <hyperlink ref="N53" r:id="rId80" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
-    <hyperlink ref="N52" r:id="rId81" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
-    <hyperlink ref="N54" r:id="rId82" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
-    <hyperlink ref="N77" r:id="rId83" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
+    <hyperlink ref="N52" r:id="rId80" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
+    <hyperlink ref="N51" r:id="rId81" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
+    <hyperlink ref="N53" r:id="rId82" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
+    <hyperlink ref="N76" r:id="rId83" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
     <hyperlink ref="N4" r:id="rId84" xr:uid="{B8EEF89A-4F04-454F-A259-4DFF0690D481}"/>
     <hyperlink ref="N6" r:id="rId85" xr:uid="{CE7BCF13-6582-4B09-9229-8A802DDED0E6}"/>
     <hyperlink ref="N7" r:id="rId86" xr:uid="{26F63D41-5725-4371-9C40-4A585DEA85B9}"/>
-    <hyperlink ref="N45" r:id="rId87" xr:uid="{E52379EB-1E5E-4657-99E8-930A49D011CB}"/>
-    <hyperlink ref="N89" r:id="rId88" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
-    <hyperlink ref="N15" r:id="rId89" xr:uid="{EB24426B-29A4-4CF8-B587-4B40E8A5DAB6}"/>
-    <hyperlink ref="N67" r:id="rId90" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
-    <hyperlink ref="N39" r:id="rId91" xr:uid="{A01C861A-5B15-4690-8AD2-2B7772918BDE}"/>
-    <hyperlink ref="N97" r:id="rId92" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
-    <hyperlink ref="N91" r:id="rId93" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
-    <hyperlink ref="N42" r:id="rId94" xr:uid="{E5279318-3BFF-4592-9619-A1D3C16C3193}"/>
-    <hyperlink ref="N43" r:id="rId95" xr:uid="{4FF7E709-8E9D-4104-804F-DA7C4F3B79F5}"/>
-    <hyperlink ref="N78" r:id="rId96" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
-    <hyperlink ref="N86" r:id="rId97" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
-    <hyperlink ref="N31" r:id="rId98" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
-    <hyperlink ref="N30" r:id="rId99" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
+    <hyperlink ref="N88" r:id="rId87" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
+    <hyperlink ref="N15" r:id="rId88" xr:uid="{EB24426B-29A4-4CF8-B587-4B40E8A5DAB6}"/>
+    <hyperlink ref="N66" r:id="rId89" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
+    <hyperlink ref="N39" r:id="rId90" xr:uid="{A01C861A-5B15-4690-8AD2-2B7772918BDE}"/>
+    <hyperlink ref="N96" r:id="rId91" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
+    <hyperlink ref="N90" r:id="rId92" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
+    <hyperlink ref="N42" r:id="rId93" xr:uid="{E5279318-3BFF-4592-9619-A1D3C16C3193}"/>
+    <hyperlink ref="N43" r:id="rId94" xr:uid="{4FF7E709-8E9D-4104-804F-DA7C4F3B79F5}"/>
+    <hyperlink ref="N77" r:id="rId95" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
+    <hyperlink ref="N85" r:id="rId96" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
+    <hyperlink ref="N31" r:id="rId97" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
+    <hyperlink ref="N30" r:id="rId98" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId100"/>
+  <pageSetup orientation="portrait" r:id="rId99"/>
   <tableParts count="1">
-    <tablePart r:id="rId101"/>
+    <tablePart r:id="rId100"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\dronetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UAS Safety XPS\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8715230A-E87E-4BDF-B55F-14F519F7EC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51689742-9865-4932-881F-E4F9B768CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
   <sheets>
     <sheet name="Drones" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="388">
   <si>
     <t>Model</t>
   </si>
@@ -1197,6 +1195,9 @@
   </si>
   <si>
     <t>Single-Rotor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1238,12 +1239,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1260,7 +1267,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1294,6 +1301,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1370,9 +1379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1410,7 +1419,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1516,7 +1525,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1658,7 +1667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1666,11 +1675,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,7 +3208,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="13" t="s">
         <v>363</v>
       </c>
       <c r="B43" t="s">
@@ -3277,7 +3286,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B45" t="s">
@@ -3308,12 +3317,12 @@
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
@@ -3420,7 +3429,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -3452,12 +3461,12 @@
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Freefly-Astro-US.jpg</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>314</v>
       </c>
       <c r="B50" t="s">
@@ -3494,11 +3503,11 @@
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -3540,8 +3549,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B52" t="s">
@@ -3573,7 +3582,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>319</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>264</v>
       </c>
@@ -3642,8 +3651,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>288</v>
       </c>
       <c r="B55" t="s">
@@ -3678,7 +3687,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>281</v>
       </c>
@@ -3714,8 +3723,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>277</v>
       </c>
       <c r="B57" t="s">
@@ -3750,7 +3759,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>322</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>326</v>
       </c>
@@ -3828,7 +3837,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -3859,7 +3868,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -3889,8 +3898,11 @@
       <c r="N61" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -3921,7 +3933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -3952,7 +3964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -5575,11 +5587,12 @@
     <hyperlink ref="N85" r:id="rId96" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
     <hyperlink ref="N31" r:id="rId97" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
     <hyperlink ref="N30" r:id="rId98" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
+    <hyperlink ref="N50" r:id="rId99" xr:uid="{7F760014-2639-4875-9DFD-DA03049D33B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId99"/>
+  <pageSetup orientation="portrait" r:id="rId100"/>
   <tableParts count="1">
-    <tablePart r:id="rId100"/>
+    <tablePart r:id="rId101"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UAS Safety XPS\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51689742-9865-4932-881F-E4F9B768CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB2544-D428-4F0B-A60F-5940F832B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
+    <workbookView xWindow="4140" yWindow="1260" windowWidth="23370" windowHeight="13845" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
   <sheets>
     <sheet name="Drones" sheetId="1" r:id="rId1"/>
@@ -1267,7 +1267,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1303,6 +1303,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1679,7 +1687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S61" sqref="S61"/>
+      <selection pane="topRight" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,7 +3216,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>363</v>
       </c>
       <c r="B43" t="s">
@@ -3286,7 +3294,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B45" t="s">
@@ -3430,7 +3438,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B49" t="s">
@@ -3508,7 +3516,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="14" t="s">
         <v>316</v>
       </c>
       <c r="B51" t="s">
@@ -3583,7 +3591,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B53" t="s">
@@ -3724,7 +3732,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>277</v>
       </c>
       <c r="B57" t="s">
@@ -3838,7 +3846,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B60" t="s">
@@ -3869,28 +3877,31 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D61" t="s">
-        <v>385</v>
-      </c>
-      <c r="E61" s="6">
+      <c r="D61" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E61" s="17">
         <v>21560</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" t="s">
+      <c r="F61" s="18"/>
+      <c r="G61" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="16" t="s">
         <v>25</v>
       </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
       <c r="M61" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
@@ -3903,7 +3914,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B62" t="s">
@@ -4040,7 +4051,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="13" t="s">
         <v>156</v>
       </c>
       <c r="B66" t="s">
@@ -4439,7 +4450,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="13" t="s">
         <v>346</v>
       </c>
       <c r="B77" t="s">
@@ -4505,7 +4516,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="14" t="s">
         <v>274</v>
       </c>
       <c r="B79" t="s">
@@ -5004,7 +5015,7 @@
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
       </c>
-      <c r="N92" t="s">
+      <c r="N92" s="4" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5079,7 +5090,7 @@
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N94" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5303,7 +5314,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B101" t="s">
@@ -5381,7 +5392,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B103" t="s">
@@ -5409,12 +5420,12 @@
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
       </c>
-      <c r="N103" t="s">
+      <c r="N103" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B104" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UAS Safety XPS\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB2544-D428-4F0B-A60F-5940F832B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B1A256-E508-4C77-A2C2-0D067845507F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1260" windowWidth="23370" windowHeight="13845" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
+    <workbookView xWindow="4800" yWindow="3630" windowWidth="18900" windowHeight="10965" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
   <sheets>
     <sheet name="Drones" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="392">
   <si>
     <t>Model</t>
   </si>
@@ -1198,6 +1198,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeroo Pro </t>
+  </si>
+  <si>
+    <t>Aeroo</t>
+  </si>
+  <si>
+    <t>https://us.aeroodrones.com/products/aeroo-pro?utm_campaign=22103890057&amp;utm_source=x_c&amp;utm_medium=US-CA-PMax&amp;utm_content=&amp;utm_term=_&amp;adgroupid=&amp;gad_source=1&amp;gclid=EAIaIQobChMIv4uR_P7DiwMVSc_CBB17-DDWEAAYASAAEgKOlPD_BwE#specs</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1279,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1311,6 +1323,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1359,8 +1372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N104" totalsRowShown="0">
-  <autoFilter ref="A1:N104" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N105" totalsRowShown="0">
+  <autoFilter ref="A1:N105" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N104">
     <sortCondition ref="M1:M104"/>
   </sortState>
@@ -1685,9 +1698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
   <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M91" sqref="M91"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,8 +5471,29 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E105" s="5"/>
+      <c r="A105" t="s">
+        <v>388</v>
+      </c>
+      <c r="B105" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105" t="s">
+        <v>391</v>
+      </c>
+      <c r="D105" t="s">
+        <v>385</v>
+      </c>
+      <c r="E105" s="5">
+        <v>899</v>
+      </c>
       <c r="F105" s="2"/>
+      <c r="M105" s="19" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Aeroo-AerooPro-Australia.jpg</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E106" s="5"/>
@@ -5599,11 +5633,12 @@
     <hyperlink ref="N31" r:id="rId97" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
     <hyperlink ref="N30" r:id="rId98" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
     <hyperlink ref="N50" r:id="rId99" xr:uid="{7F760014-2639-4875-9DFD-DA03049D33B6}"/>
+    <hyperlink ref="N105" r:id="rId100" location="specs" xr:uid="{B7D20A46-20A1-4B66-B3D9-9ED6D0079419}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId100"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
   <tableParts count="1">
-    <tablePart r:id="rId101"/>
+    <tablePart r:id="rId102"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UAS Safety XPS\Documents\GitHub\dronetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B1A256-E508-4C77-A2C2-0D067845507F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2039957E-7CF8-45D6-A179-85FDE56B6890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3630" windowWidth="18900" windowHeight="10965" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
+    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
   <sheets>
     <sheet name="Drones" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="401">
   <si>
     <t>Model</t>
   </si>
@@ -243,9 +243,6 @@
     <t>https://www.microdrones.com/en/integrated-systems/easyone/mdlidar1000-aas/</t>
   </si>
   <si>
-    <t>Alta-X (DIU Blue)</t>
-  </si>
-  <si>
     <t>Freefly</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Laptop + Controller</t>
   </si>
   <si>
-    <t>https://store.freeflysystems.com/collections/alta-x/products/alta-x-blue</t>
-  </si>
-  <si>
     <t>ARK-350</t>
   </si>
   <si>
@@ -306,9 +300,6 @@
     <t>https://www.inspiredflight.com/if1200.php</t>
   </si>
   <si>
-    <t>Alta-X (Blue Cube)</t>
-  </si>
-  <si>
     <t>https://store.freeflysystems.com/products/alta-x-blue-cube</t>
   </si>
   <si>
@@ -1203,13 +1194,49 @@
     <t xml:space="preserve">Aeroo Pro </t>
   </si>
   <si>
-    <t>Aeroo</t>
-  </si>
-  <si>
-    <t>https://us.aeroodrones.com/products/aeroo-pro?utm_campaign=22103890057&amp;utm_source=x_c&amp;utm_medium=US-CA-PMax&amp;utm_content=&amp;utm_term=_&amp;adgroupid=&amp;gad_source=1&amp;gclid=EAIaIQobChMIv4uR_P7DiwMVSc_CBB17-DDWEAAYASAAEgKOlPD_BwE#specs</t>
-  </si>
-  <si>
     <t>Australia</t>
+  </si>
+  <si>
+    <t>Astro (Blue)</t>
+  </si>
+  <si>
+    <t>RGB/Thermal/Multispectral</t>
+  </si>
+  <si>
+    <t>54.9</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>HYL-150</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>https://www.hyl.io/ares</t>
+  </si>
+  <si>
+    <t>Alta-X (NDAA)</t>
+  </si>
+  <si>
+    <t>Aeroo Innovations Pty</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>RGB+Dropper</t>
+  </si>
+  <si>
+    <t>https://us.aeroodrones.com/</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1306,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1314,16 +1341,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1372,10 +1392,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N105" totalsRowShown="0">
-  <autoFilter ref="A1:N105" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N104">
-    <sortCondition ref="M1:M104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N106" totalsRowShown="0">
+  <autoFilter ref="A1:N106" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N106">
+    <sortCondition ref="B1:B106"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D437D100-220A-42E8-8A79-53DD0D82F2C1}" name="Model"/>
@@ -1400,9 +1420,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1440,7 +1460,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1546,7 +1566,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1688,7 +1708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1696,11 +1716,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:S115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H105" sqref="H105"/>
+      <selection pane="topRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1731,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="11" width="9.42578125" customWidth="1"/>
@@ -1752,13 +1772,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -1766,493 +1786,493 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E2" s="6">
         <v>18000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Acecore-ZOE-Netherlands.jpg</v>
       </c>
       <c r="N2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E3" s="6">
         <v>22000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M3" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AeroSystemsWest-HeavyLiftMultirotor-US.jpg</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>386</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>293</v>
+        <v>382</v>
+      </c>
+      <c r="E4" s="5">
+        <v>899</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="G4" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>381</v>
-      </c>
-      <c r="L4" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="M4" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AgEagle-eBeeTAC-US.jpg</v>
+        <v>/dronetable/images/AerooInnovationsPty-AerooPro-Australia.jpg</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="6">
-        <v>13500</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.6</v>
+        <v>188</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="G5" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
-        <v>53</v>
+      <c r="I5" t="s">
+        <v>378</v>
       </c>
       <c r="L5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M5" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AgEagle-eBeeX-US.jpg</v>
-      </c>
-      <c r="N5" t="s">
-        <v>193</v>
+        <v>/dronetable/images/AgEagle-eBeeTAC-US.jpg</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>359</v>
+        <v>188</v>
+      </c>
+      <c r="E6" s="6">
+        <v>13500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.6</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>381</v>
+        <v>189</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>360</v>
+        <v>107</v>
       </c>
       <c r="M6" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Anduril-Ghost-US.jpg</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>361</v>
+        <v>/dronetable/images/AgEagle-eBeeX-US.jpg</v>
+      </c>
+      <c r="N6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>356</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M7" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Anduril-GhostX-US.jpg</v>
+        <v>/dronetable/images/Anduril-Ghost-US.jpg</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E8" s="6">
-        <v>18500</v>
+        <v>383</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>378</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>357</v>
       </c>
       <c r="M8" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Arcsky-X55-US.jpg</v>
+        <v>/dronetable/images/Anduril-GhostX-US.jpg</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>139</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="1">
-        <v>13.5</v>
+        <v>382</v>
+      </c>
+      <c r="E9" s="6">
+        <v>18500</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
         <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="M9" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AscentAerosystems-Spirit-US.jpg</v>
-      </c>
-      <c r="N9" t="s">
-        <v>294</v>
+        <v>/dronetable/images/Arcsky-X55-US.jpg</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3300</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>227</v>
+        <v>289</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13.5</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>378</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="M10" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-Tarot650-US.jpg</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>229</v>
+        <v>/dronetable/images/AscentAerosystems-Spirit-US.jpg</v>
+      </c>
+      <c r="N10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E11" s="6">
         <v>3300</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>232</v>
+      <c r="F11" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="L11" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M11" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-X4-US.jpg</v>
+        <v>/dronetable/images/AureliaAerospace-Tarot650-US.jpg</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E12" s="6">
-        <v>4900</v>
-      </c>
-      <c r="F12" s="1">
-        <v>25.9</v>
+        <v>3300</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
         <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M12" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-X6-US.jpg</v>
+        <v>/dronetable/images/AureliaAerospace-X4-US.jpg</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E13" s="6">
-        <v>6399</v>
+        <v>4900</v>
       </c>
       <c r="F13" s="1">
-        <v>37.4</v>
+        <v>25.9</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
         <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M13" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/AureliaAerospace-X8-US.jpg</v>
+        <v>/dronetable/images/AureliaAerospace-X6-US.jpg</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>382</v>
       </c>
       <c r="E14" s="6">
-        <v>90000</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>6399</v>
+      </c>
+      <c r="F14" s="1">
+        <v>37.4</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
+        <v>214</v>
       </c>
       <c r="M14" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-DragonfishLite-China.jpg</v>
-      </c>
-      <c r="N14" t="s">
-        <v>26</v>
+        <v>/dronetable/images/AureliaAerospace-X8-US.jpg</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -2267,7 +2287,7 @@
         <v>90000</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -2277,15 +2297,15 @@
       </c>
       <c r="M15" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-DragonfishPro-China.jpg</v>
-      </c>
-      <c r="N15" s="4" t="s">
+        <v>/dronetable/images/Autel-DragonfishLite-China.jpg</v>
+      </c>
+      <c r="N15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2300,25 +2320,25 @@
         <v>90000</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
       </c>
       <c r="M16" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-DragonfishStandard-China.jpg</v>
-      </c>
-      <c r="N16" t="s">
+        <v>/dronetable/images/Autel-DragonfishPro-China.jpg</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -2327,34 +2347,31 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>385</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>2500</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>90000</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
       </c>
-      <c r="L17" t="s">
-        <v>235</v>
-      </c>
       <c r="M17" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-EvoIIProv3-China.jpg</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>236</v>
+        <v>/dronetable/images/Autel-DragonfishStandard-China.jpg</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -2363,31 +2380,34 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E18" s="6">
-        <v>9000</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>207</v>
+        <v>2500</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
         <v>25</v>
       </c>
+      <c r="L18" t="s">
+        <v>232</v>
+      </c>
       <c r="M18" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-EVOMax4T-China.jpg</v>
+        <v>/dronetable/images/Autel-EvoIIProv3-China.jpg</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -2396,154 +2416,151 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E19" s="6">
-        <v>549</v>
+        <v>9000</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" t="s">
-        <v>383</v>
+        <v>25</v>
       </c>
       <c r="M19" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Autel-EvoNano-China.jpg</v>
+        <v>/dronetable/images/Autel-EVOMax4T-China.jpg</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>385</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>297</v>
+        <v>382</v>
+      </c>
+      <c r="E20" s="6">
+        <v>549</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" t="s">
-        <v>381</v>
-      </c>
-      <c r="J20" t="s">
-        <v>53</v>
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>380</v>
       </c>
       <c r="M20" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/BlueHalo-IntenseEyeV2-US.jpg</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>299</v>
+        <v>/dronetable/images/Autel-EvoNano-China.jpg</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H21" t="s">
         <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
       </c>
-      <c r="L21" t="s">
-        <v>61</v>
-      </c>
       <c r="M21" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/BlueHalo-IntenseEyeV3-US.jpg</v>
+        <v>/dronetable/images/BlueHalo-IntenseEyeV2-US.jpg</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="6">
-        <v>60000</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>382</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
+        <v>378</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="M22" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/CensysTechnologies-Sentaero5-US.jpg</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>37</v>
+        <v>/dronetable/images/BlueHalo-IntenseEyeV3-US.jpg</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -2552,109 +2569,112 @@
         <v>15</v>
       </c>
       <c r="E23" s="6">
-        <v>99495</v>
+        <v>60000</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
       </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
       <c r="M23" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Commaris-Seeker-US.jpg</v>
+        <v>/dronetable/images/CensysTechnologies-Sentaero5-US.jpg</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="6">
-        <v>20700</v>
+        <v>99495</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M24" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DeltaQuad-DeltaQuadPro-Netherlands.jpg</v>
+        <v>/dronetable/images/Commaris-Seeker-US.jpg</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>385</v>
+        <v>15</v>
       </c>
       <c r="E25" s="6">
-        <v>20000</v>
+        <v>20700</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="M25" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-AgrasT30-China.jpg</v>
+        <v>/dronetable/images/DeltaQuad-DeltaQuadPro-Netherlands.jpg</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E26" s="6">
-        <v>26519</v>
+        <v>20000</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
@@ -2664,135 +2684,132 @@
       </c>
       <c r="M26" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-AgrasT40-China.jpg</v>
+        <v>/dronetable/images/DJI-AgrasT30-China.jpg</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>385</v>
-      </c>
-      <c r="E27" s="7">
-        <v>999</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>250</v>
+        <v>382</v>
+      </c>
+      <c r="E27" s="6">
+        <v>26519</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="M27" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Air2s-China.jpg</v>
-      </c>
-      <c r="N27" t="s">
-        <v>241</v>
+        <v>/dronetable/images/DJI-AgrasT40-China.jpg</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>385</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1388</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>246</v>
+        <v>382</v>
+      </c>
+      <c r="E28" s="7">
+        <v>999</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>178</v>
-      </c>
-      <c r="L28" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="M28" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-AVATA-China.jpg</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>248</v>
+        <v>/dronetable/images/DJI-Air2s-China.jpg</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E29" s="6">
-        <v>16499</v>
+        <v>1388</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="M29" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Inspire3-China.jpg</v>
+        <v>/dronetable/images/DJI-AVATA-China.jpg</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>385</v>
-      </c>
-      <c r="E30" s="11">
-        <v>10715</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>153</v>
+        <v>382</v>
+      </c>
+      <c r="E30" s="6">
+        <v>16499</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G30" t="s">
         <v>24</v>
@@ -2800,209 +2817,209 @@
       <c r="H30" t="s">
         <v>25</v>
       </c>
+      <c r="L30" t="s">
+        <v>151</v>
+      </c>
       <c r="M30" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-M30Enterprise-China.jpg</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>195</v>
+        <v>/dronetable/images/DJI-Inspire3-China.jpg</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>385</v>
-      </c>
-      <c r="E31" s="7">
-        <v>12100</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>153</v>
+        <v>382</v>
+      </c>
+      <c r="E31" s="11">
+        <v>10715</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
         <v>25</v>
       </c>
       <c r="M31" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-M30Thermal-China.jpg</v>
+        <v>/dronetable/images/DJI-M30Enterprise-China.jpg</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>385</v>
-      </c>
-      <c r="E32" s="6">
-        <v>13700</v>
-      </c>
-      <c r="F32" s="1">
-        <v>19.8</v>
+        <v>382</v>
+      </c>
+      <c r="E32" s="7">
+        <v>12100</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="H32" t="s">
         <v>25</v>
       </c>
-      <c r="L32" t="s">
-        <v>187</v>
-      </c>
       <c r="M32" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Matrice300RTK-China.jpg</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>188</v>
+        <v>/dronetable/images/DJI-M30Thermal-China.jpg</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>385</v>
-      </c>
-      <c r="E33" s="7">
-        <v>2049</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>238</v>
+        <v>382</v>
+      </c>
+      <c r="E33" s="6">
+        <v>13700</v>
+      </c>
+      <c r="F33" s="1">
+        <v>19.8</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="L33" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="M33" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3-China.jpg</v>
-      </c>
-      <c r="N33" t="s">
-        <v>241</v>
+        <v>/dronetable/images/DJI-Matrice300RTK-China.jpg</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>385</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1699</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>243</v>
+        <v>382</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2049</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M34" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3Classic-China.jpg</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>244</v>
+        <v>/dronetable/images/DJI-Mavic3-China.jpg</v>
+      </c>
+      <c r="N34" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E35" s="6">
-        <v>3630</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>220</v>
+        <v>1699</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G35" t="s">
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="L35" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="M35" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3Enterprise-China.jpg</v>
+        <v>/dronetable/images/DJI-Mavic3Classic-China.jpg</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E36" s="6">
-        <v>2199</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>238</v>
+        <v>3630</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="G36" t="s">
         <v>24</v>
@@ -3011,175 +3028,175 @@
         <v>25</v>
       </c>
       <c r="L36" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="M36" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3Pro-China.jpg</v>
+        <v>/dronetable/images/DJI-Mavic3Enterprise-China.jpg</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>385</v>
-      </c>
-      <c r="E37" s="7">
-        <v>5498</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>220</v>
+        <v>382</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2199</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="G37" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
       </c>
+      <c r="L37" t="s">
+        <v>151</v>
+      </c>
       <c r="M37" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mavic3Thermal-China.jpg</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>221</v>
+        <v>/dronetable/images/DJI-Mavic3Pro-China.jpg</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>385</v>
-      </c>
-      <c r="E38" s="6">
-        <v>759</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>255</v>
+        <v>382</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5498</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H38" t="s">
-        <v>178</v>
-      </c>
-      <c r="L38" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="M38" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Mini3pro-China.jpg</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>256</v>
+        <v>/dronetable/images/DJI-Mavic3Thermal-China.jpg</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>378</v>
+        <v>251</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>385</v>
-      </c>
-      <c r="E39" s="5">
-        <v>199</v>
+        <v>382</v>
+      </c>
+      <c r="E39" s="6">
+        <v>759</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>379</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="L39" t="s">
+        <v>151</v>
       </c>
       <c r="M39" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DJI-Neo-China.jpg</v>
+        <v>/dronetable/images/DJI-Mini3pro-China.jpg</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>380</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>385</v>
-      </c>
-      <c r="E40" s="6">
-        <v>14999</v>
+        <v>382</v>
+      </c>
+      <c r="E40" s="5">
+        <v>199</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="M40" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Draganfly-Commander2-Canada.jpg</v>
+        <v>/dronetable/images/DJI-Neo-China.jpg</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>169</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>303</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>385</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>293</v>
+        <v>382</v>
+      </c>
+      <c r="E41" s="6">
+        <v>14999</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
         <v>25</v>
@@ -3189,99 +3206,96 @@
       </c>
       <c r="M41" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Draganfly-Commander3XL-Canada.jpg</v>
+        <v>/dronetable/images/Draganfly-Commander2-Canada.jpg</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
         <v>25</v>
       </c>
+      <c r="J42" t="s">
+        <v>53</v>
+      </c>
       <c r="M42" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/DroneVolt-Hercules20-France.jpg</v>
-      </c>
-      <c r="N42" t="s">
-        <v>310</v>
+        <v>/dronetable/images/Draganfly-Commander3XL-Canada.jpg</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>363</v>
+      <c r="A43" t="s">
+        <v>302</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>303</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
       </c>
       <c r="D43" t="s">
-        <v>385</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>365</v>
+        <v>382</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="H43" t="s">
         <v>25</v>
       </c>
-      <c r="I43" t="s">
-        <v>381</v>
-      </c>
-      <c r="L43" t="s">
-        <v>61</v>
-      </c>
       <c r="M43" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/EasyAerial-Osprey-.jpg</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>366</v>
+        <v>/dronetable/images/DroneVolt-Hercules20-France.jpg</v>
+      </c>
+      <c r="N43" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="6">
-        <v>15000</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>162</v>
+        <v>382</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="G44" t="s">
         <v>24</v>
@@ -3290,190 +3304,190 @@
         <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
-      </c>
-      <c r="J44" t="s">
-        <v>53</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="M44" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>164</v>
+        <v>/dronetable/images/EasyAerial-Osprey-.jpg</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>56</v>
+      <c r="A45" t="s">
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>385</v>
+        <v>15</v>
       </c>
       <c r="E45" s="6">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="I45" t="s">
+        <v>378</v>
+      </c>
+      <c r="J45" t="s">
+        <v>53</v>
       </c>
       <c r="L45" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M45" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
+        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>90</v>
+      <c r="A46" t="s">
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E46" s="6">
-        <v>28500</v>
+        <v>40000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="L46" t="s">
+        <v>61</v>
       </c>
       <c r="M46" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X(BlueCube)-US.jpg</v>
+        <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
         <v>69</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E47" s="6">
-        <v>36000</v>
+        <v>18200</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s">
         <v>71</v>
       </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" t="s">
-        <v>72</v>
-      </c>
-      <c r="I47" t="s">
-        <v>381</v>
-      </c>
-      <c r="J47" t="s">
-        <v>53</v>
-      </c>
       <c r="M47" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X(DIUBlue)-US.jpg</v>
+        <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>140</v>
+      <c r="A48" s="13" t="s">
+        <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E48" s="6">
-        <v>18200</v>
+        <v>28500</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
         <v>71</v>
       </c>
-      <c r="G48" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" t="s">
-        <v>72</v>
+      <c r="J48" t="s">
+        <v>53</v>
       </c>
       <c r="M48" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
+        <v>/dronetable/images/Freefly-Alta-X(NDAA)-US.jpg</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>172</v>
+      <c r="A49" t="s">
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E49" s="6">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
         <v>53</v>
@@ -3483,360 +3497,358 @@
         <v>/dronetable/images/Freefly-Astro-US.jpg</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>314</v>
+      <c r="A50" t="s">
+        <v>387</v>
       </c>
       <c r="B50" t="s">
-        <v>312</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>385</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>51</v>
+        <v>382</v>
+      </c>
+      <c r="E50" s="5">
+        <v>26000</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="G50" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="H50" t="s">
         <v>25</v>
       </c>
       <c r="I50" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J50" t="s">
         <v>53</v>
       </c>
-      <c r="L50" t="s">
-        <v>315</v>
-      </c>
       <c r="M50" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>313</v>
-      </c>
+        <v>/dronetable/images/Freefly-Astro(Blue)-US.jpg</v>
+      </c>
+      <c r="N50" s="4"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>316</v>
+      <c r="A51" t="s">
+        <v>308</v>
       </c>
       <c r="B51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="H51" t="s">
         <v>25</v>
       </c>
-      <c r="I51" t="s">
-        <v>381</v>
-      </c>
-      <c r="J51" t="s">
-        <v>53</v>
-      </c>
-      <c r="L51" t="s">
-        <v>317</v>
-      </c>
       <c r="M51" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" t="s">
         <v>311</v>
       </c>
       <c r="B52" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H52" t="s">
         <v>25</v>
       </c>
+      <c r="I52" t="s">
+        <v>378</v>
+      </c>
+      <c r="J52" t="s">
+        <v>53</v>
+      </c>
+      <c r="L52" t="s">
+        <v>312</v>
+      </c>
       <c r="M52" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
       </c>
       <c r="N52" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>319</v>
-      </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>320</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="H53" t="s">
         <v>25</v>
       </c>
+      <c r="I53" t="s">
+        <v>378</v>
+      </c>
+      <c r="J53" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" t="s">
+        <v>314</v>
+      </c>
       <c r="M53" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>385</v>
-      </c>
-      <c r="E54" s="6">
-        <v>360</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>266</v>
+        <v>382</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="H54" t="s">
-        <v>178</v>
-      </c>
-      <c r="L54" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="M54" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>288</v>
+      <c r="A55" t="s">
+        <v>261</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E55" s="6">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G55" t="s">
         <v>24</v>
       </c>
       <c r="H55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L55" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M55" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
+        <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E56" s="6">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="G56" t="s">
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L56" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M56" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
+        <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>277</v>
+      <c r="A57" t="s">
+        <v>278</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E57" s="6">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G57" t="s">
         <v>24</v>
       </c>
       <c r="H57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L57" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M57" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
+        <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="B58" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>385</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>293</v>
+        <v>382</v>
+      </c>
+      <c r="E58" s="6">
+        <v>270</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>324</v>
+        <v>174</v>
       </c>
       <c r="G58" t="s">
         <v>24</v>
       </c>
       <c r="H58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J58" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="L58" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="M58" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
-      </c>
-      <c r="N58" t="s">
-        <v>325</v>
+        <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G59" t="s">
         <v>24</v>
@@ -3852,83 +3864,93 @@
       </c>
       <c r="M59" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
+        <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
       </c>
       <c r="N59" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>150</v>
+      <c r="A60" t="s">
+        <v>323</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>385</v>
-      </c>
-      <c r="E60" s="6">
+        <v>382</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" t="s">
+        <v>53</v>
+      </c>
+      <c r="L60" t="s">
+        <v>61</v>
+      </c>
+      <c r="M60" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
+      </c>
+      <c r="N60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>382</v>
+      </c>
+      <c r="E61" s="6">
         <v>17250</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" t="s">
+      <c r="F61" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" t="s">
         <v>47</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>25</v>
       </c>
-      <c r="M60" t="str">
+      <c r="J61" t="s">
+        <v>53</v>
+      </c>
+      <c r="M61" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Hylio-AG-210-US.jpg</v>
       </c>
-      <c r="N60" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="E61" s="17">
-        <v>21560</v>
-      </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="M61" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
-      </c>
       <c r="N61" s="4" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="S61" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>78</v>
+      <c r="A62" t="s">
+        <v>109</v>
       </c>
       <c r="B62" t="s">
         <v>46</v>
@@ -3937,29 +3959,34 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>385</v>
-      </c>
-      <c r="E62" s="6">
-        <v>30520</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>382</v>
+      </c>
+      <c r="E62" s="14">
+        <v>21560</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="G62" t="s">
         <v>47</v>
       </c>
       <c r="H62" t="s">
         <v>25</v>
       </c>
+      <c r="J62" t="s">
+        <v>53</v>
+      </c>
       <c r="M62" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
+        <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
         <v>46</v>
@@ -3968,663 +3995,671 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E63" s="6">
-        <v>55500</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>30520</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="G63" t="s">
         <v>47</v>
       </c>
       <c r="H63" t="s">
         <v>25</v>
       </c>
+      <c r="J63" t="s">
+        <v>53</v>
+      </c>
       <c r="M63" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
+        <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>385</v>
-      </c>
-      <c r="E64" s="7">
-        <v>28000</v>
-      </c>
-      <c r="F64" s="1">
-        <v>48.5</v>
+        <v>382</v>
+      </c>
+      <c r="E64" s="6">
+        <v>55500</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J64" t="s">
         <v>53</v>
       </c>
       <c r="M64" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>89</v>
+        <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>385</v>
-      </c>
-      <c r="E65" s="6">
-        <v>29000</v>
-      </c>
-      <c r="F65" s="1">
-        <v>48.5</v>
+        <v>382</v>
+      </c>
+      <c r="E65" s="5">
+        <v>44450</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
-      </c>
-      <c r="I65" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s">
         <v>53</v>
       </c>
       <c r="M65" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
+        <v>/dronetable/images/Hylio-HYL-150-US.jpg</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>89</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>156</v>
+      <c r="A66" t="s">
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>385</v>
-      </c>
-      <c r="E66" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>157</v>
+        <v>382</v>
+      </c>
+      <c r="E66" s="6">
+        <v>29000</v>
+      </c>
+      <c r="F66" s="1">
+        <v>48.5</v>
       </c>
       <c r="G66" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I66" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J66" t="s">
         <v>53</v>
       </c>
       <c r="M66" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>159</v>
+        <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>385</v>
-      </c>
-      <c r="E67" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>124</v>
+        <v>382</v>
+      </c>
+      <c r="E67" s="7">
+        <v>28000</v>
+      </c>
+      <c r="F67" s="1">
+        <v>48.5</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H67" t="s">
-        <v>125</v>
-      </c>
-      <c r="I67" t="s">
-        <v>381</v>
+        <v>71</v>
       </c>
       <c r="J67" t="s">
         <v>53</v>
       </c>
       <c r="M67" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>126</v>
+        <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>38</v>
+      <c r="A68" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>385</v>
-      </c>
-      <c r="E68" s="6">
-        <v>56000</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>41</v>
+        <v>382</v>
+      </c>
+      <c r="E68" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="H68" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="I68" t="s">
+        <v>378</v>
+      </c>
+      <c r="J68" t="s">
+        <v>53</v>
       </c>
       <c r="M68" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
-      </c>
-      <c r="N68" t="s">
-        <v>44</v>
+        <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E69" s="6">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="G69" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>67</v>
+        <v>122</v>
+      </c>
+      <c r="I69" t="s">
+        <v>378</v>
       </c>
       <c r="J69" t="s">
         <v>53</v>
       </c>
       <c r="M69" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
+        <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>385</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>330</v>
+        <v>382</v>
+      </c>
+      <c r="E70" s="6">
+        <v>56000</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="H70" t="s">
-        <v>67</v>
-      </c>
-      <c r="J70" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M70" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
+        <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
       </c>
       <c r="N70" t="s">
-        <v>332</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E71" s="6">
-        <v>4500</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>177</v>
+        <v>40000</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G71" t="s">
         <v>24</v>
       </c>
       <c r="H71" t="s">
-        <v>178</v>
-      </c>
-      <c r="L71" t="s">
-        <v>179</v>
+        <v>67</v>
+      </c>
+      <c r="J71" t="s">
+        <v>53</v>
       </c>
       <c r="M71" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
+        <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>225</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>385</v>
-      </c>
-      <c r="E72" s="6">
-        <v>14000</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>177</v>
+        <v>382</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="G72" t="s">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="H72" t="s">
-        <v>178</v>
-      </c>
-      <c r="I72" t="s">
-        <v>381</v>
+        <v>67</v>
       </c>
       <c r="J72" t="s">
         <v>53</v>
       </c>
-      <c r="L72" t="s">
-        <v>179</v>
-      </c>
       <c r="M72" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
-      </c>
-      <c r="N72" s="4" t="s">
-        <v>180</v>
+        <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
+      </c>
+      <c r="N72" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E73" s="6">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G73" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L73" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M73" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
+        <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>333</v>
+        <v>211</v>
       </c>
       <c r="B74" t="s">
-        <v>334</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>385</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>335</v>
+        <v>382</v>
+      </c>
+      <c r="E74" s="6">
+        <v>7000</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="G74" t="s">
-        <v>336</v>
-      </c>
-      <c r="I74" t="s">
-        <v>381</v>
-      </c>
-      <c r="J74" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="H74" t="s">
+        <v>175</v>
+      </c>
+      <c r="L74" t="s">
+        <v>176</v>
       </c>
       <c r="M74" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PDW-C100-US.jpg</v>
+        <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>337</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="C75" t="s">
-        <v>340</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>385</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>293</v>
+        <v>382</v>
+      </c>
+      <c r="E75" s="6">
+        <v>14000</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
       <c r="G75" t="s">
         <v>59</v>
       </c>
       <c r="H75" t="s">
-        <v>341</v>
+        <v>175</v>
+      </c>
+      <c r="I75" t="s">
+        <v>378</v>
+      </c>
+      <c r="J75" t="s">
+        <v>53</v>
+      </c>
+      <c r="L75" t="s">
+        <v>176</v>
       </c>
       <c r="M75" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
+        <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>342</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B76" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C76" t="s">
-        <v>340</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F76" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G76" t="s">
+        <v>333</v>
+      </c>
+      <c r="I76" t="s">
+        <v>378</v>
+      </c>
+      <c r="J76" t="s">
+        <v>53</v>
+      </c>
+      <c r="M76" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PDW-C100-US.jpg</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>335</v>
       </c>
-      <c r="G76" t="s">
-        <v>344</v>
-      </c>
-      <c r="H76" t="s">
-        <v>341</v>
-      </c>
-      <c r="M76" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>346</v>
-      </c>
       <c r="B77" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C77" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D77" t="s">
-        <v>385</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>293</v>
+        <v>382</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="G77" t="s">
         <v>59</v>
       </c>
       <c r="H77" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M77" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>348</v>
+        <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>337</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="7">
-        <v>19300</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>129</v>
+        <v>382</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="G78" t="s">
+        <v>341</v>
+      </c>
+      <c r="H78" t="s">
+        <v>338</v>
+      </c>
+      <c r="M78" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" t="s">
+        <v>337</v>
+      </c>
+      <c r="D79" t="s">
+        <v>382</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G79" t="s">
         <v>59</v>
       </c>
-      <c r="H78" t="s">
-        <v>72</v>
-      </c>
-      <c r="M78" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B79" t="s">
-        <v>261</v>
-      </c>
-      <c r="C79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" t="s">
-        <v>385</v>
-      </c>
-      <c r="E79" s="6">
-        <v>330</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G79" t="s">
-        <v>24</v>
-      </c>
       <c r="H79" t="s">
-        <v>178</v>
+        <v>338</v>
       </c>
       <c r="M79" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Ruko-F11-China.jpg</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>276</v>
+        <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>385</v>
-      </c>
-      <c r="E80" s="6">
-        <v>380</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>262</v>
+        <v>15</v>
+      </c>
+      <c r="E80" s="7">
+        <v>19300</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H80" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="M80" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>263</v>
+        <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E81" s="6">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="G81" t="s">
         <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>178</v>
-      </c>
-      <c r="L81" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="M81" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
+        <v>/dronetable/images/Ruko-F11-China.jpg</v>
       </c>
       <c r="N81" s="4" t="s">
         <v>273</v>
@@ -4632,352 +4667,346 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B82" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E82" s="6">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G82" t="s">
         <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>178</v>
-      </c>
-      <c r="L82" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="M82" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
+        <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C83" t="s">
         <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E83" s="6">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G83" t="s">
         <v>24</v>
       </c>
       <c r="H83" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L83" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M83" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
+        <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>385</v>
-      </c>
-      <c r="E84" s="7">
-        <v>230</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>284</v>
+        <v>382</v>
+      </c>
+      <c r="E84" s="6">
+        <v>351</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="G84" t="s">
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L84" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M84" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
-      </c>
-      <c r="N84" t="s">
-        <v>285</v>
+        <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B85" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>385</v>
-      </c>
-      <c r="E85" s="7">
-        <v>230</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>284</v>
+        <v>382</v>
+      </c>
+      <c r="E85" s="6">
+        <v>360</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="G85" t="s">
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L85" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M85" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
-      </c>
-      <c r="N85" s="8" t="s">
-        <v>285</v>
+        <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B86" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>385</v>
-      </c>
-      <c r="E86" s="6">
-        <v>260</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>266</v>
+        <v>382</v>
+      </c>
+      <c r="E86" s="7">
+        <v>230</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="G86" t="s">
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L86" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M86" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>280</v>
+        <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
+      </c>
+      <c r="N86" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>385</v>
-      </c>
-      <c r="E87" s="6">
-        <v>999</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1.7</v>
+        <v>382</v>
+      </c>
+      <c r="E87" s="7">
+        <v>230</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="G87" t="s">
         <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="L87" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M87" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-2+-US.jpg</v>
-      </c>
-      <c r="N87" s="4" t="s">
-        <v>253</v>
+        <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
+      </c>
+      <c r="N87" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>371</v>
+        <v>276</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>385</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>293</v>
+        <v>382</v>
+      </c>
+      <c r="E88" s="6">
+        <v>260</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="G88" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H88" t="s">
-        <v>25</v>
-      </c>
-      <c r="I88" t="s">
-        <v>381</v>
+        <v>175</v>
+      </c>
+      <c r="L88" t="s">
+        <v>264</v>
       </c>
       <c r="M88" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X10D-US.jpg</v>
+        <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E89" s="6">
-        <v>18000</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>148</v>
+        <v>999</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1.7</v>
       </c>
       <c r="G89" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>25</v>
-      </c>
-      <c r="I89" t="s">
-        <v>381</v>
-      </c>
-      <c r="J89" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="L89" t="s">
+        <v>249</v>
       </c>
       <c r="M89" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X10-US.jpg</v>
+        <v>/dronetable/images/Skydio-2+-US.jpg</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>367</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>385</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>293</v>
+        <v>382</v>
+      </c>
+      <c r="E90" s="6">
+        <v>18000</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>368</v>
+        <v>145</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H90" t="s">
         <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>381</v>
-      </c>
-      <c r="L90" t="s">
-        <v>369</v>
+        <v>378</v>
+      </c>
+      <c r="J90" t="s">
+        <v>53</v>
       </c>
       <c r="M90" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X2D-US.jpg</v>
+        <v>/dronetable/images/Skydio-X10-US.jpg</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>370</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>368</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>385</v>
-      </c>
-      <c r="E91" s="6">
-        <v>14999</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1.7</v>
+        <v>382</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="G91" t="s">
         <v>59</v>
@@ -4986,223 +5015,220 @@
         <v>25</v>
       </c>
       <c r="I91" t="s">
-        <v>381</v>
-      </c>
-      <c r="J91" t="s">
-        <v>53</v>
+        <v>378</v>
       </c>
       <c r="M91" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X2E-US.jpg</v>
+        <v>/dronetable/images/Skydio-X10D-US.jpg</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>171</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
-        <v>350</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s">
-        <v>351</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>382</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="G92" t="s">
         <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="I92" t="s">
+        <v>378</v>
+      </c>
+      <c r="L92" t="s">
+        <v>366</v>
       </c>
       <c r="M92" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
+        <v>/dronetable/images/Skydio-X2D-US.jpg</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E93" s="6">
-        <v>46800</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>51</v>
+        <v>14999</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1.7</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H93" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="I93" t="s">
+        <v>378</v>
       </c>
       <c r="J93" t="s">
         <v>53</v>
       </c>
-      <c r="L93" t="s">
-        <v>54</v>
-      </c>
       <c r="M93" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
+        <v>/dronetable/images/Skydio-X2E-US.jpg</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>346</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="D94" t="s">
-        <v>385</v>
-      </c>
-      <c r="E94" s="6">
-        <v>9000</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G94" t="s">
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>178</v>
-      </c>
-      <c r="L94" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="M94" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
+        <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>205</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>385</v>
-      </c>
-      <c r="E95" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>183</v>
+        <v>382</v>
+      </c>
+      <c r="E95" s="6">
+        <v>46800</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G95" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H95" t="s">
-        <v>25</v>
-      </c>
-      <c r="I95" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="J95" t="s">
         <v>53</v>
       </c>
       <c r="L95" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="M95" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
-      </c>
-      <c r="N95" t="s">
-        <v>185</v>
+        <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>374</v>
+        <v>199</v>
       </c>
       <c r="B96" t="s">
-        <v>375</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>385</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
+      </c>
+      <c r="E96" s="6">
+        <v>9000</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G96" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>25</v>
-      </c>
-      <c r="I96" t="s">
-        <v>381</v>
+        <v>175</v>
+      </c>
+      <c r="L96" t="s">
+        <v>201</v>
       </c>
       <c r="M96" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teal-Teal2-US.jpg</v>
+        <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>377</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>385</v>
-      </c>
-      <c r="E97" s="6">
-        <v>9695</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>200</v>
+        <v>382</v>
+      </c>
+      <c r="E97" s="7">
+        <v>14000</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="G97" t="s">
         <v>59</v>
@@ -5210,74 +5236,77 @@
       <c r="H97" t="s">
         <v>25</v>
       </c>
+      <c r="I97" t="s">
+        <v>378</v>
+      </c>
+      <c r="J97" t="s">
+        <v>53</v>
+      </c>
+      <c r="L97" t="s">
+        <v>181</v>
+      </c>
       <c r="M97" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
-      </c>
-      <c r="N97" s="4" t="s">
-        <v>201</v>
+        <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
+      </c>
+      <c r="N97" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>385</v>
-      </c>
-      <c r="E98" s="6">
-        <v>7700</v>
+        <v>382</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>211</v>
+        <v>373</v>
       </c>
       <c r="G98" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="H98" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I98" t="s">
-        <v>381</v>
-      </c>
-      <c r="J98" t="s">
-        <v>53</v>
-      </c>
-      <c r="L98" t="s">
-        <v>212</v>
+        <v>378</v>
       </c>
       <c r="M98" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
-      </c>
-      <c r="N98" t="s">
-        <v>213</v>
+        <v>/dronetable/images/Teal-Teal2-US.jpg</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>382</v>
       </c>
       <c r="E99" s="6">
-        <v>18750</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>133</v>
+        <v>9695</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="G99" t="s">
         <v>59</v>
@@ -5287,217 +5316,263 @@
       </c>
       <c r="M99" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
+        <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E100" s="6">
-        <v>26050</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>99</v>
+        <v>7700</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H100" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="I100" t="s">
+        <v>378</v>
+      </c>
+      <c r="J100" t="s">
+        <v>53</v>
+      </c>
+      <c r="L100" t="s">
+        <v>209</v>
       </c>
       <c r="M100" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>100</v>
+        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
+      </c>
+      <c r="N100" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>80</v>
+      <c r="A101" t="s">
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>385</v>
-      </c>
-      <c r="E101" s="7">
-        <v>29999</v>
+        <v>129</v>
+      </c>
+      <c r="E101" s="6">
+        <v>18750</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="G101" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H101" t="s">
         <v>25</v>
       </c>
-      <c r="J101" t="s">
-        <v>53</v>
-      </c>
       <c r="M101" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
-      </c>
-      <c r="N101" t="s">
-        <v>82</v>
+        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>382</v>
       </c>
       <c r="E102" s="6">
-        <v>22000</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>109</v>
+        <v>26050</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G102" t="s">
         <v>42</v>
       </c>
       <c r="H102" t="s">
-        <v>60</v>
-      </c>
-      <c r="I102" t="s">
-        <v>381</v>
-      </c>
-      <c r="J102" t="s">
-        <v>53</v>
-      </c>
-      <c r="L102" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="M102" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
-      </c>
-      <c r="N102" t="s">
-        <v>111</v>
+        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>74</v>
+      <c r="A103" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="6">
-        <v>35085</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>76</v>
+        <v>382</v>
+      </c>
+      <c r="E103" s="7">
+        <v>29999</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G103" t="s">
         <v>24</v>
       </c>
       <c r="H103" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="J103" t="s">
+        <v>53</v>
       </c>
       <c r="M103" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
-      </c>
-      <c r="N103" s="4" t="s">
-        <v>77</v>
+        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
+      </c>
+      <c r="N103" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
-        <v>83</v>
+      <c r="A104" t="s">
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="6">
-        <v>29300</v>
+        <v>22000</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G104" t="s">
         <v>42</v>
       </c>
       <c r="H104" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="I104" t="s">
+        <v>378</v>
+      </c>
+      <c r="J104" t="s">
+        <v>53</v>
+      </c>
+      <c r="L104" t="s">
+        <v>107</v>
       </c>
       <c r="M104" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/ZephyrSystems-OKO-250-US.jpg</v>
+        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
       </c>
       <c r="N104" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>388</v>
+        <v>72</v>
       </c>
       <c r="B105" t="s">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="C105" t="s">
-        <v>391</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>385</v>
-      </c>
-      <c r="E105" s="5">
-        <v>899</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="M105" s="19" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Aeroo-AerooPro-Australia.jpg</v>
+        <v>15</v>
+      </c>
+      <c r="E105" s="6">
+        <v>35085</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" t="s">
+        <v>71</v>
+      </c>
+      <c r="M105" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>390</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E106" s="5"/>
-      <c r="F106" s="2"/>
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="6">
+        <v>29300</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G106" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="M106" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ZephyrSystems-OKO-250-US.jpg</v>
+      </c>
+      <c r="N106" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E107" s="5"/>
@@ -5531,114 +5606,117 @@
       <c r="E114" s="5"/>
       <c r="F114" s="2"/>
     </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="5"/>
+      <c r="F115" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1" xr:uid="{B0654C94-D789-4E36-AFC9-EB5ECDA2C30E}"/>
-    <hyperlink ref="N9" r:id="rId2" xr:uid="{B8E29BEF-5DC3-415A-9A42-321C52A9698E}"/>
-    <hyperlink ref="N14" r:id="rId3" xr:uid="{3EB35BBA-2E6E-43BC-9F2B-BA46D8129FCE}"/>
-    <hyperlink ref="N32" r:id="rId4" xr:uid="{113E3222-47AA-4EC1-B25F-6603ADCCF7DC}"/>
-    <hyperlink ref="N68" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
-    <hyperlink ref="N65" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
-    <hyperlink ref="N71" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
-    <hyperlink ref="N75" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
-    <hyperlink ref="N87" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
-    <hyperlink ref="N94" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
-    <hyperlink ref="N78" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
-    <hyperlink ref="N99" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
-    <hyperlink ref="N101" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
-    <hyperlink ref="N103" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
-    <hyperlink ref="N104" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
-    <hyperlink ref="N102" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
-    <hyperlink ref="N69" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
-    <hyperlink ref="N70" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
+    <hyperlink ref="N6" r:id="rId1" xr:uid="{B0654C94-D789-4E36-AFC9-EB5ECDA2C30E}"/>
+    <hyperlink ref="N10" r:id="rId2" xr:uid="{B8E29BEF-5DC3-415A-9A42-321C52A9698E}"/>
+    <hyperlink ref="N15" r:id="rId3" xr:uid="{3EB35BBA-2E6E-43BC-9F2B-BA46D8129FCE}"/>
+    <hyperlink ref="N33" r:id="rId4" xr:uid="{113E3222-47AA-4EC1-B25F-6603ADCCF7DC}"/>
+    <hyperlink ref="N70" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
+    <hyperlink ref="N66" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
+    <hyperlink ref="N73" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
+    <hyperlink ref="N77" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
+    <hyperlink ref="N89" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
+    <hyperlink ref="N96" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
+    <hyperlink ref="N80" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
+    <hyperlink ref="N101" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
+    <hyperlink ref="N103" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
+    <hyperlink ref="N105" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
+    <hyperlink ref="N106" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
+    <hyperlink ref="N104" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
+    <hyperlink ref="N71" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
+    <hyperlink ref="N72" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
     <hyperlink ref="N2" r:id="rId19" xr:uid="{DC762510-5411-4346-ADC1-60C1710AEFF4}"/>
-    <hyperlink ref="N92" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
-    <hyperlink ref="N98" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
-    <hyperlink ref="N58" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
-    <hyperlink ref="N59" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
-    <hyperlink ref="N45" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
-    <hyperlink ref="N95" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
+    <hyperlink ref="N94" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
+    <hyperlink ref="N100" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
+    <hyperlink ref="N59" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
+    <hyperlink ref="N60" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
+    <hyperlink ref="N46" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
+    <hyperlink ref="N97" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
     <hyperlink ref="N49" r:id="rId26" xr:uid="{64F6E8C6-878E-41CF-9C1C-AEFA73C8F7FC}"/>
-    <hyperlink ref="N48" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
-    <hyperlink ref="N46" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
-    <hyperlink ref="N47" r:id="rId29" xr:uid="{165AB571-AD17-47C5-A52E-3ECFE175E45D}"/>
-    <hyperlink ref="N22" r:id="rId30" xr:uid="{7930AE8A-8903-499F-BF8A-0A53F8878139}"/>
-    <hyperlink ref="N23" r:id="rId31" xr:uid="{C27966FD-A67B-4E75-8B4C-4104B1780811}"/>
-    <hyperlink ref="N19" r:id="rId32" xr:uid="{4E79DE0E-747D-48A0-A3DF-A317F525AC99}"/>
-    <hyperlink ref="N79" r:id="rId33" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
-    <hyperlink ref="N80" r:id="rId34" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
-    <hyperlink ref="N20" r:id="rId35" xr:uid="{ACA47773-CA7B-4A93-B655-DCCB7CFFB97E}"/>
-    <hyperlink ref="N3" r:id="rId36" xr:uid="{484AB161-02F7-4842-900B-06E05CBA3079}"/>
-    <hyperlink ref="N8" r:id="rId37" xr:uid="{CB0C1422-2871-46D4-805F-64E91A0FCF19}"/>
-    <hyperlink ref="N44" r:id="rId38" xr:uid="{333F58F8-A830-48A8-AF31-563FA3C3331C}"/>
-    <hyperlink ref="N10" r:id="rId39" xr:uid="{20BEA2F4-F9E7-465C-8582-C32BB114A958}"/>
-    <hyperlink ref="N93" r:id="rId40" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
-    <hyperlink ref="N21" r:id="rId41" location="uas" xr:uid="{2C129CB9-17CF-4162-855D-4744CE573C87}"/>
-    <hyperlink ref="N74" r:id="rId42" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
-    <hyperlink ref="N89" r:id="rId43" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
-    <hyperlink ref="N18" r:id="rId44" xr:uid="{EC583CD3-7C3A-4D09-B7ED-0EC8AAAA3343}"/>
-    <hyperlink ref="N63" r:id="rId45" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
-    <hyperlink ref="N62" r:id="rId46" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
-    <hyperlink ref="N64" r:id="rId47" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
-    <hyperlink ref="N26" r:id="rId48" xr:uid="{A0523012-6C05-445A-974A-B3A49ABDACBD}"/>
-    <hyperlink ref="N100" r:id="rId49" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
-    <hyperlink ref="N61" r:id="rId50" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
-    <hyperlink ref="N24" r:id="rId51" xr:uid="{422B5330-A905-4AB0-B139-84D956CD2FD4}"/>
-    <hyperlink ref="N25" r:id="rId52" xr:uid="{B6B6B82A-AE51-4B42-9719-E5EA3598D511}"/>
-    <hyperlink ref="N67" r:id="rId53" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
-    <hyperlink ref="N60" r:id="rId54" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
-    <hyperlink ref="N29" r:id="rId55" xr:uid="{B2EC1F0D-EC36-406C-AAAE-962F29C1C690}"/>
-    <hyperlink ref="N40" r:id="rId56" xr:uid="{5851B709-EE11-4040-A6C7-792A08E645BB}"/>
-    <hyperlink ref="N91" r:id="rId57" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
-    <hyperlink ref="N72" r:id="rId58" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
-    <hyperlink ref="N97" r:id="rId59" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
-    <hyperlink ref="N73" r:id="rId60" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
-    <hyperlink ref="N13" r:id="rId61" xr:uid="{47D34CCC-47E1-4B8F-9277-23B177A2C527}"/>
-    <hyperlink ref="N37" r:id="rId62" xr:uid="{94228163-F868-4206-9105-EA09E5E25EBE}"/>
-    <hyperlink ref="N12" r:id="rId63" xr:uid="{DBFCF21E-1457-4EF8-B2EA-7F6C3FA78E26}"/>
-    <hyperlink ref="N35" r:id="rId64" xr:uid="{8FB7EF7C-30C3-4852-A105-40043558285D}"/>
-    <hyperlink ref="N11" r:id="rId65" xr:uid="{42DC1FA1-408C-4BCC-AA55-F48220C06104}"/>
-    <hyperlink ref="N17" r:id="rId66" xr:uid="{B97CC6F1-C2F1-4CA5-8E37-9D983B165767}"/>
-    <hyperlink ref="N36" r:id="rId67" xr:uid="{404F221D-4717-48DD-91EE-073EB8108F0D}"/>
-    <hyperlink ref="N34" r:id="rId68" xr:uid="{A825FDFA-08DE-4E45-B2DE-9F7470045A4A}"/>
-    <hyperlink ref="N28" r:id="rId69" xr:uid="{87B2FCDE-C75E-49B7-9AA2-A26A9080A388}"/>
-    <hyperlink ref="N38" r:id="rId70" xr:uid="{02B24B87-6439-4455-9EB9-975DF50A9832}"/>
-    <hyperlink ref="N54" r:id="rId71" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
-    <hyperlink ref="N83" r:id="rId72" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
-    <hyperlink ref="N82" r:id="rId73" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
-    <hyperlink ref="N57" r:id="rId74" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
-    <hyperlink ref="N86" r:id="rId75" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
-    <hyperlink ref="N56" r:id="rId76" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
-    <hyperlink ref="N81" r:id="rId77" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
-    <hyperlink ref="N55" r:id="rId78" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
-    <hyperlink ref="N41" r:id="rId79" xr:uid="{295CA37D-1AD1-4E9E-8924-8E62F6AC71AC}"/>
-    <hyperlink ref="N52" r:id="rId80" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
-    <hyperlink ref="N51" r:id="rId81" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
-    <hyperlink ref="N53" r:id="rId82" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
-    <hyperlink ref="N76" r:id="rId83" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
-    <hyperlink ref="N4" r:id="rId84" xr:uid="{B8EEF89A-4F04-454F-A259-4DFF0690D481}"/>
-    <hyperlink ref="N6" r:id="rId85" xr:uid="{CE7BCF13-6582-4B09-9229-8A802DDED0E6}"/>
-    <hyperlink ref="N7" r:id="rId86" xr:uid="{26F63D41-5725-4371-9C40-4A585DEA85B9}"/>
-    <hyperlink ref="N88" r:id="rId87" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
-    <hyperlink ref="N15" r:id="rId88" xr:uid="{EB24426B-29A4-4CF8-B587-4B40E8A5DAB6}"/>
-    <hyperlink ref="N66" r:id="rId89" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
-    <hyperlink ref="N39" r:id="rId90" xr:uid="{A01C861A-5B15-4690-8AD2-2B7772918BDE}"/>
-    <hyperlink ref="N96" r:id="rId91" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
-    <hyperlink ref="N90" r:id="rId92" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
-    <hyperlink ref="N42" r:id="rId93" xr:uid="{E5279318-3BFF-4592-9619-A1D3C16C3193}"/>
-    <hyperlink ref="N43" r:id="rId94" xr:uid="{4FF7E709-8E9D-4104-804F-DA7C4F3B79F5}"/>
-    <hyperlink ref="N77" r:id="rId95" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
-    <hyperlink ref="N85" r:id="rId96" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
-    <hyperlink ref="N31" r:id="rId97" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
-    <hyperlink ref="N30" r:id="rId98" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
-    <hyperlink ref="N50" r:id="rId99" xr:uid="{7F760014-2639-4875-9DFD-DA03049D33B6}"/>
-    <hyperlink ref="N105" r:id="rId100" location="specs" xr:uid="{B7D20A46-20A1-4B66-B3D9-9ED6D0079419}"/>
+    <hyperlink ref="N47" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
+    <hyperlink ref="N48" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
+    <hyperlink ref="N23" r:id="rId29" xr:uid="{7930AE8A-8903-499F-BF8A-0A53F8878139}"/>
+    <hyperlink ref="N24" r:id="rId30" xr:uid="{C27966FD-A67B-4E75-8B4C-4104B1780811}"/>
+    <hyperlink ref="N20" r:id="rId31" xr:uid="{4E79DE0E-747D-48A0-A3DF-A317F525AC99}"/>
+    <hyperlink ref="N81" r:id="rId32" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
+    <hyperlink ref="N82" r:id="rId33" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
+    <hyperlink ref="N21" r:id="rId34" xr:uid="{ACA47773-CA7B-4A93-B655-DCCB7CFFB97E}"/>
+    <hyperlink ref="N3" r:id="rId35" xr:uid="{484AB161-02F7-4842-900B-06E05CBA3079}"/>
+    <hyperlink ref="N9" r:id="rId36" xr:uid="{CB0C1422-2871-46D4-805F-64E91A0FCF19}"/>
+    <hyperlink ref="N45" r:id="rId37" xr:uid="{333F58F8-A830-48A8-AF31-563FA3C3331C}"/>
+    <hyperlink ref="N11" r:id="rId38" xr:uid="{20BEA2F4-F9E7-465C-8582-C32BB114A958}"/>
+    <hyperlink ref="N95" r:id="rId39" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
+    <hyperlink ref="N22" r:id="rId40" location="uas" xr:uid="{2C129CB9-17CF-4162-855D-4744CE573C87}"/>
+    <hyperlink ref="N76" r:id="rId41" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
+    <hyperlink ref="N90" r:id="rId42" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
+    <hyperlink ref="N19" r:id="rId43" xr:uid="{EC583CD3-7C3A-4D09-B7ED-0EC8AAAA3343}"/>
+    <hyperlink ref="N64" r:id="rId44" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
+    <hyperlink ref="N63" r:id="rId45" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
+    <hyperlink ref="N67" r:id="rId46" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
+    <hyperlink ref="N27" r:id="rId47" xr:uid="{A0523012-6C05-445A-974A-B3A49ABDACBD}"/>
+    <hyperlink ref="N102" r:id="rId48" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
+    <hyperlink ref="N62" r:id="rId49" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
+    <hyperlink ref="N25" r:id="rId50" xr:uid="{422B5330-A905-4AB0-B139-84D956CD2FD4}"/>
+    <hyperlink ref="N26" r:id="rId51" xr:uid="{B6B6B82A-AE51-4B42-9719-E5EA3598D511}"/>
+    <hyperlink ref="N69" r:id="rId52" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
+    <hyperlink ref="N61" r:id="rId53" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
+    <hyperlink ref="N30" r:id="rId54" xr:uid="{B2EC1F0D-EC36-406C-AAAE-962F29C1C690}"/>
+    <hyperlink ref="N41" r:id="rId55" xr:uid="{5851B709-EE11-4040-A6C7-792A08E645BB}"/>
+    <hyperlink ref="N93" r:id="rId56" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
+    <hyperlink ref="N75" r:id="rId57" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
+    <hyperlink ref="N99" r:id="rId58" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
+    <hyperlink ref="N74" r:id="rId59" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
+    <hyperlink ref="N14" r:id="rId60" xr:uid="{47D34CCC-47E1-4B8F-9277-23B177A2C527}"/>
+    <hyperlink ref="N38" r:id="rId61" xr:uid="{94228163-F868-4206-9105-EA09E5E25EBE}"/>
+    <hyperlink ref="N13" r:id="rId62" xr:uid="{DBFCF21E-1457-4EF8-B2EA-7F6C3FA78E26}"/>
+    <hyperlink ref="N36" r:id="rId63" xr:uid="{8FB7EF7C-30C3-4852-A105-40043558285D}"/>
+    <hyperlink ref="N12" r:id="rId64" xr:uid="{42DC1FA1-408C-4BCC-AA55-F48220C06104}"/>
+    <hyperlink ref="N18" r:id="rId65" xr:uid="{B97CC6F1-C2F1-4CA5-8E37-9D983B165767}"/>
+    <hyperlink ref="N37" r:id="rId66" xr:uid="{404F221D-4717-48DD-91EE-073EB8108F0D}"/>
+    <hyperlink ref="N35" r:id="rId67" xr:uid="{A825FDFA-08DE-4E45-B2DE-9F7470045A4A}"/>
+    <hyperlink ref="N29" r:id="rId68" xr:uid="{87B2FCDE-C75E-49B7-9AA2-A26A9080A388}"/>
+    <hyperlink ref="N39" r:id="rId69" xr:uid="{02B24B87-6439-4455-9EB9-975DF50A9832}"/>
+    <hyperlink ref="N55" r:id="rId70" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
+    <hyperlink ref="N85" r:id="rId71" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
+    <hyperlink ref="N84" r:id="rId72" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
+    <hyperlink ref="N58" r:id="rId73" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
+    <hyperlink ref="N88" r:id="rId74" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
+    <hyperlink ref="N57" r:id="rId75" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
+    <hyperlink ref="N83" r:id="rId76" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
+    <hyperlink ref="N56" r:id="rId77" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
+    <hyperlink ref="N42" r:id="rId78" xr:uid="{295CA37D-1AD1-4E9E-8924-8E62F6AC71AC}"/>
+    <hyperlink ref="N51" r:id="rId79" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
+    <hyperlink ref="N53" r:id="rId80" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
+    <hyperlink ref="N54" r:id="rId81" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
+    <hyperlink ref="N78" r:id="rId82" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
+    <hyperlink ref="N5" r:id="rId83" xr:uid="{B8EEF89A-4F04-454F-A259-4DFF0690D481}"/>
+    <hyperlink ref="N7" r:id="rId84" xr:uid="{CE7BCF13-6582-4B09-9229-8A802DDED0E6}"/>
+    <hyperlink ref="N8" r:id="rId85" xr:uid="{26F63D41-5725-4371-9C40-4A585DEA85B9}"/>
+    <hyperlink ref="N91" r:id="rId86" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
+    <hyperlink ref="N16" r:id="rId87" xr:uid="{EB24426B-29A4-4CF8-B587-4B40E8A5DAB6}"/>
+    <hyperlink ref="N68" r:id="rId88" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
+    <hyperlink ref="N40" r:id="rId89" xr:uid="{A01C861A-5B15-4690-8AD2-2B7772918BDE}"/>
+    <hyperlink ref="N98" r:id="rId90" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
+    <hyperlink ref="N92" r:id="rId91" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
+    <hyperlink ref="N43" r:id="rId92" xr:uid="{E5279318-3BFF-4592-9619-A1D3C16C3193}"/>
+    <hyperlink ref="N44" r:id="rId93" xr:uid="{4FF7E709-8E9D-4104-804F-DA7C4F3B79F5}"/>
+    <hyperlink ref="N79" r:id="rId94" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
+    <hyperlink ref="N86" r:id="rId95" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
+    <hyperlink ref="N32" r:id="rId96" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
+    <hyperlink ref="N31" r:id="rId97" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
+    <hyperlink ref="N52" r:id="rId98" xr:uid="{7F760014-2639-4875-9DFD-DA03049D33B6}"/>
+    <hyperlink ref="N65" r:id="rId99" xr:uid="{721375D7-F490-4054-8E3D-7CE6E21B11D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId101"/>
+  <pageSetup orientation="portrait" r:id="rId100"/>
   <tableParts count="1">
-    <tablePart r:id="rId102"/>
+    <tablePart r:id="rId101"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\dronetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\brand\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2039957E-7CF8-45D6-A179-85FDE56B6890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9443D-1255-4382-8386-CF27CA6E942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
+    <workbookView xWindow="12435" yWindow="1125" windowWidth="34260" windowHeight="17175" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
   <sheets>
     <sheet name="Drones" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="447">
   <si>
     <t>Model</t>
   </si>
@@ -1237,6 +1237,144 @@
   </si>
   <si>
     <t>https://us.aeroodrones.com/</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>VXE30 Stalker</t>
+  </si>
+  <si>
+    <t>Edge Autonomy</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>Laptop+Controller</t>
+  </si>
+  <si>
+    <t>https://edgeautonomy.io/uncrewed-systems/vxe30-stalker/</t>
+  </si>
+  <si>
+    <t>Astro Max (Blue)</t>
+  </si>
+  <si>
+    <t>Newer model mapping package</t>
+  </si>
+  <si>
+    <t>https://store.freeflysystems.com/</t>
+  </si>
+  <si>
+    <t>Flying Sun 500</t>
+  </si>
+  <si>
+    <t>Overhead Lighting</t>
+  </si>
+  <si>
+    <t>Tethered lighting solution</t>
+  </si>
+  <si>
+    <t>Flying Sun 1000</t>
+  </si>
+  <si>
+    <t>ModalAI</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>FPV with video system</t>
+  </si>
+  <si>
+    <t>https://www.modalai.com/collections/all?&amp;sort_by=manual</t>
+  </si>
+  <si>
+    <t>PX4 Autonomy Dev Kit</t>
+  </si>
+  <si>
+    <t>FPV+NN</t>
+  </si>
+  <si>
+    <t>Developed for autonomy testing</t>
+  </si>
+  <si>
+    <t>Seeker VisionMax</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Neros Technologies</t>
+  </si>
+  <si>
+    <t>FPV+munitions</t>
+  </si>
+  <si>
+    <t>FPV drone for military applications</t>
+  </si>
+  <si>
+    <t>https://www.neros.tech/#Products</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ANAFI UKR</t>
+  </si>
+  <si>
+    <t>Replaced by ANAFI UKR on Blue list</t>
+  </si>
+  <si>
+    <t>Mapping is a separate subscription</t>
+  </si>
+  <si>
+    <t>Black Hornet 4</t>
+  </si>
+  <si>
+    <t>Heli</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>Tablet+Controller</t>
+  </si>
+  <si>
+    <t>Personal Reconnaissance System for dismounted soldiers</t>
+  </si>
+  <si>
+    <t>https://www.flir.com/browse/government-defense/unmanned-aerial-systems/</t>
+  </si>
+  <si>
+    <t>Rogue 1</t>
+  </si>
+  <si>
+    <t>Optionally lethal</t>
+  </si>
+  <si>
+    <t>https://www.parrot.com/en/drones/anafi-ukr</t>
+  </si>
+  <si>
+    <t>Paladin</t>
+  </si>
+  <si>
+    <t>Zone 5 Technologies</t>
+  </si>
+  <si>
+    <t>Munitions, Rifle, Loudspeaker</t>
+  </si>
+  <si>
+    <t>Designed for Counter-UAS drone interception, explosive munitions drop, and combatant rifle takedowns.</t>
+  </si>
+  <si>
+    <t>https://www.zone5tech.com/</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1444,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1344,6 +1482,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1392,10 +1531,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N106" totalsRowShown="0">
-  <autoFilter ref="A1:N106" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N106">
-    <sortCondition ref="B1:B106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N117" totalsRowShown="0">
+  <autoFilter ref="A1:N117" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N114">
+    <sortCondition ref="B1:B114"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D437D100-220A-42E8-8A79-53DD0D82F2C1}" name="Model"/>
@@ -1716,11 +1855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A68" sqref="A68"/>
+      <selection pane="topRight" activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,8 +2050,8 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
-        <v>378</v>
+      <c r="J5" t="s">
+        <v>401</v>
       </c>
       <c r="L5" t="s">
         <v>107</v>
@@ -1986,8 +2125,8 @@
       <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
-        <v>378</v>
+      <c r="J7" t="s">
+        <v>401</v>
       </c>
       <c r="L7" t="s">
         <v>357</v>
@@ -2022,8 +2161,8 @@
       <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="I8" t="s">
-        <v>378</v>
+      <c r="J8" t="s">
+        <v>401</v>
       </c>
       <c r="L8" t="s">
         <v>357</v>
@@ -2100,9 +2239,6 @@
       <c r="H10" t="s">
         <v>71</v>
       </c>
-      <c r="I10" t="s">
-        <v>378</v>
-      </c>
       <c r="J10" t="s">
         <v>53</v>
       </c>
@@ -2499,9 +2635,6 @@
       <c r="H21" t="s">
         <v>67</v>
       </c>
-      <c r="I21" t="s">
-        <v>378</v>
-      </c>
       <c r="J21" t="s">
         <v>53</v>
       </c>
@@ -2538,9 +2671,6 @@
       <c r="H22" t="s">
         <v>67</v>
       </c>
-      <c r="I22" t="s">
-        <v>378</v>
-      </c>
       <c r="J22" t="s">
         <v>53</v>
       </c>
@@ -3319,10 +3449,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>403</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -3330,17 +3460,15 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="6">
-        <v>15000</v>
-      </c>
+      <c r="E45" s="5"/>
       <c r="F45" s="2" t="s">
-        <v>159</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>405</v>
       </c>
       <c r="I45" t="s">
         <v>378</v>
@@ -3348,59 +3476,62 @@
       <c r="J45" t="s">
         <v>53</v>
       </c>
-      <c r="L45" t="s">
-        <v>160</v>
-      </c>
-      <c r="M45" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
+      <c r="M45" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/EdgeAutonomy-VXE30Stalker-US.jpg</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>161</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>382</v>
+        <v>15</v>
       </c>
       <c r="E46" s="6">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>378</v>
+      </c>
+      <c r="J46" t="s">
+        <v>53</v>
       </c>
       <c r="L46" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M46" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
+        <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -3409,28 +3540,31 @@
         <v>382</v>
       </c>
       <c r="E47" s="6">
-        <v>18200</v>
+        <v>40000</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="L47" t="s">
+        <v>61</v>
       </c>
       <c r="M47" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
+        <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>396</v>
+      <c r="A48" t="s">
+        <v>387</v>
       </c>
       <c r="B48" t="s">
         <v>69</v>
@@ -3441,32 +3575,33 @@
       <c r="D48" t="s">
         <v>382</v>
       </c>
-      <c r="E48" s="6">
-        <v>28500</v>
+      <c r="E48" s="5">
+        <v>26000</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>388</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>378</v>
       </c>
       <c r="J48" t="s">
         <v>53</v>
       </c>
       <c r="M48" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Alta-X(NDAA)-US.jpg</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>/dronetable/images/Freefly-Astro(Blue)-US.jpg</v>
+      </c>
+      <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s">
         <v>69</v>
@@ -3477,8 +3612,8 @@
       <c r="D49" t="s">
         <v>382</v>
       </c>
-      <c r="E49" s="6">
-        <v>20000</v>
+      <c r="E49" s="5">
+        <v>39289.800000000003</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>170</v>
@@ -3489,20 +3624,26 @@
       <c r="H49" t="s">
         <v>25</v>
       </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
       <c r="J49" t="s">
         <v>53</v>
       </c>
-      <c r="M49" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Astro-US.jpg</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>171</v>
+      <c r="L49" t="s">
+        <v>408</v>
+      </c>
+      <c r="M49" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-AstroMax(Blue)-US.jpg</v>
+      </c>
+      <c r="N49" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>387</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
@@ -3513,69 +3654,68 @@
       <c r="D50" t="s">
         <v>382</v>
       </c>
-      <c r="E50" s="5">
-        <v>26000</v>
+      <c r="E50" s="6">
+        <v>18200</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>388</v>
+        <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" t="s">
-        <v>378</v>
-      </c>
-      <c r="J50" t="s">
+        <v>71</v>
+      </c>
+      <c r="M50" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>382</v>
+      </c>
+      <c r="E51" s="6">
+        <v>28500</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s">
         <v>53</v>
       </c>
-      <c r="M50" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Freefly-Astro(Blue)-US.jpg</v>
-      </c>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>308</v>
-      </c>
-      <c r="B51" t="s">
-        <v>309</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>382</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" t="s">
-        <v>295</v>
-      </c>
-      <c r="H51" t="s">
-        <v>25</v>
-      </c>
       <c r="M51" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
+        <v>/dronetable/images/Freefly-Alta-X(NDAA)-US.jpg</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -3583,41 +3723,35 @@
       <c r="D52" t="s">
         <v>382</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>51</v>
+      <c r="E52" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="G52" t="s">
-        <v>295</v>
+        <v>388</v>
       </c>
       <c r="H52" t="s">
         <v>25</v>
       </c>
-      <c r="I52" t="s">
-        <v>378</v>
-      </c>
       <c r="J52" t="s">
         <v>53</v>
       </c>
-      <c r="L52" t="s">
-        <v>312</v>
-      </c>
       <c r="M52" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
+        <v>/dronetable/images/Freefly-Astro-US.jpg</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>310</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -3625,41 +3759,38 @@
       <c r="D53" t="s">
         <v>382</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>51</v>
+      <c r="E53" s="5">
+        <v>49995</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>411</v>
       </c>
       <c r="H53" t="s">
         <v>25</v>
       </c>
-      <c r="I53" t="s">
-        <v>378</v>
-      </c>
       <c r="J53" t="s">
         <v>53</v>
       </c>
       <c r="L53" t="s">
-        <v>314</v>
-      </c>
-      <c r="M53" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>315</v>
+        <v>412</v>
+      </c>
+      <c r="M53" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-FlyingSun500-US.jpg</v>
+      </c>
+      <c r="N53" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>316</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -3667,282 +3798,282 @@
       <c r="D54" t="s">
         <v>382</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>317</v>
+      <c r="E54" s="5">
+        <v>59995</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>411</v>
       </c>
       <c r="H54" t="s">
         <v>25</v>
       </c>
-      <c r="M54" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>318</v>
+      <c r="J54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L54" t="s">
+        <v>412</v>
+      </c>
+      <c r="M54" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Freefly-FlyingSun1000-US.jpg</v>
+      </c>
+      <c r="N54" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>382</v>
       </c>
-      <c r="E55" s="6">
-        <v>360</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>263</v>
+      <c r="E55" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="H55" t="s">
-        <v>175</v>
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>53</v>
       </c>
       <c r="L55" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="M55" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
         <v>382</v>
       </c>
-      <c r="E56" s="6">
-        <v>210</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>247</v>
+      <c r="E56" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H56" t="s">
-        <v>175</v>
+        <v>25</v>
+      </c>
+      <c r="J56" t="s">
+        <v>53</v>
       </c>
       <c r="L56" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="M56" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
         <v>382</v>
       </c>
-      <c r="E57" s="6">
-        <v>250</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>174</v>
+      <c r="E57" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
-      </c>
-      <c r="L57" t="s">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="M57" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
         <v>382</v>
       </c>
-      <c r="E58" s="6">
-        <v>270</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>174</v>
+      <c r="E58" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="H58" t="s">
-        <v>175</v>
-      </c>
-      <c r="L58" t="s">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="M58" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
+        <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
         <v>382</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>290</v>
+      <c r="E59" s="6">
+        <v>360</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="G59" t="s">
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>60</v>
-      </c>
-      <c r="J59" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="L59" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="M59" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
-      </c>
-      <c r="N59" t="s">
-        <v>322</v>
+        <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
         <v>382</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>290</v>
+      <c r="E60" s="6">
+        <v>210</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="G60" t="s">
         <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>60</v>
-      </c>
-      <c r="J60" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="L60" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="M60" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
-      </c>
-      <c r="N60" t="s">
-        <v>325</v>
+        <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
         <v>382</v>
       </c>
       <c r="E61" s="6">
-        <v>17250</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>389</v>
+        <v>250</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
-      </c>
-      <c r="J61" t="s">
-        <v>53</v>
+        <v>175</v>
+      </c>
+      <c r="L61" t="s">
+        <v>264</v>
       </c>
       <c r="M61" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-210-US.jpg</v>
+        <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="S61" t="s">
         <v>384</v>
@@ -3950,46 +4081,46 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
         <v>382</v>
       </c>
-      <c r="E62" s="14">
-        <v>21560</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>392</v>
+      <c r="E62" s="6">
+        <v>270</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>25</v>
-      </c>
-      <c r="J62" t="s">
-        <v>53</v>
+        <v>175</v>
+      </c>
+      <c r="L62" t="s">
+        <v>264</v>
       </c>
       <c r="M62" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
+        <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3997,35 +4128,41 @@
       <c r="D63" t="s">
         <v>382</v>
       </c>
-      <c r="E63" s="6">
-        <v>30520</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>390</v>
+      <c r="E63" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H63" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="I63" t="s">
+        <v>378</v>
       </c>
       <c r="J63" t="s">
         <v>53</v>
       </c>
+      <c r="L63" t="s">
+        <v>61</v>
+      </c>
       <c r="M63" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>77</v>
+        <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
+      </c>
+      <c r="N63" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -4033,32 +4170,35 @@
       <c r="D64" t="s">
         <v>382</v>
       </c>
-      <c r="E64" s="6">
-        <v>55500</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>391</v>
+      <c r="E64" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J64" t="s">
         <v>53</v>
       </c>
+      <c r="L64" t="s">
+        <v>61</v>
+      </c>
       <c r="M64" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>48</v>
+        <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
+      </c>
+      <c r="N64" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>393</v>
+        <v>147</v>
       </c>
       <c r="B65" t="s">
         <v>46</v>
@@ -4069,11 +4209,11 @@
       <c r="D65" t="s">
         <v>382</v>
       </c>
-      <c r="E65" s="5">
-        <v>44450</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>394</v>
+      <c r="E65" s="6">
+        <v>17250</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="G65" t="s">
         <v>47</v>
@@ -4086,18 +4226,18 @@
       </c>
       <c r="M65" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Hylio-HYL-150-US.jpg</v>
+        <v>/dronetable/images/Hylio-AG-210-US.jpg</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>395</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -4105,38 +4245,35 @@
       <c r="D66" t="s">
         <v>382</v>
       </c>
-      <c r="E66" s="6">
-        <v>29000</v>
-      </c>
-      <c r="F66" s="1">
-        <v>48.5</v>
+      <c r="E66" s="14">
+        <v>21560</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>71</v>
-      </c>
-      <c r="I66" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="J66" t="s">
         <v>53</v>
       </c>
       <c r="M66" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
+        <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -4144,35 +4281,35 @@
       <c r="D67" t="s">
         <v>382</v>
       </c>
-      <c r="E67" s="7">
-        <v>28000</v>
-      </c>
-      <c r="F67" s="1">
-        <v>48.5</v>
+      <c r="E67" s="6">
+        <v>30520</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="J67" t="s">
         <v>53</v>
       </c>
       <c r="M67" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>87</v>
+        <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>153</v>
+      <c r="A68" t="s">
+        <v>45</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -4180,38 +4317,35 @@
       <c r="D68" t="s">
         <v>382</v>
       </c>
-      <c r="E68" s="7">
-        <v>16000</v>
+      <c r="E68" s="6">
+        <v>55500</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="G68" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>71</v>
-      </c>
-      <c r="I68" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="J68" t="s">
         <v>53</v>
       </c>
       <c r="M68" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>156</v>
+        <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>393</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -4219,143 +4353,143 @@
       <c r="D69" t="s">
         <v>382</v>
       </c>
-      <c r="E69" s="6">
-        <v>20000</v>
+      <c r="E69" s="5">
+        <v>44450</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>121</v>
+        <v>394</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="J69" t="s">
         <v>53</v>
       </c>
       <c r="M69" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
+        <v>/dronetable/images/Hylio-HYL-150-US.jpg</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
         <v>382</v>
       </c>
       <c r="E70" s="6">
-        <v>56000</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>41</v>
+        <v>29000</v>
+      </c>
+      <c r="F70" s="1">
+        <v>48.5</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>71</v>
+      </c>
+      <c r="J70" t="s">
+        <v>53</v>
       </c>
       <c r="M70" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
-      </c>
-      <c r="N70" t="s">
-        <v>44</v>
+        <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>63</v>
+      <c r="A71" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
         <v>382</v>
       </c>
-      <c r="E71" s="6">
-        <v>40000</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>66</v>
+      <c r="E71" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G71" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="H71" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J71" t="s">
         <v>53</v>
       </c>
       <c r="M71" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
-      </c>
-      <c r="N71" s="4" t="s">
-        <v>68</v>
+        <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>326</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
         <v>382</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>327</v>
+      <c r="E72" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="G72" t="s">
-        <v>328</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="J72" t="s">
         <v>53</v>
       </c>
       <c r="M72" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
-      </c>
-      <c r="N72" t="s">
-        <v>329</v>
+        <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -4363,293 +4497,314 @@
       <c r="D73" t="s">
         <v>382</v>
       </c>
-      <c r="E73" s="6">
-        <v>4500</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>174</v>
+      <c r="E73" s="7">
+        <v>28000</v>
+      </c>
+      <c r="F73" s="1">
+        <v>48.5</v>
       </c>
       <c r="G73" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H73" t="s">
-        <v>175</v>
-      </c>
-      <c r="L73" t="s">
-        <v>176</v>
+        <v>71</v>
+      </c>
+      <c r="J73" t="s">
+        <v>53</v>
       </c>
       <c r="M73" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
-      </c>
-      <c r="N73" s="4" t="s">
-        <v>222</v>
+        <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
         <v>382</v>
       </c>
       <c r="E74" s="6">
-        <v>7000</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>174</v>
+        <v>56000</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H74" t="s">
-        <v>175</v>
-      </c>
-      <c r="L74" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="M74" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
-      </c>
-      <c r="N74" s="4" t="s">
-        <v>177</v>
+        <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
+      </c>
+      <c r="N74" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
         <v>382</v>
       </c>
       <c r="E75" s="6">
-        <v>14000</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>174</v>
+        <v>40000</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G75" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>175</v>
-      </c>
-      <c r="I75" t="s">
-        <v>378</v>
+        <v>67</v>
       </c>
       <c r="J75" t="s">
         <v>53</v>
       </c>
-      <c r="L75" t="s">
-        <v>176</v>
-      </c>
       <c r="M75" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
+        <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>177</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D76" t="s">
         <v>382</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>332</v>
+      <c r="F76" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="G76" t="s">
-        <v>333</v>
-      </c>
-      <c r="I76" t="s">
-        <v>378</v>
+        <v>328</v>
+      </c>
+      <c r="H76" t="s">
+        <v>67</v>
       </c>
       <c r="J76" t="s">
         <v>53</v>
       </c>
       <c r="M76" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PDW-C100-US.jpg</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>334</v>
+        <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
+      </c>
+      <c r="N76" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="B77" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="C77" t="s">
-        <v>337</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
         <v>382</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>332</v>
+      <c r="E77" s="5">
+        <v>5999</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="G77" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="H77" t="s">
-        <v>338</v>
-      </c>
-      <c r="M77" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>339</v>
+        <v>416</v>
+      </c>
+      <c r="I77" t="s">
+        <v>378</v>
+      </c>
+      <c r="J77" t="s">
+        <v>53</v>
+      </c>
+      <c r="L77" t="s">
+        <v>417</v>
+      </c>
+      <c r="M77" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ModalAI-SeekerVisionMax-US.jpg</v>
+      </c>
+      <c r="N77" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="C78" t="s">
-        <v>337</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>382</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="5">
+        <v>3099</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G78" t="s">
+        <v>420</v>
+      </c>
+      <c r="H78" t="s">
+        <v>416</v>
+      </c>
+      <c r="J78" t="s">
+        <v>53</v>
+      </c>
+      <c r="L78" t="s">
+        <v>421</v>
+      </c>
+      <c r="M78" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ModalAI-PX4AutonomyDevKit-US.jpg</v>
+      </c>
+      <c r="N78" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>423</v>
+      </c>
+      <c r="B79" t="s">
+        <v>424</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>382</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G78" t="s">
-        <v>341</v>
-      </c>
-      <c r="H78" t="s">
-        <v>338</v>
-      </c>
-      <c r="M78" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B79" t="s">
-        <v>336</v>
-      </c>
-      <c r="C79" t="s">
-        <v>337</v>
-      </c>
-      <c r="D79" t="s">
-        <v>382</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>344</v>
+      <c r="F79" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="G79" t="s">
-        <v>59</v>
+        <v>425</v>
       </c>
       <c r="H79" t="s">
-        <v>338</v>
-      </c>
-      <c r="M79" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>345</v>
+        <v>416</v>
+      </c>
+      <c r="I79" t="s">
+        <v>378</v>
+      </c>
+      <c r="J79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L79" t="s">
+        <v>426</v>
+      </c>
+      <c r="M79" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/NerosTechnologies-Archer-US.jpg</v>
+      </c>
+      <c r="N79" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="7">
-        <v>19300</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>126</v>
+        <v>382</v>
+      </c>
+      <c r="E80" s="6">
+        <v>7000</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="G80" t="s">
         <v>59</v>
       </c>
       <c r="H80" t="s">
-        <v>71</v>
+        <v>175</v>
+      </c>
+      <c r="J80" t="s">
+        <v>53</v>
+      </c>
+      <c r="L80" t="s">
+        <v>430</v>
       </c>
       <c r="M80" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
-      </c>
-      <c r="N80" s="8" t="s">
-        <v>127</v>
+        <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
         <v>382</v>
       </c>
       <c r="E81" s="6">
-        <v>330</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>272</v>
+        <v>4500</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="G81" t="s">
         <v>24</v>
@@ -4657,542 +4812,524 @@
       <c r="H81" t="s">
         <v>175</v>
       </c>
+      <c r="L81" t="s">
+        <v>176</v>
+      </c>
       <c r="M81" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Ruko-F11-China.jpg</v>
+        <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="B82" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>382</v>
       </c>
       <c r="E82" s="6">
-        <v>380</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>259</v>
+        <v>7000</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H82" t="s">
         <v>175</v>
       </c>
+      <c r="L82" t="s">
+        <v>176</v>
+      </c>
       <c r="M82" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
+        <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>260</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>283</v>
+        <v>429</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>382</v>
       </c>
-      <c r="E83" s="6">
-        <v>230</v>
+      <c r="E83" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="G83" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H83" t="s">
-        <v>175</v>
-      </c>
-      <c r="L83" t="s">
-        <v>264</v>
-      </c>
-      <c r="M83" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
+        <v>25</v>
+      </c>
+      <c r="I83" t="s">
+        <v>378</v>
+      </c>
+      <c r="J83" t="s">
+        <v>53</v>
+      </c>
+      <c r="M83" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Parrot-ANAFIUKR-US.jpg</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>270</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>382</v>
       </c>
-      <c r="E84" s="6">
-        <v>351</v>
+      <c r="E84" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" t="s">
-        <v>175</v>
-      </c>
-      <c r="L84" t="s">
-        <v>264</v>
+        <v>333</v>
+      </c>
+      <c r="I84" t="s">
+        <v>378</v>
+      </c>
+      <c r="J84" t="s">
+        <v>53</v>
       </c>
       <c r="M84" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
+        <v>/dronetable/images/PDW-C100-US.jpg</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="C85" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="D85" t="s">
         <v>382</v>
       </c>
-      <c r="E85" s="6">
-        <v>360</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>247</v>
+      <c r="E85" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H85" t="s">
-        <v>175</v>
-      </c>
-      <c r="L85" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="M85" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
+        <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="D86" t="s">
         <v>382</v>
       </c>
-      <c r="E86" s="7">
-        <v>230</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>281</v>
+      <c r="E86" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="G86" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="H86" t="s">
-        <v>175</v>
-      </c>
-      <c r="L86" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="M86" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
-      </c>
-      <c r="N86" s="8" t="s">
-        <v>282</v>
+        <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>284</v>
+      <c r="A87" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="D87" t="s">
         <v>382</v>
       </c>
-      <c r="E87" s="7">
-        <v>230</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>281</v>
+      <c r="E87" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H87" t="s">
-        <v>175</v>
-      </c>
-      <c r="L87" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="M87" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
-      </c>
-      <c r="N87" t="s">
-        <v>282</v>
+        <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D88" t="s">
-        <v>382</v>
-      </c>
-      <c r="E88" s="6">
-        <v>260</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>263</v>
+        <v>15</v>
+      </c>
+      <c r="E88" s="7">
+        <v>19300</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="G88" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H88" t="s">
-        <v>175</v>
-      </c>
-      <c r="L88" t="s">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="M88" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>277</v>
+        <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
         <v>382</v>
       </c>
       <c r="E89" s="6">
-        <v>999</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1.7</v>
+        <v>330</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="G89" t="s">
         <v>24</v>
       </c>
       <c r="H89" t="s">
-        <v>43</v>
-      </c>
-      <c r="L89" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="M89" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-2+-US.jpg</v>
+        <v>/dronetable/images/Ruko-F11-China.jpg</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
         <v>382</v>
       </c>
       <c r="E90" s="6">
-        <v>18000</v>
+        <v>380</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="G90" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I90" t="s">
-        <v>378</v>
-      </c>
-      <c r="J90" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="M90" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X10-US.jpg</v>
+        <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>382</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>290</v>
+      <c r="E91" s="6">
+        <v>230</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>369</v>
+        <v>247</v>
       </c>
       <c r="G91" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>25</v>
-      </c>
-      <c r="I91" t="s">
-        <v>378</v>
+        <v>175</v>
+      </c>
+      <c r="L91" t="s">
+        <v>264</v>
       </c>
       <c r="M91" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X10D-US.jpg</v>
+        <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D92" t="s">
         <v>382</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>290</v>
+      <c r="E92" s="6">
+        <v>351</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="G92" t="s">
         <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I92" t="s">
-        <v>378</v>
+        <v>175</v>
       </c>
       <c r="L92" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="M92" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X2D-US.jpg</v>
+        <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>367</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
         <v>382</v>
       </c>
       <c r="E93" s="6">
-        <v>14999</v>
-      </c>
-      <c r="F93" s="1">
-        <v>1.7</v>
+        <v>360</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="G93" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>25</v>
-      </c>
-      <c r="I93" t="s">
-        <v>378</v>
-      </c>
-      <c r="J93" t="s">
-        <v>53</v>
+        <v>175</v>
+      </c>
+      <c r="L93" t="s">
+        <v>264</v>
       </c>
       <c r="M93" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skydio-X2E-US.jpg</v>
+        <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>168</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>82</v>
+        <v>382</v>
+      </c>
+      <c r="E94" s="7">
+        <v>230</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="G94" t="s">
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>71</v>
+        <v>175</v>
+      </c>
+      <c r="L94" t="s">
+        <v>264</v>
       </c>
       <c r="M94" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>349</v>
+        <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
+      </c>
+      <c r="N94" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>284</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
         <v>382</v>
       </c>
-      <c r="E95" s="6">
-        <v>46800</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>51</v>
+      <c r="E95" s="7">
+        <v>230</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H95" t="s">
-        <v>52</v>
-      </c>
-      <c r="J95" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="L95" t="s">
-        <v>54</v>
+        <v>264</v>
       </c>
       <c r="M95" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>55</v>
+        <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
+      </c>
+      <c r="N95" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
         <v>382</v>
       </c>
       <c r="E96" s="6">
-        <v>9000</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>154</v>
+        <v>260</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="G96" t="s">
         <v>24</v>
@@ -5201,22 +5338,22 @@
         <v>175</v>
       </c>
       <c r="L96" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="M96" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
+        <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -5224,11 +5361,11 @@
       <c r="D97" t="s">
         <v>382</v>
       </c>
-      <c r="E97" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>180</v>
+      <c r="E97" s="6">
+        <v>18000</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="G97" t="s">
         <v>59</v>
@@ -5236,29 +5373,26 @@
       <c r="H97" t="s">
         <v>25</v>
       </c>
-      <c r="I97" t="s">
-        <v>378</v>
-      </c>
       <c r="J97" t="s">
         <v>53</v>
       </c>
       <c r="L97" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
       <c r="M97" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
-      </c>
-      <c r="N97" t="s">
-        <v>182</v>
+        <v>/dronetable/images/Skydio-X10-US.jpg</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B98" t="s">
-        <v>372</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -5270,10 +5404,10 @@
         <v>290</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G98" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H98" t="s">
         <v>25</v>
@@ -5281,53 +5415,65 @@
       <c r="I98" t="s">
         <v>378</v>
       </c>
+      <c r="J98" t="s">
+        <v>53</v>
+      </c>
       <c r="M98" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teal-Teal2-US.jpg</v>
+        <v>/dronetable/images/Skydio-X10D-US.jpg</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>364</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
         <v>382</v>
       </c>
-      <c r="E99" s="6">
-        <v>9695</v>
+      <c r="E99" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>197</v>
+        <v>365</v>
       </c>
       <c r="G99" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H99" t="s">
         <v>25</v>
       </c>
+      <c r="I99" t="s">
+        <v>378</v>
+      </c>
+      <c r="J99" t="s">
+        <v>53</v>
+      </c>
+      <c r="L99" t="s">
+        <v>366</v>
+      </c>
       <c r="M99" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
+        <v>/dronetable/images/Skydio-X2D-US.jpg</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -5336,106 +5482,103 @@
         <v>382</v>
       </c>
       <c r="E100" s="6">
-        <v>7700</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>208</v>
+        <v>14999</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1.7</v>
       </c>
       <c r="G100" t="s">
         <v>59</v>
       </c>
       <c r="H100" t="s">
-        <v>60</v>
-      </c>
-      <c r="I100" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="J100" t="s">
         <v>53</v>
       </c>
-      <c r="L100" t="s">
-        <v>209</v>
-      </c>
       <c r="M100" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
-      </c>
-      <c r="N100" t="s">
-        <v>210</v>
+        <v>/dronetable/images/Skydio-X2E-US.jpg</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>129</v>
+        <v>382</v>
       </c>
       <c r="E101" s="6">
-        <v>18750</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>130</v>
+        <v>999</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1.7</v>
       </c>
       <c r="G101" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H101" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="L101" t="s">
+        <v>249</v>
       </c>
       <c r="M101" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
+        <v>/dronetable/images/Skydio-2+-US.jpg</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="D102" t="s">
-        <v>382</v>
-      </c>
-      <c r="E102" s="6">
-        <v>26050</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H102" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="M102" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
+        <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>97</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>78</v>
+      <c r="A103" t="s">
+        <v>49</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -5443,172 +5586,556 @@
       <c r="D103" t="s">
         <v>382</v>
       </c>
-      <c r="E103" s="7">
-        <v>29999</v>
-      </c>
-      <c r="F103" s="1" t="s">
+      <c r="E103" s="6">
+        <v>46800</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G103" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H103" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="I103" t="s">
+        <v>378</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
       </c>
+      <c r="L103" t="s">
+        <v>54</v>
+      </c>
       <c r="M103" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
-      </c>
-      <c r="N103" t="s">
-        <v>80</v>
+        <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>382</v>
       </c>
       <c r="E104" s="6">
-        <v>22000</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>106</v>
+        <v>9000</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H104" t="s">
-        <v>60</v>
-      </c>
-      <c r="I104" t="s">
-        <v>378</v>
-      </c>
-      <c r="J104" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="L104" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="M104" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
-      </c>
-      <c r="N104" t="s">
-        <v>108</v>
+        <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="6">
-        <v>35085</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>74</v>
+        <v>382</v>
+      </c>
+      <c r="E105" s="7">
+        <v>14000</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="G105" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H105" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="I105" t="s">
+        <v>378</v>
+      </c>
+      <c r="J105" t="s">
+        <v>53</v>
+      </c>
+      <c r="L105" t="s">
+        <v>181</v>
       </c>
       <c r="M105" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
-      </c>
-      <c r="N105" s="4" t="s">
-        <v>75</v>
+        <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
+      </c>
+      <c r="N105" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>371</v>
+      </c>
+      <c r="B106" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>382</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G106" t="s">
+        <v>86</v>
+      </c>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s">
+        <v>378</v>
+      </c>
+      <c r="M106" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teal-Teal2-US.jpg</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" t="s">
+        <v>382</v>
+      </c>
+      <c r="E107" s="6">
+        <v>9695</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G107" t="s">
+        <v>59</v>
+      </c>
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+      <c r="M107" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>382</v>
+      </c>
+      <c r="E108" s="6">
+        <v>7700</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G108" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" t="s">
+        <v>60</v>
+      </c>
+      <c r="I108" t="s">
+        <v>378</v>
+      </c>
+      <c r="J108" t="s">
+        <v>53</v>
+      </c>
+      <c r="L108" t="s">
+        <v>209</v>
+      </c>
+      <c r="M108" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
+      </c>
+      <c r="N108" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" s="6">
+        <v>18750</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" t="s">
+        <v>59</v>
+      </c>
+      <c r="H109" t="s">
+        <v>25</v>
+      </c>
+      <c r="M109" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>382</v>
+      </c>
+      <c r="E110" s="6">
+        <v>26050</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G110" t="s">
+        <v>42</v>
+      </c>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="M110" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>382</v>
+      </c>
+      <c r="E111" s="7">
+        <v>29999</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" t="s">
+        <v>53</v>
+      </c>
+      <c r="M111" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
+      </c>
+      <c r="N111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="6">
+        <v>22000</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G112" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112" t="s">
+        <v>60</v>
+      </c>
+      <c r="I112" t="s">
+        <v>378</v>
+      </c>
+      <c r="J112" t="s">
+        <v>53</v>
+      </c>
+      <c r="L112" t="s">
+        <v>107</v>
+      </c>
+      <c r="M112" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
+      </c>
+      <c r="N112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="6">
+        <v>35085</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+      <c r="M113" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>81</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B114" t="s">
         <v>73</v>
       </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E114" s="6">
         <v>29300</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G114" t="s">
         <v>42</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H114" t="s">
         <v>71</v>
       </c>
-      <c r="M106" t="str">
+      <c r="M114" t="str">
         <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/ZephyrSystems-OKO-250-US.jpg</v>
       </c>
-      <c r="N106" t="s">
+      <c r="N114" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E107" s="5"/>
-      <c r="F107" s="2"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E108" s="5"/>
-      <c r="F108" s="2"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E109" s="5"/>
-      <c r="F109" s="2"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E110" s="5"/>
-      <c r="F110" s="2"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E111" s="5"/>
-      <c r="F111" s="2"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E112" s="5"/>
-      <c r="F112" s="2"/>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E113" s="5"/>
-      <c r="F113" s="2"/>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E114" s="5"/>
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="5"/>
-      <c r="F115" s="2"/>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>432</v>
+      </c>
+      <c r="B115" t="s">
+        <v>195</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>433</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G115" t="s">
+        <v>86</v>
+      </c>
+      <c r="H115" t="s">
+        <v>435</v>
+      </c>
+      <c r="I115" t="s">
+        <v>378</v>
+      </c>
+      <c r="J115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L115" t="s">
+        <v>436</v>
+      </c>
+      <c r="M115" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teledyne-BlackHornet4-US.jpg</v>
+      </c>
+      <c r="N115" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" t="s">
+        <v>195</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>382</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G116" t="s">
+        <v>86</v>
+      </c>
+      <c r="H116" t="s">
+        <v>435</v>
+      </c>
+      <c r="J116" t="s">
+        <v>53</v>
+      </c>
+      <c r="L116" t="s">
+        <v>439</v>
+      </c>
+      <c r="M116" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teledyne-Rogue1-US.jpg</v>
+      </c>
+      <c r="N116" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>441</v>
+      </c>
+      <c r="B117" t="s">
+        <v>442</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" t="s">
+        <v>382</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G117" t="s">
+        <v>443</v>
+      </c>
+      <c r="H117" t="s">
+        <v>435</v>
+      </c>
+      <c r="I117" t="s">
+        <v>378</v>
+      </c>
+      <c r="J117" t="s">
+        <v>53</v>
+      </c>
+      <c r="L117" t="s">
+        <v>444</v>
+      </c>
+      <c r="M117" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Zone5Technologies-Paladin-US.jpg</v>
+      </c>
+      <c r="N117" t="s">
+        <v>445</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5617,61 +6144,61 @@
     <hyperlink ref="N10" r:id="rId2" xr:uid="{B8E29BEF-5DC3-415A-9A42-321C52A9698E}"/>
     <hyperlink ref="N15" r:id="rId3" xr:uid="{3EB35BBA-2E6E-43BC-9F2B-BA46D8129FCE}"/>
     <hyperlink ref="N33" r:id="rId4" xr:uid="{113E3222-47AA-4EC1-B25F-6603ADCCF7DC}"/>
-    <hyperlink ref="N70" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
-    <hyperlink ref="N66" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
-    <hyperlink ref="N73" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
-    <hyperlink ref="N77" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
-    <hyperlink ref="N89" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
-    <hyperlink ref="N96" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
-    <hyperlink ref="N80" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
-    <hyperlink ref="N101" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
-    <hyperlink ref="N103" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
-    <hyperlink ref="N105" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
-    <hyperlink ref="N106" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
-    <hyperlink ref="N104" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
-    <hyperlink ref="N71" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
-    <hyperlink ref="N72" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
+    <hyperlink ref="N74" r:id="rId5" xr:uid="{E76ECF00-CB52-4F02-A752-61C5587F148F}"/>
+    <hyperlink ref="N70" r:id="rId6" xr:uid="{96763A18-4A76-4CAF-8F46-2AEBDA8122B4}"/>
+    <hyperlink ref="N81" r:id="rId7" xr:uid="{A96AD513-2210-4167-B58D-E00F04A7C13F}"/>
+    <hyperlink ref="N85" r:id="rId8" xr:uid="{714269F3-10DD-4DA5-BA38-03588A033D6F}"/>
+    <hyperlink ref="N101" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
+    <hyperlink ref="N104" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
+    <hyperlink ref="N88" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
+    <hyperlink ref="N109" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
+    <hyperlink ref="N111" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
+    <hyperlink ref="N113" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
+    <hyperlink ref="N114" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
+    <hyperlink ref="N112" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
+    <hyperlink ref="N75" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
+    <hyperlink ref="N76" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
     <hyperlink ref="N2" r:id="rId19" xr:uid="{DC762510-5411-4346-ADC1-60C1710AEFF4}"/>
-    <hyperlink ref="N94" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
-    <hyperlink ref="N100" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
-    <hyperlink ref="N59" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
-    <hyperlink ref="N60" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
-    <hyperlink ref="N46" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
-    <hyperlink ref="N97" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
-    <hyperlink ref="N49" r:id="rId26" xr:uid="{64F6E8C6-878E-41CF-9C1C-AEFA73C8F7FC}"/>
-    <hyperlink ref="N47" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
-    <hyperlink ref="N48" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
+    <hyperlink ref="N102" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
+    <hyperlink ref="N108" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
+    <hyperlink ref="N64" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
+    <hyperlink ref="N63" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
+    <hyperlink ref="N47" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
+    <hyperlink ref="N105" r:id="rId25" xr:uid="{4A4BF59E-863D-4056-BA99-4412500931A3}"/>
+    <hyperlink ref="N52" r:id="rId26" xr:uid="{64F6E8C6-878E-41CF-9C1C-AEFA73C8F7FC}"/>
+    <hyperlink ref="N50" r:id="rId27" xr:uid="{D79012F5-D732-4123-8A63-FC96F17EE465}"/>
+    <hyperlink ref="N51" r:id="rId28" xr:uid="{27EE1F67-3F57-43DD-B499-67CE8FC0F2B3}"/>
     <hyperlink ref="N23" r:id="rId29" xr:uid="{7930AE8A-8903-499F-BF8A-0A53F8878139}"/>
     <hyperlink ref="N24" r:id="rId30" xr:uid="{C27966FD-A67B-4E75-8B4C-4104B1780811}"/>
     <hyperlink ref="N20" r:id="rId31" xr:uid="{4E79DE0E-747D-48A0-A3DF-A317F525AC99}"/>
-    <hyperlink ref="N81" r:id="rId32" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
-    <hyperlink ref="N82" r:id="rId33" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
+    <hyperlink ref="N89" r:id="rId32" xr:uid="{48585D31-C52A-401F-B97F-66507B5516CF}"/>
+    <hyperlink ref="N90" r:id="rId33" xr:uid="{997408FE-7845-4732-94A5-63CAF907A918}"/>
     <hyperlink ref="N21" r:id="rId34" xr:uid="{ACA47773-CA7B-4A93-B655-DCCB7CFFB97E}"/>
     <hyperlink ref="N3" r:id="rId35" xr:uid="{484AB161-02F7-4842-900B-06E05CBA3079}"/>
     <hyperlink ref="N9" r:id="rId36" xr:uid="{CB0C1422-2871-46D4-805F-64E91A0FCF19}"/>
-    <hyperlink ref="N45" r:id="rId37" xr:uid="{333F58F8-A830-48A8-AF31-563FA3C3331C}"/>
+    <hyperlink ref="N46" r:id="rId37" xr:uid="{333F58F8-A830-48A8-AF31-563FA3C3331C}"/>
     <hyperlink ref="N11" r:id="rId38" xr:uid="{20BEA2F4-F9E7-465C-8582-C32BB114A958}"/>
-    <hyperlink ref="N95" r:id="rId39" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
+    <hyperlink ref="N103" r:id="rId39" xr:uid="{E05C816B-24D1-47D1-83FC-F2464B0C83F5}"/>
     <hyperlink ref="N22" r:id="rId40" location="uas" xr:uid="{2C129CB9-17CF-4162-855D-4744CE573C87}"/>
-    <hyperlink ref="N76" r:id="rId41" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
-    <hyperlink ref="N90" r:id="rId42" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
+    <hyperlink ref="N84" r:id="rId41" xr:uid="{9CBDB7C4-F17B-4A05-B5EA-64F3C26E4D48}"/>
+    <hyperlink ref="N97" r:id="rId42" xr:uid="{C1B7E0B7-9768-4916-A5D4-F5E26A6C40D7}"/>
     <hyperlink ref="N19" r:id="rId43" xr:uid="{EC583CD3-7C3A-4D09-B7ED-0EC8AAAA3343}"/>
-    <hyperlink ref="N64" r:id="rId44" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
-    <hyperlink ref="N63" r:id="rId45" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
-    <hyperlink ref="N67" r:id="rId46" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
+    <hyperlink ref="N68" r:id="rId44" xr:uid="{6EFF2E66-EBC1-44DA-BA51-DAEE1699B161}"/>
+    <hyperlink ref="N67" r:id="rId45" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
+    <hyperlink ref="N73" r:id="rId46" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
     <hyperlink ref="N27" r:id="rId47" xr:uid="{A0523012-6C05-445A-974A-B3A49ABDACBD}"/>
-    <hyperlink ref="N102" r:id="rId48" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
-    <hyperlink ref="N62" r:id="rId49" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
+    <hyperlink ref="N110" r:id="rId48" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
+    <hyperlink ref="N66" r:id="rId49" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
     <hyperlink ref="N25" r:id="rId50" xr:uid="{422B5330-A905-4AB0-B139-84D956CD2FD4}"/>
     <hyperlink ref="N26" r:id="rId51" xr:uid="{B6B6B82A-AE51-4B42-9719-E5EA3598D511}"/>
-    <hyperlink ref="N69" r:id="rId52" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
-    <hyperlink ref="N61" r:id="rId53" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
+    <hyperlink ref="N72" r:id="rId52" xr:uid="{B8B4CFCE-10E3-44D4-A824-93D774B51D5F}"/>
+    <hyperlink ref="N65" r:id="rId53" xr:uid="{F897F191-5EF4-4ECE-9931-16E53BF09744}"/>
     <hyperlink ref="N30" r:id="rId54" xr:uid="{B2EC1F0D-EC36-406C-AAAE-962F29C1C690}"/>
     <hyperlink ref="N41" r:id="rId55" xr:uid="{5851B709-EE11-4040-A6C7-792A08E645BB}"/>
-    <hyperlink ref="N93" r:id="rId56" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
-    <hyperlink ref="N75" r:id="rId57" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
-    <hyperlink ref="N99" r:id="rId58" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
-    <hyperlink ref="N74" r:id="rId59" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
+    <hyperlink ref="N100" r:id="rId56" xr:uid="{A2B41339-E0B0-4679-8FDB-68CB73D735AC}"/>
+    <hyperlink ref="N80" r:id="rId57" xr:uid="{3EEC002F-A2F0-4FC7-8FD0-6D9C1E79CF82}"/>
+    <hyperlink ref="N107" r:id="rId58" xr:uid="{203B73B1-40F7-451E-AE59-E009BE1847FD}"/>
+    <hyperlink ref="N82" r:id="rId59" xr:uid="{4A429C33-7238-4C77-9556-D0E4E9E10BFF}"/>
     <hyperlink ref="N14" r:id="rId60" xr:uid="{47D34CCC-47E1-4B8F-9277-23B177A2C527}"/>
     <hyperlink ref="N38" r:id="rId61" xr:uid="{94228163-F868-4206-9105-EA09E5E25EBE}"/>
     <hyperlink ref="N13" r:id="rId62" xr:uid="{DBFCF21E-1457-4EF8-B2EA-7F6C3FA78E26}"/>
@@ -5682,41 +6209,43 @@
     <hyperlink ref="N35" r:id="rId67" xr:uid="{A825FDFA-08DE-4E45-B2DE-9F7470045A4A}"/>
     <hyperlink ref="N29" r:id="rId68" xr:uid="{87B2FCDE-C75E-49B7-9AA2-A26A9080A388}"/>
     <hyperlink ref="N39" r:id="rId69" xr:uid="{02B24B87-6439-4455-9EB9-975DF50A9832}"/>
-    <hyperlink ref="N55" r:id="rId70" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
-    <hyperlink ref="N85" r:id="rId71" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
-    <hyperlink ref="N84" r:id="rId72" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
-    <hyperlink ref="N58" r:id="rId73" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
-    <hyperlink ref="N88" r:id="rId74" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
-    <hyperlink ref="N57" r:id="rId75" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
-    <hyperlink ref="N83" r:id="rId76" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
-    <hyperlink ref="N56" r:id="rId77" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
+    <hyperlink ref="N59" r:id="rId70" xr:uid="{DC386F16-05DD-4CFE-9A1F-60DF0BD1FD17}"/>
+    <hyperlink ref="N93" r:id="rId71" xr:uid="{84CCF424-4084-4189-9E8C-DD014089AA48}"/>
+    <hyperlink ref="N92" r:id="rId72" xr:uid="{B2057A98-469D-4604-86AA-0923C8F6D3DF}"/>
+    <hyperlink ref="N62" r:id="rId73" xr:uid="{76883C09-5FC6-4F59-BCED-40149B1801CC}"/>
+    <hyperlink ref="N96" r:id="rId74" xr:uid="{CDA65A4F-9963-4534-B2A7-48DDC872F9E6}"/>
+    <hyperlink ref="N61" r:id="rId75" xr:uid="{2A766A32-22CC-435C-82EA-CBABD90ED6A4}"/>
+    <hyperlink ref="N91" r:id="rId76" xr:uid="{4C4ACFC8-245B-4037-8F2D-3D9ED607379F}"/>
+    <hyperlink ref="N60" r:id="rId77" xr:uid="{E7684420-0B95-478D-9754-5B3612C2DC00}"/>
     <hyperlink ref="N42" r:id="rId78" xr:uid="{295CA37D-1AD1-4E9E-8924-8E62F6AC71AC}"/>
-    <hyperlink ref="N51" r:id="rId79" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
-    <hyperlink ref="N53" r:id="rId80" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
-    <hyperlink ref="N54" r:id="rId81" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
-    <hyperlink ref="N78" r:id="rId82" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
+    <hyperlink ref="N57" r:id="rId79" xr:uid="{E851AC26-E06B-44CC-8280-0188441A66C0}"/>
+    <hyperlink ref="N56" r:id="rId80" xr:uid="{0C81361B-9AC6-4847-AAB0-E742D2DB6652}"/>
+    <hyperlink ref="N58" r:id="rId81" xr:uid="{21A49F3B-5E07-41CD-974A-88B0BE7A02C3}"/>
+    <hyperlink ref="N86" r:id="rId82" xr:uid="{BA60A218-A079-4ED5-9F00-1CA2A877B2F0}"/>
     <hyperlink ref="N5" r:id="rId83" xr:uid="{B8EEF89A-4F04-454F-A259-4DFF0690D481}"/>
     <hyperlink ref="N7" r:id="rId84" xr:uid="{CE7BCF13-6582-4B09-9229-8A802DDED0E6}"/>
     <hyperlink ref="N8" r:id="rId85" xr:uid="{26F63D41-5725-4371-9C40-4A585DEA85B9}"/>
-    <hyperlink ref="N91" r:id="rId86" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
+    <hyperlink ref="N98" r:id="rId86" xr:uid="{23099558-C45C-4408-B6E2-3FED92C28827}"/>
     <hyperlink ref="N16" r:id="rId87" xr:uid="{EB24426B-29A4-4CF8-B587-4B40E8A5DAB6}"/>
-    <hyperlink ref="N68" r:id="rId88" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
+    <hyperlink ref="N71" r:id="rId88" xr:uid="{39803442-3374-42EE-8EFD-EF97510F1FFD}"/>
     <hyperlink ref="N40" r:id="rId89" xr:uid="{A01C861A-5B15-4690-8AD2-2B7772918BDE}"/>
-    <hyperlink ref="N98" r:id="rId90" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
-    <hyperlink ref="N92" r:id="rId91" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
+    <hyperlink ref="N106" r:id="rId90" xr:uid="{C2BBE7DA-7283-41FA-96F1-C3A967ACDC54}"/>
+    <hyperlink ref="N99" r:id="rId91" xr:uid="{714F88C1-549C-4B98-9A9C-553FCE39A915}"/>
     <hyperlink ref="N43" r:id="rId92" xr:uid="{E5279318-3BFF-4592-9619-A1D3C16C3193}"/>
     <hyperlink ref="N44" r:id="rId93" xr:uid="{4FF7E709-8E9D-4104-804F-DA7C4F3B79F5}"/>
-    <hyperlink ref="N79" r:id="rId94" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
-    <hyperlink ref="N86" r:id="rId95" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
+    <hyperlink ref="N87" r:id="rId94" xr:uid="{A257A365-2349-4E08-A44C-E58F9813E18A}"/>
+    <hyperlink ref="N94" r:id="rId95" xr:uid="{B2A5333C-2C9A-4021-BA81-869B8A945844}"/>
     <hyperlink ref="N32" r:id="rId96" xr:uid="{ED5CEAD5-211C-49ED-91F7-7CA594E683C7}"/>
     <hyperlink ref="N31" r:id="rId97" xr:uid="{6B7E767F-6358-4920-8A0C-27577E090171}"/>
-    <hyperlink ref="N52" r:id="rId98" xr:uid="{7F760014-2639-4875-9DFD-DA03049D33B6}"/>
-    <hyperlink ref="N65" r:id="rId99" xr:uid="{721375D7-F490-4054-8E3D-7CE6E21B11D1}"/>
+    <hyperlink ref="N55" r:id="rId98" xr:uid="{7F760014-2639-4875-9DFD-DA03049D33B6}"/>
+    <hyperlink ref="N69" r:id="rId99" xr:uid="{721375D7-F490-4054-8E3D-7CE6E21B11D1}"/>
+    <hyperlink ref="N45" r:id="rId100" xr:uid="{46F0C67D-A3D5-4172-AA42-E0503BBA35FD}"/>
+    <hyperlink ref="N83" r:id="rId101" xr:uid="{0495BFA1-B469-4777-AC41-EA153F78A416}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId100"/>
+  <pageSetup orientation="portrait" r:id="rId102"/>
   <tableParts count="1">
-    <tablePart r:id="rId101"/>
+    <tablePart r:id="rId103"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\brand\Documents\GitHub\dronetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9443D-1255-4382-8386-CF27CA6E942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD51A0D2-9A0B-4CBC-B1D4-A476559D0FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12435" yWindow="1125" windowWidth="34260" windowHeight="17175" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
+    <workbookView xWindow="19335" yWindow="1605" windowWidth="31395" windowHeight="16950" xr2:uid="{F4A05A8A-64F8-403E-920E-176B93041503}"/>
   </bookViews>
   <sheets>
     <sheet name="Drones" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="454">
   <si>
     <t>Model</t>
   </si>
@@ -1375,6 +1375,27 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>Crazyflie 2.1</t>
+  </si>
+  <si>
+    <t>Bitcraze</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>https://store.bitcraze.io/collections/kits/products/crazyflie-2-1-plus</t>
+  </si>
+  <si>
+    <t>Open-source flying development platform</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1552,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N117" totalsRowShown="0">
-  <autoFilter ref="A1:N117" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N114">
-    <sortCondition ref="B1:B114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}" name="Table1" displayName="Table1" ref="A1:N118" totalsRowShown="0">
+  <autoFilter ref="A1:N118" xr:uid="{4B9E4B32-E1FD-43C8-9952-BB0255030116}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N117">
+    <sortCondition ref="B1:B117"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{D437D100-220A-42E8-8A79-53DD0D82F2C1}" name="Model"/>
@@ -1550,7 +1571,7 @@
     <tableColumn id="10" xr3:uid="{A81D4614-5C19-4D4C-BB64-7D0D0C49726D}" name="Rating"/>
     <tableColumn id="13" xr3:uid="{6BD8BF8C-67F5-4B9E-B5F0-1CD261E58DE2}" name="User Notes"/>
     <tableColumn id="9" xr3:uid="{82B4C024-7D4B-4415-8257-D498EA9C1CAE}" name="Image" dataDxfId="0">
-      <calculatedColumnFormula>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</calculatedColumnFormula>
+      <calculatedColumnFormula>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C5E7F6E7-086F-471F-8EC4-EFF7248E5650}" name="Link"/>
   </tableColumns>
@@ -1855,11 +1876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC3608-A2A6-4CDF-B016-88634C5A4DA9}">
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F118" sqref="F118"/>
+      <selection pane="topRight" activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1970,7 @@
         <v>71</v>
       </c>
       <c r="M2" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Acecore-ZOE-Netherlands.jpg</v>
       </c>
       <c r="N2" t="s">
@@ -1985,7 +2006,7 @@
         <v>102</v>
       </c>
       <c r="M3" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AeroSystemsWest-HeavyLiftMultirotor-US.jpg</v>
       </c>
       <c r="N3" s="4" t="s">
@@ -2018,7 +2039,7 @@
         <v>175</v>
       </c>
       <c r="M4" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AerooInnovationsPty-AerooPro-Australia.jpg</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -2057,7 +2078,7 @@
         <v>107</v>
       </c>
       <c r="M5" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AgEagle-eBeeTAC-US.jpg</v>
       </c>
       <c r="N5" s="4" t="s">
@@ -2096,7 +2117,7 @@
         <v>107</v>
       </c>
       <c r="M6" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AgEagle-eBeeX-US.jpg</v>
       </c>
       <c r="N6" t="s">
@@ -2132,7 +2153,7 @@
         <v>357</v>
       </c>
       <c r="M7" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Anduril-Ghost-US.jpg</v>
       </c>
       <c r="N7" s="4" t="s">
@@ -2168,7 +2189,7 @@
         <v>357</v>
       </c>
       <c r="M8" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Anduril-GhostX-US.jpg</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -2189,7 +2210,7 @@
         <v>382</v>
       </c>
       <c r="E9" s="6">
-        <v>18500</v>
+        <v>19600</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>100</v>
@@ -2207,7 +2228,7 @@
         <v>135</v>
       </c>
       <c r="M9" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Arcsky-X55-US.jpg</v>
       </c>
       <c r="N9" s="4" t="s">
@@ -2246,7 +2267,7 @@
         <v>209</v>
       </c>
       <c r="M10" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AscentAerosystems-Spirit-US.jpg</v>
       </c>
       <c r="N10" t="s">
@@ -2282,7 +2303,7 @@
         <v>225</v>
       </c>
       <c r="M11" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AureliaAerospace-Tarot650-US.jpg</v>
       </c>
       <c r="N11" s="4" t="s">
@@ -2321,7 +2342,7 @@
         <v>214</v>
       </c>
       <c r="M12" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AureliaAerospace-X4-US.jpg</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -2360,7 +2381,7 @@
         <v>214</v>
       </c>
       <c r="M13" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AureliaAerospace-X6-US.jpg</v>
       </c>
       <c r="N13" s="4" t="s">
@@ -2399,7 +2420,7 @@
         <v>214</v>
       </c>
       <c r="M14" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/AureliaAerospace-X8-US.jpg</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -2432,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="M15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Autel-DragonfishLite-China.jpg</v>
       </c>
       <c r="N15" t="s">
@@ -2465,7 +2486,7 @@
         <v>25</v>
       </c>
       <c r="M16" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Autel-DragonfishPro-China.jpg</v>
       </c>
       <c r="N16" s="4" t="s">
@@ -2498,7 +2519,7 @@
         <v>25</v>
       </c>
       <c r="M17" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Autel-DragonfishStandard-China.jpg</v>
       </c>
       <c r="N17" t="s">
@@ -2534,7 +2555,7 @@
         <v>232</v>
       </c>
       <c r="M18" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Autel-EvoIIProv3-China.jpg</v>
       </c>
       <c r="N18" s="4" t="s">
@@ -2567,7 +2588,7 @@
         <v>25</v>
       </c>
       <c r="M19" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Autel-EVOMax4T-China.jpg</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -2603,7 +2624,7 @@
         <v>380</v>
       </c>
       <c r="M20" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Autel-EvoNano-China.jpg</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -2639,7 +2660,7 @@
         <v>53</v>
       </c>
       <c r="M21" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/BlueHalo-IntenseEyeV2-US.jpg</v>
       </c>
       <c r="N21" s="8" t="s">
@@ -2678,7 +2699,7 @@
         <v>61</v>
       </c>
       <c r="M22" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/BlueHalo-IntenseEyeV3-US.jpg</v>
       </c>
       <c r="N22" s="8" t="s">
@@ -2714,7 +2735,7 @@
         <v>36</v>
       </c>
       <c r="M23" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/CensysTechnologies-Sentaero5-US.jpg</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -2747,7 +2768,7 @@
         <v>18</v>
       </c>
       <c r="M24" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Commaris-Seeker-US.jpg</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -2780,7 +2801,7 @@
         <v>25</v>
       </c>
       <c r="M25" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DeltaQuad-DeltaQuadPro-Netherlands.jpg</v>
       </c>
       <c r="N25" s="4" t="s">
@@ -2813,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="M26" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-AgrasT30-China.jpg</v>
       </c>
       <c r="N26" s="4" t="s">
@@ -2846,7 +2867,7 @@
         <v>25</v>
       </c>
       <c r="M27" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-AgrasT40-China.jpg</v>
       </c>
       <c r="N27" s="4" t="s">
@@ -2879,7 +2900,7 @@
         <v>175</v>
       </c>
       <c r="M28" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Air2s-China.jpg</v>
       </c>
       <c r="N28" t="s">
@@ -2915,7 +2936,7 @@
         <v>244</v>
       </c>
       <c r="M29" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-AVATA-China.jpg</v>
       </c>
       <c r="N29" s="4" t="s">
@@ -2951,7 +2972,7 @@
         <v>151</v>
       </c>
       <c r="M30" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Inspire3-China.jpg</v>
       </c>
       <c r="N30" s="4" t="s">
@@ -2984,7 +3005,7 @@
         <v>25</v>
       </c>
       <c r="M31" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-M30Enterprise-China.jpg</v>
       </c>
       <c r="N31" s="8" t="s">
@@ -3017,7 +3038,7 @@
         <v>25</v>
       </c>
       <c r="M32" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-M30Thermal-China.jpg</v>
       </c>
       <c r="N32" s="8" t="s">
@@ -3053,7 +3074,7 @@
         <v>184</v>
       </c>
       <c r="M33" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Matrice300RTK-China.jpg</v>
       </c>
       <c r="N33" s="4" t="s">
@@ -3089,7 +3110,7 @@
         <v>151</v>
       </c>
       <c r="M34" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mavic3-China.jpg</v>
       </c>
       <c r="N34" t="s">
@@ -3125,7 +3146,7 @@
         <v>151</v>
       </c>
       <c r="M35" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mavic3Classic-China.jpg</v>
       </c>
       <c r="N35" s="4" t="s">
@@ -3161,7 +3182,7 @@
         <v>184</v>
       </c>
       <c r="M36" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mavic3Enterprise-China.jpg</v>
       </c>
       <c r="N36" s="4" t="s">
@@ -3197,7 +3218,7 @@
         <v>151</v>
       </c>
       <c r="M37" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mavic3Pro-China.jpg</v>
       </c>
       <c r="N37" s="4" t="s">
@@ -3230,7 +3251,7 @@
         <v>25</v>
       </c>
       <c r="M38" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mavic3Thermal-China.jpg</v>
       </c>
       <c r="N38" s="8" t="s">
@@ -3266,7 +3287,7 @@
         <v>151</v>
       </c>
       <c r="M39" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Mini3pro-China.jpg</v>
       </c>
       <c r="N39" s="4" t="s">
@@ -3299,7 +3320,7 @@
         <v>175</v>
       </c>
       <c r="M40" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DJI-Neo-China.jpg</v>
       </c>
       <c r="N40" s="4" t="s">
@@ -3335,7 +3356,7 @@
         <v>53</v>
       </c>
       <c r="M41" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Draganfly-Commander2-Canada.jpg</v>
       </c>
       <c r="N41" s="4" t="s">
@@ -3371,7 +3392,7 @@
         <v>53</v>
       </c>
       <c r="M42" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Draganfly-Commander3XL-Canada.jpg</v>
       </c>
       <c r="N42" s="4" t="s">
@@ -3404,7 +3425,7 @@
         <v>25</v>
       </c>
       <c r="M43" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/DroneVolt-Hercules20-France.jpg</v>
       </c>
       <c r="N43" t="s">
@@ -3440,7 +3461,7 @@
         <v>61</v>
       </c>
       <c r="M44" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/EasyAerial-Osprey-.jpg</v>
       </c>
       <c r="N44" s="8" t="s">
@@ -3476,8 +3497,8 @@
       <c r="J45" t="s">
         <v>53</v>
       </c>
-      <c r="M45" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+      <c r="M45" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/EdgeAutonomy-VXE30Stalker-US.jpg</v>
       </c>
       <c r="N45" s="4" t="s">
@@ -3519,7 +3540,7 @@
         <v>160</v>
       </c>
       <c r="M46" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Flightwave-Edge130-US.jpg</v>
       </c>
       <c r="N46" s="4" t="s">
@@ -3555,7 +3576,7 @@
         <v>61</v>
       </c>
       <c r="M47" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Fotokite-Sigma-US.jpg</v>
       </c>
       <c r="N47" s="4" t="s">
@@ -3594,7 +3615,7 @@
         <v>53</v>
       </c>
       <c r="M48" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Freefly-Astro(Blue)-US.jpg</v>
       </c>
       <c r="N48" s="4"/>
@@ -3633,8 +3654,8 @@
       <c r="L49" t="s">
         <v>408</v>
       </c>
-      <c r="M49" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+      <c r="M49" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Freefly-AstroMax(Blue)-US.jpg</v>
       </c>
       <c r="N49" t="s">
@@ -3667,7 +3688,7 @@
         <v>71</v>
       </c>
       <c r="M50" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Freefly-Alta-X-US.jpg</v>
       </c>
       <c r="N50" s="4" t="s">
@@ -3703,7 +3724,7 @@
         <v>53</v>
       </c>
       <c r="M51" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Freefly-Alta-X(NDAA)-US.jpg</v>
       </c>
       <c r="N51" s="4" t="s">
@@ -3739,7 +3760,7 @@
         <v>53</v>
       </c>
       <c r="M52" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Freefly-Astro-US.jpg</v>
       </c>
       <c r="N52" s="4" t="s">
@@ -3777,8 +3798,8 @@
       <c r="L53" t="s">
         <v>412</v>
       </c>
-      <c r="M53" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+      <c r="M53" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Freefly-FlyingSun500-US.jpg</v>
       </c>
       <c r="N53" t="s">
@@ -3816,8 +3837,8 @@
       <c r="L54" t="s">
         <v>412</v>
       </c>
-      <c r="M54" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+      <c r="M54" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Freefly-FlyingSun1000-US.jpg</v>
       </c>
       <c r="N54" t="s">
@@ -3856,7 +3877,7 @@
         <v>312</v>
       </c>
       <c r="M55" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/HarrisAerial-CarrierH6HE+-US.jpg</v>
       </c>
       <c r="N55" s="4" t="s">
@@ -3895,7 +3916,7 @@
         <v>314</v>
       </c>
       <c r="M56" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/HarrisAerial-CarrierH6Hydrone-US.jpg</v>
       </c>
       <c r="N56" s="4" t="s">
@@ -3928,7 +3949,7 @@
         <v>25</v>
       </c>
       <c r="M57" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/HarrisAerial-CarrierH6-US.jpg</v>
       </c>
       <c r="N57" s="4" t="s">
@@ -3961,7 +3982,7 @@
         <v>25</v>
       </c>
       <c r="M58" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/HarrisAerial-CarrierH8E-US.jpg</v>
       </c>
       <c r="N58" s="4" t="s">
@@ -3997,7 +4018,7 @@
         <v>264</v>
       </c>
       <c r="M59" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/HolyStone-HS600-China.jpg</v>
       </c>
       <c r="N59" s="4" t="s">
@@ -4033,7 +4054,7 @@
         <v>264</v>
       </c>
       <c r="M60" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/HolyStone-HS700E-China.jpg</v>
       </c>
       <c r="N60" s="4" t="s">
@@ -4069,7 +4090,7 @@
         <v>264</v>
       </c>
       <c r="M61" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/HolyStone-HS720-China.jpg</v>
       </c>
       <c r="N61" s="4" t="s">
@@ -4108,7 +4129,7 @@
         <v>264</v>
       </c>
       <c r="M62" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/HolyStone-HS720E-China.jpg</v>
       </c>
       <c r="N62" s="4" t="s">
@@ -4150,7 +4171,7 @@
         <v>61</v>
       </c>
       <c r="M63" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Hoverfly-Spectre-US.jpg</v>
       </c>
       <c r="N63" t="s">
@@ -4189,7 +4210,7 @@
         <v>61</v>
       </c>
       <c r="M64" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Hoverfly-Sentry-US.jpg</v>
       </c>
       <c r="N64" t="s">
@@ -4225,7 +4246,7 @@
         <v>53</v>
       </c>
       <c r="M65" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Hylio-AG-210-US.jpg</v>
       </c>
       <c r="N65" s="4" t="s">
@@ -4261,7 +4282,7 @@
         <v>53</v>
       </c>
       <c r="M66" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Hylio-AG-216-US.jpg</v>
       </c>
       <c r="N66" s="4" t="s">
@@ -4297,7 +4318,7 @@
         <v>53</v>
       </c>
       <c r="M67" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Hylio-AG-230-US.jpg</v>
       </c>
       <c r="N67" s="4" t="s">
@@ -4333,7 +4354,7 @@
         <v>53</v>
       </c>
       <c r="M68" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Hylio-AG-272-US.jpg</v>
       </c>
       <c r="N68" s="4" t="s">
@@ -4369,7 +4390,7 @@
         <v>53</v>
       </c>
       <c r="M69" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Hylio-HYL-150-US.jpg</v>
       </c>
       <c r="N69" s="4" t="s">
@@ -4405,7 +4426,7 @@
         <v>53</v>
       </c>
       <c r="M70" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/InspiredFlight-IF1200-US.jpg</v>
       </c>
       <c r="N70" s="4" t="s">
@@ -4441,7 +4462,7 @@
         <v>53</v>
       </c>
       <c r="M71" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/InspiredFlight-IF700-US.jpg</v>
       </c>
       <c r="N71" s="8" t="s">
@@ -4477,7 +4498,7 @@
         <v>53</v>
       </c>
       <c r="M72" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/InspiredFlight-IF800-US.jpg</v>
       </c>
       <c r="N72" s="4" t="s">
@@ -4513,7 +4534,7 @@
         <v>53</v>
       </c>
       <c r="M73" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/InspiredFlight-IF1200A-US.jpg</v>
       </c>
       <c r="N73" s="8" t="s">
@@ -4534,7 +4555,7 @@
         <v>382</v>
       </c>
       <c r="E74" s="6">
-        <v>56000</v>
+        <v>66570</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>41</v>
@@ -4546,7 +4567,7 @@
         <v>43</v>
       </c>
       <c r="M74" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Leica-BLK2FLY-Switzerland.jpg</v>
       </c>
       <c r="N74" t="s">
@@ -4582,7 +4603,7 @@
         <v>53</v>
       </c>
       <c r="M75" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Microdrones-md4-1000-Germany.jpg</v>
       </c>
       <c r="N75" s="4" t="s">
@@ -4618,7 +4639,7 @@
         <v>53</v>
       </c>
       <c r="M76" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Microdrones-md4-3000-Germany.jpg</v>
       </c>
       <c r="N76" t="s">
@@ -4659,8 +4680,8 @@
       <c r="L77" t="s">
         <v>417</v>
       </c>
-      <c r="M77" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+      <c r="M77" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/ModalAI-SeekerVisionMax-US.jpg</v>
       </c>
       <c r="N77" t="s">
@@ -4698,8 +4719,8 @@
       <c r="L78" t="s">
         <v>421</v>
       </c>
-      <c r="M78" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+      <c r="M78" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/ModalAI-PX4AutonomyDevKit-US.jpg</v>
       </c>
       <c r="N78" t="s">
@@ -4740,8 +4761,8 @@
       <c r="L79" t="s">
         <v>426</v>
       </c>
-      <c r="M79" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+      <c r="M79" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/NerosTechnologies-Archer-US.jpg</v>
       </c>
       <c r="N79" t="s">
@@ -4780,7 +4801,7 @@
         <v>430</v>
       </c>
       <c r="M80" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Parrot-ANAFIUSAGOV-US.jpg</v>
       </c>
       <c r="N80" s="4" t="s">
@@ -4816,7 +4837,7 @@
         <v>176</v>
       </c>
       <c r="M81" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Parrot-ANAFIAi-US.jpg</v>
       </c>
       <c r="N81" s="4" t="s">
@@ -4852,7 +4873,7 @@
         <v>176</v>
       </c>
       <c r="M82" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Parrot-ANAFIUSA-US.jpg</v>
       </c>
       <c r="N82" s="4" t="s">
@@ -4890,8 +4911,8 @@
       <c r="J83" t="s">
         <v>53</v>
       </c>
-      <c r="M83" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+      <c r="M83" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Parrot-ANAFIUKR-US.jpg</v>
       </c>
       <c r="N83" s="4" t="s">
@@ -4927,7 +4948,7 @@
         <v>53</v>
       </c>
       <c r="M84" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/PDW-C100-US.jpg</v>
       </c>
       <c r="N84" s="4" t="s">
@@ -4960,7 +4981,7 @@
         <v>338</v>
       </c>
       <c r="M85" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/PerceptoAir-Max-Israel.jpg</v>
       </c>
       <c r="N85" s="4" t="s">
@@ -4993,7 +5014,7 @@
         <v>338</v>
       </c>
       <c r="M86" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/PerceptoAir-MaxOGI-Israel.jpg</v>
       </c>
       <c r="N86" s="4" t="s">
@@ -5026,7 +5047,7 @@
         <v>338</v>
       </c>
       <c r="M87" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/PerceptoAir-Mobile-Israel.jpg</v>
       </c>
       <c r="N87" s="8" t="s">
@@ -5059,7 +5080,7 @@
         <v>71</v>
       </c>
       <c r="M88" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Quantum-Systems-TrinityF90+-Germany.jpg</v>
       </c>
       <c r="N88" s="8" t="s">
@@ -5092,7 +5113,7 @@
         <v>175</v>
       </c>
       <c r="M89" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Ruko-F11-China.jpg</v>
       </c>
       <c r="N89" s="4" t="s">
@@ -5125,7 +5146,7 @@
         <v>175</v>
       </c>
       <c r="M90" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Ruko-U11Pro-China.jpg</v>
       </c>
       <c r="N90" s="4" t="s">
@@ -5161,7 +5182,7 @@
         <v>264</v>
       </c>
       <c r="M91" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/SJRC-F114KPro-China.jpg</v>
       </c>
       <c r="N91" s="4" t="s">
@@ -5197,7 +5218,7 @@
         <v>264</v>
       </c>
       <c r="M92" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/SJRC-F11s4KPro-China.jpg</v>
       </c>
       <c r="N92" s="4" t="s">
@@ -5233,7 +5254,7 @@
         <v>264</v>
       </c>
       <c r="M93" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/SJRC-F22s4KPro-China.jpg</v>
       </c>
       <c r="N93" s="4" t="s">
@@ -5269,7 +5290,7 @@
         <v>264</v>
       </c>
       <c r="M94" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/SJRC-F5SPro-China.jpg</v>
       </c>
       <c r="N94" s="8" t="s">
@@ -5305,7 +5326,7 @@
         <v>264</v>
       </c>
       <c r="M95" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/SJRC-F5SPro+-China.jpg</v>
       </c>
       <c r="N95" t="s">
@@ -5341,7 +5362,7 @@
         <v>264</v>
       </c>
       <c r="M96" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/SJRC-F74KPro-China.jpg</v>
       </c>
       <c r="N96" s="4" t="s">
@@ -5380,7 +5401,7 @@
         <v>431</v>
       </c>
       <c r="M97" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Skydio-X10-US.jpg</v>
       </c>
       <c r="N97" s="4" t="s">
@@ -5419,7 +5440,7 @@
         <v>53</v>
       </c>
       <c r="M98" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Skydio-X10D-US.jpg</v>
       </c>
       <c r="N98" s="4" t="s">
@@ -5461,7 +5482,7 @@
         <v>366</v>
       </c>
       <c r="M99" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Skydio-X2D-US.jpg</v>
       </c>
       <c r="N99" s="4" t="s">
@@ -5497,7 +5518,7 @@
         <v>53</v>
       </c>
       <c r="M100" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Skydio-X2E-US.jpg</v>
       </c>
       <c r="N100" s="4" t="s">
@@ -5533,7 +5554,7 @@
         <v>249</v>
       </c>
       <c r="M101" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Skydio-2+-US.jpg</v>
       </c>
       <c r="N101" s="4" t="s">
@@ -5566,7 +5587,7 @@
         <v>71</v>
       </c>
       <c r="M102" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Sky-drones-Skylane-UK.jpg</v>
       </c>
       <c r="N102" s="4" t="s">
@@ -5608,7 +5629,7 @@
         <v>54</v>
       </c>
       <c r="M103" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Skyfront-Perimeter8-US.jpg</v>
       </c>
       <c r="N103" s="4" t="s">
@@ -5644,7 +5665,7 @@
         <v>201</v>
       </c>
       <c r="M104" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Sony-ARS-S1-US.jpg</v>
       </c>
       <c r="N104" s="4" t="s">
@@ -5686,7 +5707,7 @@
         <v>181</v>
       </c>
       <c r="M105" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/TEAL-GoldenEagle-US.jpg</v>
       </c>
       <c r="N105" t="s">
@@ -5722,7 +5743,7 @@
         <v>378</v>
       </c>
       <c r="M106" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Teal-Teal2-US.jpg</v>
       </c>
       <c r="N106" s="4" t="s">
@@ -5755,7 +5776,7 @@
         <v>25</v>
       </c>
       <c r="M107" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Teledyne-SIRAS-Taiwan.jpg</v>
       </c>
       <c r="N107" s="4" t="s">
@@ -5764,28 +5785,28 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="B108" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>382</v>
-      </c>
-      <c r="E108" s="6">
-        <v>7700</v>
+        <v>433</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="G108" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="H108" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="I108" t="s">
         <v>378</v>
@@ -5794,305 +5815,305 @@
         <v>53</v>
       </c>
       <c r="L108" t="s">
-        <v>209</v>
+        <v>436</v>
       </c>
       <c r="M108" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teledyne-BlackHornet4-US.jpg</v>
       </c>
       <c r="N108" t="s">
-        <v>210</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>438</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>129</v>
-      </c>
-      <c r="E109" s="6">
-        <v>18750</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>130</v>
+        <v>382</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G109" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="H109" t="s">
-        <v>25</v>
+        <v>435</v>
+      </c>
+      <c r="J109" t="s">
+        <v>53</v>
+      </c>
+      <c r="L109" t="s">
+        <v>439</v>
       </c>
       <c r="M109" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
-      </c>
-      <c r="N109" s="4" t="s">
-        <v>131</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Teledyne-Rogue1-US.jpg</v>
+      </c>
+      <c r="N109" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="B110" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>382</v>
+      </c>
+      <c r="E110" s="6">
+        <v>7700</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G110" t="s">
+        <v>59</v>
+      </c>
+      <c r="H110" t="s">
+        <v>60</v>
+      </c>
+      <c r="I110" t="s">
+        <v>378</v>
+      </c>
+      <c r="J110" t="s">
+        <v>53</v>
+      </c>
+      <c r="L110" t="s">
+        <v>209</v>
+      </c>
+      <c r="M110" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VantageRobotics-Vesper-US.jpg</v>
+      </c>
+      <c r="N110" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
         <v>95</v>
       </c>
-      <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" t="s">
-        <v>382</v>
-      </c>
-      <c r="E110" s="6">
-        <v>26050</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H110" t="s">
-        <v>25</v>
-      </c>
-      <c r="M110" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
-      </c>
-      <c r="N110" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" t="s">
-        <v>79</v>
-      </c>
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>382</v>
-      </c>
-      <c r="E111" s="7">
-        <v>29999</v>
+        <v>129</v>
+      </c>
+      <c r="E111" s="6">
+        <v>18750</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="G111" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H111" t="s">
         <v>25</v>
       </c>
-      <c r="J111" t="s">
-        <v>53</v>
-      </c>
       <c r="M111" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
-      </c>
-      <c r="N111" t="s">
-        <v>80</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VisionAerial-SwitchBlade-Elite-US.jpg</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C112" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>382</v>
       </c>
       <c r="E112" s="6">
-        <v>22000</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>106</v>
+        <v>26050</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
       </c>
       <c r="H112" t="s">
-        <v>60</v>
-      </c>
-      <c r="I112" t="s">
-        <v>378</v>
-      </c>
-      <c r="J112" t="s">
-        <v>53</v>
-      </c>
-      <c r="L112" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="M112" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
-      </c>
-      <c r="N112" t="s">
-        <v>108</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/VisionAerial-Vector-US.jpg</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>72</v>
+      <c r="A113" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="6">
-        <v>35085</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>74</v>
+        <v>382</v>
+      </c>
+      <c r="E113" s="7">
+        <v>29999</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G113" t="s">
         <v>24</v>
       </c>
       <c r="H113" t="s">
-        <v>71</v>
+        <v>25</v>
+      </c>
+      <c r="J113" t="s">
+        <v>53</v>
       </c>
       <c r="M113" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>75</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/WattsInnovation-PRISMSky-US.jpg</v>
+      </c>
+      <c r="N113" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114" s="6">
-        <v>29300</v>
+        <v>22000</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="G114" t="s">
         <v>42</v>
       </c>
       <c r="H114" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="I114" t="s">
+        <v>378</v>
+      </c>
+      <c r="J114" t="s">
+        <v>53</v>
+      </c>
+      <c r="L114" t="s">
+        <v>107</v>
       </c>
       <c r="M114" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/ZephyrSystems-OKO-250-US.jpg</v>
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Wingtra-WingtraOneGenII-Switzerland.jpg</v>
       </c>
       <c r="N114" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>433</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>290</v>
+        <v>15</v>
+      </c>
+      <c r="E115" s="6">
+        <v>35085</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>434</v>
+        <v>74</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="H115" t="s">
-        <v>435</v>
-      </c>
-      <c r="I115" t="s">
-        <v>378</v>
-      </c>
-      <c r="J115" t="s">
-        <v>53</v>
-      </c>
-      <c r="L115" t="s">
-        <v>436</v>
-      </c>
-      <c r="M115" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teledyne-BlackHornet4-US.jpg</v>
-      </c>
-      <c r="N115" t="s">
-        <v>437</v>
+        <v>71</v>
+      </c>
+      <c r="M115" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ZephyrSystems-ARK-350-US.jpg</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>382</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>290</v>
+        <v>15</v>
+      </c>
+      <c r="E116" s="6">
+        <v>29300</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="H116" t="s">
-        <v>435</v>
-      </c>
-      <c r="J116" t="s">
-        <v>53</v>
-      </c>
-      <c r="L116" t="s">
-        <v>439</v>
-      </c>
-      <c r="M116" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
-        <v>/dronetable/images/Teledyne-Rogue1-US.jpg</v>
+        <v>71</v>
+      </c>
+      <c r="M116" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/ZephyrSystems-OKO-250-US.jpg</v>
       </c>
       <c r="N116" t="s">
-        <v>437</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -6129,12 +6150,48 @@
       <c r="L117" t="s">
         <v>444</v>
       </c>
-      <c r="M117" s="15" t="str">
-        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", "") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+      <c r="M117" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
         <v>/dronetable/images/Zone5Technologies-Paladin-US.jpg</v>
       </c>
       <c r="N117" t="s">
         <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>447</v>
+      </c>
+      <c r="B118" t="s">
+        <v>448</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>382</v>
+      </c>
+      <c r="E118" s="5">
+        <v>240</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G118" t="s">
+        <v>453</v>
+      </c>
+      <c r="H118" t="s">
+        <v>449</v>
+      </c>
+      <c r="L118" t="s">
+        <v>451</v>
+      </c>
+      <c r="M118" s="15" t="str">
+        <f>"/dronetable/images/" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Make]]), " ", "") &amp; "-" &amp; SUBSTITUTE(SUBSTITUTE(TRIM(Table1[[#This Row],[Model]]), " ", ""),".","") &amp; "-" &amp; SUBSTITUTE(TRIM(Table1[[#This Row],[Made In]]), " ", "") &amp; ".jpg"</f>
+        <v>/dronetable/images/Bitcraze-Crazyflie21-China.jpg</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -6151,16 +6208,16 @@
     <hyperlink ref="N101" r:id="rId9" xr:uid="{2E627819-1E56-4911-A8C6-54C2999B056A}"/>
     <hyperlink ref="N104" r:id="rId10" xr:uid="{B09DDACB-4B99-4A35-9662-D95820C3F420}"/>
     <hyperlink ref="N88" r:id="rId11" xr:uid="{F071CEB6-9B62-4076-B527-69C2774A0A2A}"/>
-    <hyperlink ref="N109" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
-    <hyperlink ref="N111" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
-    <hyperlink ref="N113" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
-    <hyperlink ref="N114" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
-    <hyperlink ref="N112" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
+    <hyperlink ref="N111" r:id="rId12" xr:uid="{08250141-EE68-4FD1-B315-C8A7461AB32D}"/>
+    <hyperlink ref="N113" r:id="rId13" xr:uid="{449E169D-15FC-483D-86DF-506EA6EA8369}"/>
+    <hyperlink ref="N115" r:id="rId14" xr:uid="{CF09F0D8-8861-4708-974C-F99FF741A812}"/>
+    <hyperlink ref="N116" r:id="rId15" xr:uid="{7276EC12-A378-44AA-9B03-C75F9FA7233B}"/>
+    <hyperlink ref="N114" r:id="rId16" xr:uid="{BB428393-02D0-48E0-9041-91096391B283}"/>
     <hyperlink ref="N75" r:id="rId17" xr:uid="{3D92224C-A95A-41C9-9C91-133623E34CF9}"/>
     <hyperlink ref="N76" r:id="rId18" xr:uid="{BE1032F5-2B9C-453F-BEF0-1DA205496DA7}"/>
     <hyperlink ref="N2" r:id="rId19" xr:uid="{DC762510-5411-4346-ADC1-60C1710AEFF4}"/>
     <hyperlink ref="N102" r:id="rId20" xr:uid="{FCC5ACA1-0B94-45A0-B3E9-35ACCB226AAD}"/>
-    <hyperlink ref="N108" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
+    <hyperlink ref="N110" r:id="rId21" xr:uid="{99691082-43D5-4ECD-A3A1-132B6C8A1FA0}"/>
     <hyperlink ref="N64" r:id="rId22" xr:uid="{77844C4A-2D95-410E-925F-30EDF740EAF1}"/>
     <hyperlink ref="N63" r:id="rId23" xr:uid="{E9A3908B-C7FD-47D8-8055-E1874249A8BB}"/>
     <hyperlink ref="N47" r:id="rId24" xr:uid="{266B67AB-09E5-4769-B45A-56B0706A6A5B}"/>
@@ -6187,7 +6244,7 @@
     <hyperlink ref="N67" r:id="rId45" xr:uid="{23F17115-9179-4B0B-A5F5-0F5116A88A08}"/>
     <hyperlink ref="N73" r:id="rId46" xr:uid="{76A96B17-60B2-403A-AC45-599F1FE4A24F}"/>
     <hyperlink ref="N27" r:id="rId47" xr:uid="{A0523012-6C05-445A-974A-B3A49ABDACBD}"/>
-    <hyperlink ref="N110" r:id="rId48" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
+    <hyperlink ref="N112" r:id="rId48" xr:uid="{15FEE89A-5FC4-44F4-BA98-B78B2EC71196}"/>
     <hyperlink ref="N66" r:id="rId49" xr:uid="{9C2B86A3-EAFC-4F23-A86D-78CC2BDBCC34}"/>
     <hyperlink ref="N25" r:id="rId50" xr:uid="{422B5330-A905-4AB0-B139-84D956CD2FD4}"/>
     <hyperlink ref="N26" r:id="rId51" xr:uid="{B6B6B82A-AE51-4B42-9719-E5EA3598D511}"/>
@@ -6241,11 +6298,12 @@
     <hyperlink ref="N69" r:id="rId99" xr:uid="{721375D7-F490-4054-8E3D-7CE6E21B11D1}"/>
     <hyperlink ref="N45" r:id="rId100" xr:uid="{46F0C67D-A3D5-4172-AA42-E0503BBA35FD}"/>
     <hyperlink ref="N83" r:id="rId101" xr:uid="{0495BFA1-B469-4777-AC41-EA153F78A416}"/>
+    <hyperlink ref="N118" r:id="rId102" xr:uid="{5457E497-359B-4B5E-BF12-84AC406AEE32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId102"/>
+  <pageSetup orientation="portrait" r:id="rId103"/>
   <tableParts count="1">
-    <tablePart r:id="rId103"/>
+    <tablePart r:id="rId104"/>
   </tableParts>
 </worksheet>
 </file>